--- a/smoy_winners.xlsx
+++ b/smoy_winners.xlsx
@@ -6891,6 +6891,9 @@
       <c r="AD40">
         <v>0</v>
       </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
       <c r="AF40">
         <v>2.9</v>
       </c>

--- a/smoy_winners.xlsx
+++ b/smoy_winners.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="203">
-  <si>
-    <t>year_x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="204">
+  <si>
+    <t>season_ending_year_x</t>
   </si>
   <si>
     <t>award</t>
@@ -58,7 +58,7 @@
     <t>seas_id_y</t>
   </si>
   <si>
-    <t>year_y</t>
+    <t>season_ending_year_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>2024</t>
@@ -980,13 +983,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX43"/>
+  <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,22 +1140,25 @@
       <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2">
         <v>45</v>
@@ -1167,7 +1173,7 @@
         <v>0.711</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K2">
         <v>31663</v>
@@ -1176,19 +1182,22 @@
         <v>4771</v>
       </c>
       <c r="M2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N2">
         <v>31663</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="Q2">
+        <v>2000</v>
       </c>
       <c r="R2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S2">
         <v>24</v>
@@ -1197,10 +1206,10 @@
         <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W2">
         <v>81</v>
@@ -1278,30 +1287,33 @@
         <v>13.5</v>
       </c>
       <c r="AV2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AW2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX2" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY2">
+        <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3">
         <v>60</v>
@@ -1316,7 +1328,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K3">
         <v>30890</v>
@@ -1325,19 +1337,22 @@
         <v>4424</v>
       </c>
       <c r="M3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N3">
         <v>30890</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="Q3">
+        <v>1993</v>
       </c>
       <c r="R3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S3">
         <v>30</v>
@@ -1346,10 +1361,10 @@
         <v>7</v>
       </c>
       <c r="U3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W3">
         <v>67</v>
@@ -1427,30 +1442,33 @@
         <v>14.9</v>
       </c>
       <c r="AV3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AW3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX3" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY3">
+        <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F4">
         <v>96</v>
@@ -1465,7 +1483,7 @@
         <v>0.976</v>
       </c>
       <c r="J4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K4">
         <v>30411</v>
@@ -1474,19 +1492,22 @@
         <v>4796</v>
       </c>
       <c r="M4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N4">
         <v>30411</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="Q4">
+        <v>2000</v>
       </c>
       <c r="R4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S4">
         <v>22</v>
@@ -1495,10 +1516,10 @@
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W4">
         <v>66</v>
@@ -1576,30 +1597,33 @@
         <v>20.7</v>
       </c>
       <c r="AV4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AW4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX4" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY4">
+        <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5">
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5">
         <v>65</v>
@@ -1614,7 +1638,7 @@
         <v>0.8139999999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K5">
         <v>29298</v>
@@ -1623,19 +1647,22 @@
         <v>4265</v>
       </c>
       <c r="M5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N5">
         <v>29298</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="Q5">
+        <v>1993</v>
       </c>
       <c r="R5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S5">
         <v>28</v>
@@ -1644,10 +1671,10 @@
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W5">
         <v>68</v>
@@ -1725,30 +1752,33 @@
         <v>18.4</v>
       </c>
       <c r="AV5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AW5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX5" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY5">
+        <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6">
         <v>58</v>
@@ -1763,7 +1793,7 @@
         <v>0.794</v>
       </c>
       <c r="J6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K6">
         <v>28762</v>
@@ -1772,19 +1802,22 @@
         <v>4349</v>
       </c>
       <c r="M6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N6">
         <v>28762</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="Q6">
+        <v>1994</v>
       </c>
       <c r="R6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S6">
         <v>26</v>
@@ -1793,10 +1826,10 @@
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W6">
         <v>63</v>
@@ -1874,30 +1907,33 @@
         <v>18.6</v>
       </c>
       <c r="AV6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AW6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX6" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY6">
+        <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7">
         <v>96</v>
@@ -1912,7 +1948,7 @@
         <v>0.978</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K7">
         <v>28013</v>
@@ -1921,19 +1957,22 @@
         <v>3619</v>
       </c>
       <c r="M7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N7">
         <v>28013</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="Q7">
+        <v>1987</v>
       </c>
       <c r="R7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S7">
         <v>32</v>
@@ -1942,10 +1981,10 @@
         <v>14</v>
       </c>
       <c r="U7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W7">
         <v>75</v>
@@ -2023,30 +2062,33 @@
         <v>20</v>
       </c>
       <c r="AV7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AW7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX7" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY7">
+        <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8">
         <v>97</v>
@@ -2061,7 +2103,7 @@
         <v>0.98</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K8">
         <v>27326</v>
@@ -2070,19 +2112,22 @@
         <v>3619</v>
       </c>
       <c r="M8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N8">
         <v>27326</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="Q8">
+        <v>1987</v>
       </c>
       <c r="R8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S8">
         <v>31</v>
@@ -2091,10 +2136,10 @@
         <v>13</v>
       </c>
       <c r="U8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W8">
         <v>79</v>
@@ -2172,30 +2217,33 @@
         <v>22.6</v>
       </c>
       <c r="AV8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AW8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX8" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY8">
+        <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F9">
         <v>46</v>
@@ -2210,7 +2258,7 @@
         <v>0.716</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K9">
         <v>26508</v>
@@ -2219,19 +2267,22 @@
         <v>3815</v>
       </c>
       <c r="M9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N9">
         <v>26508</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>1989</v>
       </c>
       <c r="R9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S9">
         <v>28</v>
@@ -2240,10 +2291,10 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W9">
         <v>75</v>
@@ -2321,30 +2372,33 @@
         <v>16.2</v>
       </c>
       <c r="AV9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AW9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX9" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY9">
+        <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10">
         <v>51</v>
@@ -2359,7 +2413,7 @@
         <v>0.525</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K10">
         <v>25966</v>
@@ -2368,19 +2422,22 @@
         <v>3258</v>
       </c>
       <c r="M10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N10">
         <v>25966</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="Q10">
+        <v>1981</v>
       </c>
       <c r="R10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S10">
         <v>35</v>
@@ -2389,10 +2446,10 @@
         <v>16</v>
       </c>
       <c r="U10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W10">
         <v>79</v>
@@ -2470,30 +2527,33 @@
         <v>14.2</v>
       </c>
       <c r="AV10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AW10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX10" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY10">
+        <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11">
         <v>78</v>
@@ -2508,7 +2568,7 @@
         <v>0.772</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K11">
         <v>25497</v>
@@ -2517,19 +2577,22 @@
         <v>3619</v>
       </c>
       <c r="M11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N11">
         <v>25497</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="Q11">
+        <v>1987</v>
       </c>
       <c r="R11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S11">
         <v>28</v>
@@ -2538,10 +2601,10 @@
         <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W11">
         <v>80</v>
@@ -2619,30 +2682,33 @@
         <v>15.5</v>
       </c>
       <c r="AV11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AW11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX11" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY11">
+        <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12">
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12">
         <v>57</v>
@@ -2657,7 +2723,7 @@
         <v>0.674</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K12">
         <v>24728</v>
@@ -2666,19 +2732,22 @@
         <v>3258</v>
       </c>
       <c r="M12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N12">
         <v>24728</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="Q12">
+        <v>1981</v>
       </c>
       <c r="R12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S12">
         <v>33</v>
@@ -2687,10 +2756,10 @@
         <v>14</v>
       </c>
       <c r="U12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W12">
         <v>69</v>
@@ -2768,30 +2837,33 @@
         <v>18.6</v>
       </c>
       <c r="AV12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AW12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX12" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY12">
+        <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F13">
         <v>72</v>
@@ -2806,7 +2878,7 @@
         <v>0.8</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K13">
         <v>24140</v>
@@ -2815,19 +2887,22 @@
         <v>3527</v>
       </c>
       <c r="M13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13">
         <v>24140</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Q13">
+        <v>1986</v>
       </c>
       <c r="R13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S13">
         <v>27</v>
@@ -2836,10 +2911,10 @@
         <v>9</v>
       </c>
       <c r="U13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W13">
         <v>80</v>
@@ -2917,30 +2992,33 @@
         <v>18.1</v>
       </c>
       <c r="AV13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AW13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX13" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY13">
+        <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F14">
         <v>115</v>
@@ -2955,7 +3033,7 @@
         <v>0.982</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14">
         <v>23594</v>
@@ -2964,19 +3042,22 @@
         <v>3880</v>
       </c>
       <c r="M14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14">
         <v>23594</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Q14">
+        <v>1990</v>
       </c>
       <c r="R14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S14">
         <v>22</v>
@@ -2985,10 +3066,10 @@
         <v>3</v>
       </c>
       <c r="U14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W14">
         <v>62</v>
@@ -3066,30 +3147,33 @@
         <v>16.8</v>
       </c>
       <c r="AV14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AW14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX14" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY14">
+        <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F15">
         <v>96</v>
@@ -3104,7 +3188,7 @@
         <v>0.877</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K15">
         <v>23106</v>
@@ -3113,19 +3197,22 @@
         <v>3201</v>
       </c>
       <c r="M15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N15">
         <v>23106</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Q15">
+        <v>1980</v>
       </c>
       <c r="R15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S15">
         <v>31</v>
@@ -3134,10 +3221,10 @@
         <v>12</v>
       </c>
       <c r="U15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W15">
         <v>82</v>
@@ -3215,30 +3302,33 @@
         <v>14.4</v>
       </c>
       <c r="AV15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AW15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX15" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY15">
+        <v>2011</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16">
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F16">
         <v>110</v>
@@ -3253,7 +3343,7 @@
         <v>0.951</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K16">
         <v>22391</v>
@@ -3262,19 +3352,22 @@
         <v>3258</v>
       </c>
       <c r="M16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N16">
         <v>22391</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="Q16">
+        <v>1981</v>
       </c>
       <c r="R16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S16">
         <v>29</v>
@@ -3283,10 +3376,10 @@
         <v>10</v>
       </c>
       <c r="U16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W16">
         <v>79</v>
@@ -3364,30 +3457,33 @@
         <v>18</v>
       </c>
       <c r="AV16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AW16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX16" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY16">
+        <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:51">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F17">
         <v>111</v>
@@ -3402,7 +3498,7 @@
         <v>0.952</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17">
         <v>21831</v>
@@ -3411,19 +3507,22 @@
         <v>3194</v>
       </c>
       <c r="M17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N17">
         <v>21831</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Q17">
+        <v>1978</v>
       </c>
       <c r="R17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S17">
         <v>31</v>
@@ -3432,10 +3531,10 @@
         <v>10</v>
       </c>
       <c r="U17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W17">
         <v>74</v>
@@ -3513,30 +3612,33 @@
         <v>19.6</v>
       </c>
       <c r="AV17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AW17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX17" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY17">
+        <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:51">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18">
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F18">
         <v>123</v>
@@ -3551,7 +3653,7 @@
         <v>0.992</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K18">
         <v>21344</v>
@@ -3560,19 +3662,22 @@
         <v>3401</v>
       </c>
       <c r="M18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N18">
         <v>21344</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Q18">
+        <v>1978</v>
       </c>
       <c r="R18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S18">
         <v>30</v>
@@ -3581,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="U18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W18">
         <v>74</v>
@@ -3662,30 +3767,33 @@
         <v>19.5</v>
       </c>
       <c r="AV18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AW18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX18" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY18">
+        <v>2008</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19">
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F19">
         <v>101</v>
@@ -3700,7 +3808,7 @@
         <v>0.91</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K19">
         <v>20760</v>
@@ -3709,19 +3817,22 @@
         <v>3462</v>
       </c>
       <c r="M19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N19">
         <v>20760</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Q19">
+        <v>1983</v>
       </c>
       <c r="R19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S19">
         <v>24</v>
@@ -3730,10 +3841,10 @@
         <v>4</v>
       </c>
       <c r="U19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W19">
         <v>80</v>
@@ -3811,30 +3922,33 @@
         <v>18.1</v>
       </c>
       <c r="AV19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AW19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX19" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY19">
+        <v>2007</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:51">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D20">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20">
         <v>88</v>
@@ -3849,7 +3963,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K20">
         <v>20282</v>
@@ -3858,19 +3972,22 @@
         <v>3276</v>
       </c>
       <c r="M20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N20">
         <v>20282</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Q20">
+        <v>1981</v>
       </c>
       <c r="R20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S20">
         <v>25</v>
@@ -3879,10 +3996,10 @@
         <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W20">
         <v>74</v>
@@ -3960,30 +4077,33 @@
         <v>13.7</v>
       </c>
       <c r="AV20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AW20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX20" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY20">
+        <v>2006</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:51">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21">
         <v>88</v>
@@ -3998,7 +4118,7 @@
         <v>0.821</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K21">
         <v>19365</v>
@@ -4007,19 +4127,22 @@
         <v>3505</v>
       </c>
       <c r="M21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N21">
         <v>19365</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Q21">
+        <v>1984</v>
       </c>
       <c r="R21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S21">
         <v>21</v>
@@ -4028,10 +4151,10 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W21">
         <v>82</v>
@@ -4109,30 +4232,33 @@
         <v>15.1</v>
       </c>
       <c r="AV21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AW21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX21" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY21">
+        <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F22">
         <v>43</v>
@@ -4147,7 +4273,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22">
         <v>18751</v>
@@ -4156,19 +4282,22 @@
         <v>3104</v>
       </c>
       <c r="M22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N22">
         <v>18751</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Q22">
+        <v>1977</v>
       </c>
       <c r="R22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S22">
         <v>27</v>
@@ -4177,10 +4306,10 @@
         <v>6</v>
       </c>
       <c r="U22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W22">
         <v>82</v>
@@ -4258,30 +4387,33 @@
         <v>14.8</v>
       </c>
       <c r="AV22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AW22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX22" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY22">
+        <v>2004</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:51">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D23">
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F23">
         <v>52</v>
@@ -4296,7 +4428,7 @@
         <v>0.614</v>
       </c>
       <c r="J23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K23">
         <v>18294</v>
@@ -4305,19 +4437,22 @@
         <v>3041</v>
       </c>
       <c r="M23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N23">
         <v>18294</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Q23">
+        <v>1974</v>
       </c>
       <c r="R23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S23">
         <v>29</v>
@@ -4326,10 +4461,10 @@
         <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W23">
         <v>59</v>
@@ -4407,30 +4542,33 @@
         <v>15.2</v>
       </c>
       <c r="AV23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AW23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX23" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY23">
+        <v>2003</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:51">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D24">
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24">
         <v>56</v>
@@ -4445,7 +4583,7 @@
         <v>0.448</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K24">
         <v>17842</v>
@@ -4454,19 +4592,22 @@
         <v>2908</v>
       </c>
       <c r="M24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N24">
         <v>17842</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Q24">
+        <v>1974</v>
       </c>
       <c r="R24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S24">
         <v>28</v>
@@ -4475,10 +4616,10 @@
         <v>7</v>
       </c>
       <c r="U24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W24">
         <v>78</v>
@@ -4556,30 +4697,33 @@
         <v>13.6</v>
       </c>
       <c r="AV24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AW24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX24" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY24">
+        <v>2002</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D25">
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F25">
         <v>57</v>
@@ -4594,7 +4738,7 @@
         <v>0.46</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K25">
         <v>17212</v>
@@ -4603,19 +4747,22 @@
         <v>2832</v>
       </c>
       <c r="M25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N25">
         <v>17212</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Q25">
+        <v>1973</v>
       </c>
       <c r="R25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S25">
         <v>28</v>
@@ -4624,10 +4771,10 @@
         <v>7</v>
       </c>
       <c r="U25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W25">
         <v>76</v>
@@ -4705,30 +4852,33 @@
         <v>11.6</v>
       </c>
       <c r="AV25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AW25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX25" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY25">
+        <v>2001</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F26">
         <v>104</v>
@@ -4743,7 +4893,7 @@
         <v>0.86</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K26">
         <v>17111</v>
@@ -4752,19 +4902,22 @@
         <v>2821</v>
       </c>
       <c r="M26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N26">
         <v>17111</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Q26">
+        <v>1972</v>
       </c>
       <c r="R26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S26">
         <v>28</v>
@@ -4773,10 +4926,10 @@
         <v>7</v>
       </c>
       <c r="U26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W26">
         <v>82</v>
@@ -4854,30 +5007,33 @@
         <v>13.8</v>
       </c>
       <c r="AV26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AW26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX26" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY26">
+        <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D27">
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F27">
         <v>85</v>
@@ -4892,7 +5048,7 @@
         <v>0.72</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K27">
         <v>16338</v>
@@ -4901,19 +5057,22 @@
         <v>2846</v>
       </c>
       <c r="M27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N27">
         <v>16338</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Q27">
+        <v>1969</v>
       </c>
       <c r="R27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S27">
         <v>30</v>
@@ -4922,10 +5081,10 @@
         <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W27">
         <v>50</v>
@@ -5003,30 +5162,33 @@
         <v>13.8</v>
       </c>
       <c r="AV27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AW27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX27" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY27">
+        <v>1999</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D28">
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F28">
         <v>57</v>
@@ -5041,7 +5203,7 @@
         <v>0.491</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K28">
         <v>15806</v>
@@ -5050,19 +5212,22 @@
         <v>2417</v>
       </c>
       <c r="M28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N28">
         <v>15806</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Q28">
+        <v>1967</v>
       </c>
       <c r="R28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S28">
         <v>31</v>
@@ -5071,10 +5236,10 @@
         <v>10</v>
       </c>
       <c r="U28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W28">
         <v>70</v>
@@ -5152,30 +5317,33 @@
         <v>13.5</v>
       </c>
       <c r="AV28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AW28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX28" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY28">
+        <v>1998</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29">
         <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F29">
         <v>84</v>
@@ -5190,7 +5358,7 @@
         <v>0.73</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K29">
         <v>15391</v>
@@ -5199,19 +5367,22 @@
         <v>2438</v>
       </c>
       <c r="M29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N29">
         <v>15391</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Q29">
+        <v>1966</v>
       </c>
       <c r="R29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S29">
         <v>31</v>
@@ -5220,10 +5391,10 @@
         <v>8</v>
       </c>
       <c r="U29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W29">
         <v>77</v>
@@ -5301,30 +5472,33 @@
         <v>13.8</v>
       </c>
       <c r="AV29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AW29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX29" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY29">
+        <v>1997</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F30">
         <v>45</v>
@@ -5339,7 +5513,7 @@
         <v>0.398</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K30">
         <v>15049</v>
@@ -5348,19 +5522,22 @@
         <v>2829</v>
       </c>
       <c r="M30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N30">
         <v>15049</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Q30">
+        <v>1969</v>
       </c>
       <c r="R30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S30">
         <v>27</v>
@@ -5369,10 +5546,10 @@
         <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W30">
         <v>81</v>
@@ -5450,30 +5627,33 @@
         <v>13.1</v>
       </c>
       <c r="AV30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AW30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX30" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY30">
+        <v>1996</v>
       </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D31">
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F31">
         <v>47</v>
@@ -5488,7 +5668,7 @@
         <v>0.448</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K31">
         <v>14109</v>
@@ -5497,19 +5677,22 @@
         <v>2481</v>
       </c>
       <c r="M31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N31">
         <v>14109</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Q31">
+        <v>1967</v>
       </c>
       <c r="R31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S31">
         <v>28</v>
@@ -5518,10 +5701,10 @@
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W31">
         <v>77</v>
@@ -5599,30 +5782,33 @@
         <v>9.9</v>
       </c>
       <c r="AV31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX31" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY31">
+        <v>1995</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F32">
         <v>46</v>
@@ -5637,7 +5823,7 @@
         <v>0.455</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K32">
         <v>13722</v>
@@ -5646,19 +5832,22 @@
         <v>2299</v>
       </c>
       <c r="M32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N32">
         <v>13722</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Q32">
+        <v>1965</v>
       </c>
       <c r="R32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S32">
         <v>29</v>
@@ -5667,10 +5856,10 @@
         <v>8</v>
       </c>
       <c r="U32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W32">
         <v>82</v>
@@ -5748,30 +5937,33 @@
         <v>16.3</v>
       </c>
       <c r="AV32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AW32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX32" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY32">
+        <v>1994</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F33">
         <v>89</v>
@@ -5786,7 +5978,7 @@
         <v>0.908</v>
       </c>
       <c r="J33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K33">
         <v>13240</v>
@@ -5795,19 +5987,22 @@
         <v>2492</v>
       </c>
       <c r="M33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N33">
         <v>13240</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Q33">
+        <v>1967</v>
       </c>
       <c r="R33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S33">
         <v>26</v>
@@ -5816,10 +6011,10 @@
         <v>4</v>
       </c>
       <c r="U33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="W33">
         <v>82</v>
@@ -5897,30 +6092,33 @@
         <v>19.1</v>
       </c>
       <c r="AV33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AW33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX33" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY33">
+        <v>1993</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D34">
         <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F34">
         <v>54</v>
@@ -5935,7 +6133,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="J34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K34">
         <v>12817</v>
@@ -5944,19 +6142,22 @@
         <v>2236</v>
       </c>
       <c r="M34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N34">
         <v>12817</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Q34">
+        <v>1963</v>
       </c>
       <c r="R34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S34">
         <v>29</v>
@@ -5965,10 +6166,10 @@
         <v>7</v>
       </c>
       <c r="U34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W34">
         <v>80</v>
@@ -6046,30 +6247,33 @@
         <v>17.3</v>
       </c>
       <c r="AV34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AW34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX34" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY34">
+        <v>1992</v>
       </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D35">
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F35">
         <v>38</v>
@@ -6084,7 +6288,7 @@
         <v>0.396</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K35">
         <v>12374</v>
@@ -6093,19 +6297,22 @@
         <v>2236</v>
       </c>
       <c r="M35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N35">
         <v>12374</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P35" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Q35">
+        <v>1963</v>
       </c>
       <c r="R35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S35">
         <v>28</v>
@@ -6114,10 +6321,10 @@
         <v>6</v>
       </c>
       <c r="U35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W35">
         <v>82</v>
@@ -6195,30 +6402,33 @@
         <v>16.1</v>
       </c>
       <c r="AV35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AW35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX35" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY35">
+        <v>1991</v>
       </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F36">
         <v>77</v>
@@ -6233,7 +6443,7 @@
         <v>0.837</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K36">
         <v>12152</v>
@@ -6242,19 +6452,22 @@
         <v>2090</v>
       </c>
       <c r="M36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N36">
         <v>12152</v>
       </c>
       <c r="O36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Q36">
+        <v>1960</v>
       </c>
       <c r="R36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S36">
         <v>30</v>
@@ -6263,10 +6476,10 @@
         <v>8</v>
       </c>
       <c r="U36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W36">
         <v>59</v>
@@ -6344,30 +6557,33 @@
         <v>23</v>
       </c>
       <c r="AV36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AW36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX36" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY36">
+        <v>1990</v>
       </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37">
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F37">
         <v>33</v>
@@ -6382,7 +6598,7 @@
         <v>0.388</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K37">
         <v>11500</v>
@@ -6391,22 +6607,22 @@
         <v>1993</v>
       </c>
       <c r="M37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N37">
         <v>11500</v>
       </c>
       <c r="O37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q37">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="R37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S37">
         <v>29</v>
@@ -6415,10 +6631,10 @@
         <v>8</v>
       </c>
       <c r="U37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W37">
         <v>70</v>
@@ -6496,30 +6712,33 @@
         <v>21.5</v>
       </c>
       <c r="AV37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AW37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX37" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY37">
+        <v>1989</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38">
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F38">
         <v>67</v>
@@ -6534,7 +6753,7 @@
         <v>0.838</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K38">
         <v>11294</v>
@@ -6543,19 +6762,22 @@
         <v>2337</v>
       </c>
       <c r="M38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N38">
         <v>11294</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Q38">
+        <v>1965</v>
       </c>
       <c r="R38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S38">
         <v>23</v>
@@ -6564,10 +6786,10 @@
         <v>2</v>
       </c>
       <c r="U38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W38">
         <v>81</v>
@@ -6645,30 +6867,33 @@
         <v>13.5</v>
       </c>
       <c r="AV38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AW38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX38" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY38">
+        <v>1988</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39">
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F39">
         <v>41</v>
@@ -6683,7 +6908,7 @@
         <v>0.526</v>
       </c>
       <c r="J39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K39">
         <v>10868</v>
@@ -6692,19 +6917,22 @@
         <v>2090</v>
       </c>
       <c r="M39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N39">
         <v>10868</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Q39">
+        <v>1960</v>
       </c>
       <c r="R39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S39">
         <v>27</v>
@@ -6713,10 +6941,10 @@
         <v>5</v>
       </c>
       <c r="U39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W39">
         <v>79</v>
@@ -6794,30 +7022,33 @@
         <v>19.5</v>
       </c>
       <c r="AV39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AW39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX39" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY39">
+        <v>1987</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40">
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F40">
         <v>32</v>
@@ -6832,7 +7063,7 @@
         <v>0.41</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K40">
         <v>10203</v>
@@ -6841,19 +7072,22 @@
         <v>1556</v>
       </c>
       <c r="M40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N40">
         <v>10203</v>
       </c>
       <c r="O40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Q40">
+        <v>1953</v>
       </c>
       <c r="R40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S40">
         <v>33</v>
@@ -6862,10 +7096,10 @@
         <v>9</v>
       </c>
       <c r="U40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W40">
         <v>80</v>
@@ -6943,30 +7177,33 @@
         <v>7.6</v>
       </c>
       <c r="AV40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AW40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX40" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY40">
+        <v>1986</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41">
         <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F41">
         <v>57</v>
@@ -6981,7 +7218,7 @@
         <v>0.731</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K41">
         <v>10006</v>
@@ -6990,19 +7227,22 @@
         <v>1938</v>
       </c>
       <c r="M41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N41">
         <v>10006</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Q41">
+        <v>1958</v>
       </c>
       <c r="R41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S41">
         <v>27</v>
@@ -7011,10 +7251,10 @@
         <v>5</v>
       </c>
       <c r="U41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W41">
         <v>79</v>
@@ -7092,30 +7332,33 @@
         <v>19.8</v>
       </c>
       <c r="AV41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AW41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX41" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY41">
+        <v>1985</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:51">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42">
         <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F42">
         <v>59</v>
@@ -7130,7 +7373,7 @@
         <v>0.776</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K42">
         <v>9655</v>
@@ -7139,19 +7382,22 @@
         <v>1938</v>
       </c>
       <c r="M42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N42">
         <v>9655</v>
       </c>
       <c r="O42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Q42">
+        <v>1958</v>
       </c>
       <c r="R42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S42">
         <v>26</v>
@@ -7160,10 +7406,10 @@
         <v>4</v>
       </c>
       <c r="U42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W42">
         <v>82</v>
@@ -7241,33 +7487,36 @@
         <v>18.4</v>
       </c>
       <c r="AV42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AW42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX42" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY42">
+        <v>1984</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:51">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43">
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K43">
         <v>9119</v>
@@ -7276,22 +7525,22 @@
         <v>1559</v>
       </c>
       <c r="M43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N43">
         <v>9119</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q43">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="R43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S43">
         <v>31</v>
@@ -7300,10 +7549,10 @@
         <v>9</v>
       </c>
       <c r="U43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W43">
         <v>74</v>
@@ -7381,13 +7630,16 @@
         <v>9</v>
       </c>
       <c r="AV43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AW43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AX43" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="AY43">
+        <v>1983</v>
       </c>
     </row>
   </sheetData>

--- a/smoy_winners.xlsx
+++ b/smoy_winners.xlsx
@@ -1194,13 +1194,13 @@
         <v>94</v>
       </c>
       <c r="Q2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="R2" t="s">
         <v>196</v>
       </c>
       <c r="S2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2">
         <v>5</v>
@@ -1349,13 +1349,13 @@
         <v>95</v>
       </c>
       <c r="Q3">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R3" t="s">
         <v>197</v>
       </c>
       <c r="S3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T3">
         <v>7</v>
@@ -1504,13 +1504,13 @@
         <v>96</v>
       </c>
       <c r="Q4">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="R4" t="s">
         <v>198</v>
       </c>
       <c r="S4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -1659,13 +1659,13 @@
         <v>97</v>
       </c>
       <c r="Q5">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R5" t="s">
         <v>198</v>
       </c>
       <c r="S5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5">
         <v>7</v>
@@ -1814,13 +1814,13 @@
         <v>98</v>
       </c>
       <c r="Q6">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="R6" t="s">
         <v>196</v>
       </c>
       <c r="S6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -1969,13 +1969,13 @@
         <v>99</v>
       </c>
       <c r="Q7">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="R7" t="s">
         <v>198</v>
       </c>
       <c r="S7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7">
         <v>14</v>
@@ -2124,13 +2124,13 @@
         <v>99</v>
       </c>
       <c r="Q8">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="R8" t="s">
         <v>198</v>
       </c>
       <c r="S8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8">
         <v>13</v>
@@ -2279,13 +2279,13 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R9" t="s">
         <v>198</v>
       </c>
       <c r="S9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T9">
         <v>9</v>
@@ -2434,13 +2434,13 @@
         <v>101</v>
       </c>
       <c r="Q10">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R10" t="s">
         <v>198</v>
       </c>
       <c r="S10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T10">
         <v>16</v>
@@ -2589,13 +2589,13 @@
         <v>99</v>
       </c>
       <c r="Q11">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="R11" t="s">
         <v>198</v>
       </c>
       <c r="S11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T11">
         <v>10</v>
@@ -2744,13 +2744,13 @@
         <v>101</v>
       </c>
       <c r="Q12">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R12" t="s">
         <v>198</v>
       </c>
       <c r="S12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T12">
         <v>14</v>
@@ -2899,13 +2899,13 @@
         <v>102</v>
       </c>
       <c r="Q13">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="R13" t="s">
         <v>198</v>
       </c>
       <c r="S13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T13">
         <v>9</v>
@@ -3054,13 +3054,13 @@
         <v>103</v>
       </c>
       <c r="Q14">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="R14" t="s">
         <v>198</v>
       </c>
       <c r="S14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T14">
         <v>3</v>
@@ -3209,13 +3209,13 @@
         <v>104</v>
       </c>
       <c r="Q15">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R15" t="s">
         <v>199</v>
       </c>
       <c r="S15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T15">
         <v>12</v>
@@ -3364,13 +3364,13 @@
         <v>101</v>
       </c>
       <c r="Q16">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R16" t="s">
         <v>198</v>
       </c>
       <c r="S16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T16">
         <v>10</v>
@@ -3519,13 +3519,13 @@
         <v>105</v>
       </c>
       <c r="Q17">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="R17" t="s">
         <v>198</v>
       </c>
       <c r="S17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T17">
         <v>10</v>
@@ -3674,13 +3674,13 @@
         <v>106</v>
       </c>
       <c r="Q18">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="R18" t="s">
         <v>198</v>
       </c>
       <c r="S18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T18">
         <v>6</v>
@@ -3829,13 +3829,13 @@
         <v>107</v>
       </c>
       <c r="Q19">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="R19" t="s">
         <v>198</v>
       </c>
       <c r="S19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T19">
         <v>4</v>
@@ -3984,13 +3984,13 @@
         <v>108</v>
       </c>
       <c r="Q20">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R20" t="s">
         <v>198</v>
       </c>
       <c r="S20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T20">
         <v>6</v>
@@ -4139,13 +4139,13 @@
         <v>109</v>
       </c>
       <c r="Q21">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="R21" t="s">
         <v>198</v>
       </c>
       <c r="S21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -4294,13 +4294,13 @@
         <v>110</v>
       </c>
       <c r="Q22">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="R22" t="s">
         <v>200</v>
       </c>
       <c r="S22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T22">
         <v>6</v>
@@ -4449,13 +4449,13 @@
         <v>111</v>
       </c>
       <c r="Q23">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="R23" t="s">
         <v>197</v>
       </c>
       <c r="S23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T23">
         <v>6</v>
@@ -4604,13 +4604,13 @@
         <v>112</v>
       </c>
       <c r="Q24">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="R24" t="s">
         <v>200</v>
       </c>
       <c r="S24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T24">
         <v>7</v>
@@ -4759,13 +4759,13 @@
         <v>113</v>
       </c>
       <c r="Q25">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="R25" t="s">
         <v>198</v>
       </c>
       <c r="S25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T25">
         <v>7</v>
@@ -4914,13 +4914,13 @@
         <v>114</v>
       </c>
       <c r="Q26">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="R26" t="s">
         <v>199</v>
       </c>
       <c r="S26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T26">
         <v>7</v>
@@ -5069,13 +5069,13 @@
         <v>115</v>
       </c>
       <c r="Q27">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="R27" t="s">
         <v>197</v>
       </c>
       <c r="S27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T27">
         <v>5</v>
@@ -5224,13 +5224,13 @@
         <v>116</v>
       </c>
       <c r="Q28">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R28" t="s">
         <v>199</v>
       </c>
       <c r="S28">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T28">
         <v>10</v>
@@ -5379,13 +5379,13 @@
         <v>117</v>
       </c>
       <c r="Q29">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="R29" t="s">
         <v>198</v>
       </c>
       <c r="S29">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T29">
         <v>8</v>
@@ -5534,13 +5534,13 @@
         <v>118</v>
       </c>
       <c r="Q30">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="R30" t="s">
         <v>200</v>
       </c>
       <c r="S30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T30">
         <v>3</v>
@@ -5689,13 +5689,13 @@
         <v>119</v>
       </c>
       <c r="Q31">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R31" t="s">
         <v>199</v>
       </c>
       <c r="S31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T31">
         <v>6</v>
@@ -5844,13 +5844,13 @@
         <v>120</v>
       </c>
       <c r="Q32">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="R32" t="s">
         <v>198</v>
       </c>
       <c r="S32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T32">
         <v>8</v>
@@ -5999,13 +5999,13 @@
         <v>121</v>
       </c>
       <c r="Q33">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R33" t="s">
         <v>199</v>
       </c>
       <c r="S33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T33">
         <v>4</v>
@@ -6154,13 +6154,13 @@
         <v>122</v>
       </c>
       <c r="Q34">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="R34" t="s">
         <v>199</v>
       </c>
       <c r="S34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T34">
         <v>7</v>
@@ -6309,13 +6309,13 @@
         <v>122</v>
       </c>
       <c r="Q35">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="R35" t="s">
         <v>199</v>
       </c>
       <c r="S35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T35">
         <v>6</v>
@@ -6464,13 +6464,13 @@
         <v>123</v>
       </c>
       <c r="Q36">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="R36" t="s">
         <v>198</v>
       </c>
       <c r="S36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T36">
         <v>8</v>
@@ -6619,13 +6619,13 @@
         <v>124</v>
       </c>
       <c r="Q37">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="R37" t="s">
         <v>200</v>
       </c>
       <c r="S37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T37">
         <v>8</v>
@@ -6774,13 +6774,13 @@
         <v>125</v>
       </c>
       <c r="Q38">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="R38" t="s">
         <v>199</v>
       </c>
       <c r="S38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T38">
         <v>2</v>
@@ -6929,13 +6929,13 @@
         <v>123</v>
       </c>
       <c r="Q39">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="R39" t="s">
         <v>198</v>
       </c>
       <c r="S39">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T39">
         <v>5</v>
@@ -7084,13 +7084,13 @@
         <v>126</v>
       </c>
       <c r="Q40">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="R40" t="s">
         <v>196</v>
       </c>
       <c r="S40">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T40">
         <v>9</v>
@@ -7239,13 +7239,13 @@
         <v>127</v>
       </c>
       <c r="Q41">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="R41" t="s">
         <v>199</v>
       </c>
       <c r="S41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T41">
         <v>5</v>
@@ -7394,13 +7394,13 @@
         <v>127</v>
       </c>
       <c r="Q42">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="R42" t="s">
         <v>199</v>
       </c>
       <c r="S42">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T42">
         <v>4</v>
@@ -7537,13 +7537,13 @@
         <v>128</v>
       </c>
       <c r="Q43">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="R43" t="s">
         <v>199</v>
       </c>
       <c r="S43">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T43">
         <v>9</v>

--- a/smoy_winners.xlsx
+++ b/smoy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="203">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -172,9 +172,6 @@
     <t>2024</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>2022</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>Naz Reid</t>
   </si>
   <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
     <t>Tyler Herro</t>
   </si>
   <si>
@@ -406,84 +400,81 @@
     <t>MIN</t>
   </si>
   <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>CHH</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
     <t>BOS</t>
   </si>
   <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>UTA</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
-    <t>NYK</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>PHO</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>CHH</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
     <t>2023-24</t>
   </si>
   <si>
-    <t>2022-23</t>
-  </si>
-  <si>
     <t>2021-22</t>
   </si>
   <si>
@@ -604,22 +595,28 @@
     <t>1982-83</t>
   </si>
   <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>NBA</t>
+  </si>
+  <si>
+    <t>CLE</t>
   </si>
   <si>
     <t>No</t>
@@ -1149,16 +1146,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2">
         <v>45</v>
@@ -1173,7 +1170,7 @@
         <v>0.711</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K2">
         <v>31663</v>
@@ -1182,7 +1179,7 @@
         <v>4771</v>
       </c>
       <c r="M2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N2">
         <v>31663</v>
@@ -1191,13 +1188,13 @@
         <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>1999</v>
       </c>
       <c r="R2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S2">
         <v>25</v>
@@ -1206,10 +1203,10 @@
         <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="W2">
         <v>81</v>
@@ -1287,13 +1284,13 @@
         <v>13.5</v>
       </c>
       <c r="AV2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1304,154 +1301,154 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="H3">
         <v>500</v>
       </c>
       <c r="I3">
-        <v>0.8159999999999999</v>
+        <v>0.976</v>
       </c>
       <c r="J3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3">
+        <v>30411</v>
+      </c>
+      <c r="L3">
+        <v>4796</v>
+      </c>
+      <c r="M3" t="s">
         <v>153</v>
       </c>
-      <c r="K3">
-        <v>30890</v>
-      </c>
-      <c r="L3">
-        <v>4424</v>
-      </c>
-      <c r="M3" t="s">
-        <v>155</v>
-      </c>
       <c r="N3">
-        <v>30890</v>
+        <v>30411</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q3">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="R3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S3">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y3">
-        <v>26</v>
+        <v>32.6</v>
       </c>
       <c r="Z3">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="AA3">
-        <v>10.9</v>
+        <v>17</v>
       </c>
       <c r="AB3">
-        <v>0.484</v>
+        <v>0.447</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AD3">
-        <v>4.4</v>
+        <v>6.7</v>
       </c>
       <c r="AE3">
-        <v>0.444</v>
+        <v>0.399</v>
       </c>
       <c r="AF3">
+        <v>4.9</v>
+      </c>
+      <c r="AG3">
+        <v>10.3</v>
+      </c>
+      <c r="AH3">
+        <v>0.477</v>
+      </c>
+      <c r="AI3">
+        <v>0.525</v>
+      </c>
+      <c r="AJ3">
+        <v>2.9</v>
+      </c>
+      <c r="AK3">
         <v>3.3</v>
       </c>
-      <c r="AG3">
-        <v>6.5</v>
-      </c>
-      <c r="AH3">
-        <v>0.51</v>
-      </c>
-      <c r="AI3">
-        <v>0.574</v>
-      </c>
-      <c r="AJ3">
-        <v>2.4</v>
-      </c>
-      <c r="AK3">
-        <v>2.7</v>
-      </c>
       <c r="AL3">
-        <v>0.87</v>
+        <v>0.868</v>
       </c>
       <c r="AM3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AN3">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO3">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AP3">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AQ3">
         <v>0.7</v>
       </c>
       <c r="AR3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT3">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AU3">
-        <v>14.9</v>
+        <v>20.7</v>
       </c>
       <c r="AV3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AW3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -1459,154 +1456,154 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F4">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="G4">
-        <v>488</v>
+        <v>407</v>
       </c>
       <c r="H4">
         <v>500</v>
       </c>
       <c r="I4">
-        <v>0.976</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K4">
-        <v>30411</v>
+        <v>29298</v>
       </c>
       <c r="L4">
-        <v>4796</v>
+        <v>4265</v>
       </c>
       <c r="M4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N4">
-        <v>30411</v>
+        <v>29298</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q4">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="R4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S4">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="W4">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>32.6</v>
+        <v>26.7</v>
       </c>
       <c r="Z4">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA4">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="AB4">
-        <v>0.447</v>
+        <v>0.425</v>
       </c>
       <c r="AC4">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AD4">
-        <v>6.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE4">
-        <v>0.399</v>
+        <v>0.347</v>
       </c>
       <c r="AF4">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="AG4">
-        <v>10.3</v>
+        <v>7</v>
       </c>
       <c r="AH4">
-        <v>0.477</v>
+        <v>0.523</v>
       </c>
       <c r="AI4">
-        <v>0.525</v>
+        <v>0.522</v>
       </c>
       <c r="AJ4">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="AK4">
+        <v>2.1</v>
+      </c>
+      <c r="AL4">
+        <v>0.896</v>
+      </c>
+      <c r="AM4">
+        <v>0.7</v>
+      </c>
+      <c r="AN4">
         <v>3.3</v>
       </c>
-      <c r="AL4">
-        <v>0.868</v>
-      </c>
-      <c r="AM4">
-        <v>0.5</v>
-      </c>
-      <c r="AN4">
-        <v>4.5</v>
-      </c>
       <c r="AO4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AR4">
         <v>0.1</v>
       </c>
       <c r="AS4">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AT4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AU4">
-        <v>20.7</v>
+        <v>18.4</v>
       </c>
       <c r="AV4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AW4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:51">
@@ -1614,154 +1611,154 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G5">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H5">
         <v>500</v>
       </c>
       <c r="I5">
-        <v>0.8139999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="J5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K5">
-        <v>29298</v>
+        <v>28762</v>
       </c>
       <c r="L5">
-        <v>4265</v>
+        <v>4349</v>
       </c>
       <c r="M5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N5">
-        <v>29298</v>
+        <v>28762</v>
       </c>
       <c r="O5" t="s">
         <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q5">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="R5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W5">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="Z5">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA5">
-        <v>15.8</v>
+        <v>12.9</v>
       </c>
       <c r="AB5">
-        <v>0.425</v>
+        <v>0.58</v>
       </c>
       <c r="AC5">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>8.800000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="AE5">
-        <v>0.347</v>
+        <v>0</v>
       </c>
       <c r="AF5">
+        <v>7.5</v>
+      </c>
+      <c r="AG5">
+        <v>12.6</v>
+      </c>
+      <c r="AH5">
+        <v>0.593</v>
+      </c>
+      <c r="AI5">
+        <v>0.58</v>
+      </c>
+      <c r="AJ5">
         <v>3.7</v>
       </c>
-      <c r="AG5">
-        <v>7</v>
-      </c>
-      <c r="AH5">
-        <v>0.523</v>
-      </c>
-      <c r="AI5">
-        <v>0.522</v>
-      </c>
-      <c r="AJ5">
-        <v>1.9</v>
-      </c>
       <c r="AK5">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="AL5">
-        <v>0.896</v>
+        <v>0.658</v>
       </c>
       <c r="AM5">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="AN5">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="AO5">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="AP5">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ5">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AR5">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="AS5">
         <v>1.7</v>
       </c>
       <c r="AT5">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AU5">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AV5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AW5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY5">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:51">
@@ -1769,154 +1766,154 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F6">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G6">
-        <v>397</v>
+        <v>489</v>
       </c>
       <c r="H6">
         <v>500</v>
       </c>
       <c r="I6">
-        <v>0.794</v>
+        <v>0.978</v>
       </c>
       <c r="J6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K6">
-        <v>28762</v>
+        <v>28013</v>
       </c>
       <c r="L6">
-        <v>4349</v>
+        <v>3619</v>
       </c>
       <c r="M6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N6">
-        <v>28762</v>
+        <v>28013</v>
       </c>
       <c r="O6" t="s">
         <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q6">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="R6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S6">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="U6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W6">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>27.8</v>
+        <v>26.6</v>
       </c>
       <c r="Z6">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA6">
-        <v>12.9</v>
+        <v>15.2</v>
       </c>
       <c r="AB6">
-        <v>0.58</v>
+        <v>0.425</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD6">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.361</v>
       </c>
       <c r="AF6">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="AG6">
-        <v>12.6</v>
+        <v>11.3</v>
       </c>
       <c r="AH6">
-        <v>0.593</v>
+        <v>0.447</v>
       </c>
       <c r="AI6">
-        <v>0.58</v>
+        <v>0.471</v>
       </c>
       <c r="AJ6">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="AK6">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="AL6">
-        <v>0.658</v>
+        <v>0.876</v>
       </c>
       <c r="AM6">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="AN6">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO6">
-        <v>7.1</v>
+        <v>3</v>
       </c>
       <c r="AP6">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="AQ6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
+        <v>0.1</v>
+      </c>
+      <c r="AS6">
+        <v>2.4</v>
+      </c>
+      <c r="AT6">
         <v>1.1</v>
       </c>
-      <c r="AS6">
-        <v>1.7</v>
-      </c>
-      <c r="AT6">
-        <v>2.3</v>
-      </c>
       <c r="AU6">
-        <v>18.6</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AW6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1924,154 +1921,154 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G7">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="H7">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I7">
-        <v>0.978</v>
+        <v>0.98</v>
       </c>
       <c r="J7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K7">
-        <v>28013</v>
+        <v>27326</v>
       </c>
       <c r="L7">
         <v>3619</v>
       </c>
       <c r="M7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N7">
-        <v>28013</v>
+        <v>27326</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q7">
         <v>1986</v>
       </c>
       <c r="R7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Y7">
-        <v>26.6</v>
+        <v>32.8</v>
       </c>
       <c r="Z7">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA7">
-        <v>15.2</v>
+        <v>16.9</v>
       </c>
       <c r="AB7">
-        <v>0.425</v>
+        <v>0.435</v>
       </c>
       <c r="AC7">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AD7">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="AE7">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="AF7">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AG7">
-        <v>11.3</v>
+        <v>10.4</v>
       </c>
       <c r="AH7">
-        <v>0.447</v>
+        <v>0.484</v>
       </c>
       <c r="AI7">
-        <v>0.471</v>
+        <v>0.505</v>
       </c>
       <c r="AJ7">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AK7">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AL7">
-        <v>0.876</v>
+        <v>0.88</v>
       </c>
       <c r="AM7">
         <v>0.5</v>
       </c>
       <c r="AN7">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AO7">
+        <v>2.5</v>
+      </c>
+      <c r="AP7">
+        <v>5.3</v>
+      </c>
+      <c r="AQ7">
+        <v>1.1</v>
+      </c>
+      <c r="AR7">
+        <v>0.2</v>
+      </c>
+      <c r="AS7">
         <v>3</v>
       </c>
-      <c r="AP7">
-        <v>5.4</v>
-      </c>
-      <c r="AQ7">
-        <v>0.8</v>
-      </c>
-      <c r="AR7">
-        <v>0.1</v>
-      </c>
-      <c r="AS7">
-        <v>2.4</v>
-      </c>
       <c r="AT7">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AU7">
-        <v>20</v>
+        <v>22.6</v>
       </c>
       <c r="AV7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AW7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY7">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -2079,154 +2076,154 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>495</v>
+        <v>358</v>
       </c>
       <c r="H8">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I8">
-        <v>0.98</v>
+        <v>0.716</v>
       </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K8">
-        <v>27326</v>
+        <v>26508</v>
       </c>
       <c r="L8">
-        <v>3619</v>
+        <v>3815</v>
       </c>
       <c r="M8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N8">
-        <v>27326</v>
+        <v>26508</v>
       </c>
       <c r="O8" t="s">
         <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q8">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="R8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y8">
-        <v>32.8</v>
+        <v>31</v>
       </c>
       <c r="Z8">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA8">
-        <v>16.9</v>
+        <v>13.5</v>
       </c>
       <c r="AB8">
-        <v>0.435</v>
+        <v>0.406</v>
       </c>
       <c r="AC8">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD8">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE8">
-        <v>0.359</v>
+        <v>0.372</v>
       </c>
       <c r="AF8">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="AG8">
-        <v>10.4</v>
+        <v>4.7</v>
       </c>
       <c r="AH8">
-        <v>0.484</v>
+        <v>0.468</v>
       </c>
       <c r="AI8">
-        <v>0.505</v>
+        <v>0.527</v>
       </c>
       <c r="AJ8">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="AK8">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="AL8">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AM8">
+        <v>0.4</v>
+      </c>
+      <c r="AN8">
+        <v>2.3</v>
+      </c>
+      <c r="AO8">
+        <v>2.7</v>
+      </c>
+      <c r="AP8">
+        <v>2.5</v>
+      </c>
+      <c r="AQ8">
+        <v>0.6</v>
+      </c>
+      <c r="AR8">
         <v>0.5</v>
       </c>
-      <c r="AN8">
+      <c r="AS8">
+        <v>1.6</v>
+      </c>
+      <c r="AT8">
         <v>2</v>
       </c>
-      <c r="AO8">
-        <v>2.5</v>
-      </c>
-      <c r="AP8">
-        <v>5.3</v>
-      </c>
-      <c r="AQ8">
-        <v>1.1</v>
-      </c>
-      <c r="AR8">
-        <v>0.2</v>
-      </c>
-      <c r="AS8">
-        <v>3</v>
-      </c>
-      <c r="AT8">
-        <v>1.3</v>
-      </c>
       <c r="AU8">
-        <v>22.6</v>
+        <v>16.2</v>
       </c>
       <c r="AV8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AW8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY8">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -2234,154 +2231,154 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G9">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="H9">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="I9">
-        <v>0.716</v>
+        <v>0.525</v>
       </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K9">
-        <v>26508</v>
+        <v>25966</v>
       </c>
       <c r="L9">
-        <v>3815</v>
+        <v>3258</v>
       </c>
       <c r="M9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N9">
-        <v>26508</v>
+        <v>25966</v>
       </c>
       <c r="O9" t="s">
         <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q9">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="R9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="T9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="U9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="W9">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y9">
-        <v>31</v>
+        <v>26.9</v>
       </c>
       <c r="Z9">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="AA9">
-        <v>13.5</v>
+        <v>11.9</v>
       </c>
       <c r="AB9">
-        <v>0.406</v>
+        <v>0.404</v>
       </c>
       <c r="AC9">
+        <v>1.5</v>
+      </c>
+      <c r="AD9">
+        <v>4.4</v>
+      </c>
+      <c r="AE9">
+        <v>0.34</v>
+      </c>
+      <c r="AF9">
         <v>3.3</v>
       </c>
-      <c r="AD9">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AE9">
-        <v>0.372</v>
-      </c>
-      <c r="AF9">
-        <v>2.2</v>
-      </c>
       <c r="AG9">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH9">
-        <v>0.468</v>
+        <v>0.44</v>
       </c>
       <c r="AI9">
-        <v>0.527</v>
+        <v>0.466</v>
       </c>
       <c r="AJ9">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="AK9">
+        <v>3.4</v>
+      </c>
+      <c r="AL9">
+        <v>0.904</v>
+      </c>
+      <c r="AM9">
+        <v>0.3</v>
+      </c>
+      <c r="AN9">
+        <v>1.6</v>
+      </c>
+      <c r="AO9">
+        <v>1.8</v>
+      </c>
+      <c r="AP9">
         <v>2.3</v>
       </c>
-      <c r="AL9">
-        <v>0.84</v>
-      </c>
-      <c r="AM9">
-        <v>0.4</v>
-      </c>
-      <c r="AN9">
-        <v>2.3</v>
-      </c>
-      <c r="AO9">
-        <v>2.7</v>
-      </c>
-      <c r="AP9">
-        <v>2.5</v>
-      </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AR9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AS9">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU9">
-        <v>16.2</v>
+        <v>14.2</v>
       </c>
       <c r="AV9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AW9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY9">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -2389,115 +2386,115 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G10">
-        <v>341</v>
+        <v>502</v>
       </c>
       <c r="H10">
         <v>650</v>
       </c>
       <c r="I10">
-        <v>0.525</v>
+        <v>0.772</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K10">
-        <v>25966</v>
+        <v>25497</v>
       </c>
       <c r="L10">
-        <v>3258</v>
+        <v>3619</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N10">
-        <v>25966</v>
+        <v>25497</v>
       </c>
       <c r="O10" t="s">
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q10">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="R10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S10">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="T10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>26.9</v>
+        <v>25.2</v>
       </c>
       <c r="Z10">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AA10">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="AB10">
         <v>0.404</v>
       </c>
       <c r="AC10">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD10">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="AE10">
         <v>0.34</v>
       </c>
       <c r="AF10">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AG10">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AH10">
-        <v>0.44</v>
+        <v>0.464</v>
       </c>
       <c r="AI10">
-        <v>0.466</v>
+        <v>0.486</v>
       </c>
       <c r="AJ10">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="AK10">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="AL10">
-        <v>0.904</v>
+        <v>0.861</v>
       </c>
       <c r="AM10">
         <v>0.3</v>
@@ -2506,37 +2503,37 @@
         <v>1.6</v>
       </c>
       <c r="AO10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AP10">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AQ10">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AR10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AS10">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AU10">
-        <v>14.2</v>
+        <v>15.5</v>
       </c>
       <c r="AV10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AW10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY10">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2544,43 +2541,43 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>99</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F11">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G11">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="H11">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="I11">
-        <v>0.772</v>
+        <v>0.674</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K11">
-        <v>25497</v>
+        <v>24728</v>
       </c>
       <c r="L11">
-        <v>3619</v>
+        <v>3258</v>
       </c>
       <c r="M11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N11">
-        <v>25497</v>
+        <v>24728</v>
       </c>
       <c r="O11" t="s">
         <v>60</v>
@@ -2589,109 +2586,109 @@
         <v>99</v>
       </c>
       <c r="Q11">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="R11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="W11">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y11">
-        <v>25.2</v>
+        <v>30.3</v>
       </c>
       <c r="Z11">
+        <v>6.1</v>
+      </c>
+      <c r="AA11">
+        <v>14.7</v>
+      </c>
+      <c r="AB11">
+        <v>0.416</v>
+      </c>
+      <c r="AC11">
+        <v>2.3</v>
+      </c>
+      <c r="AD11">
+        <v>6.5</v>
+      </c>
+      <c r="AE11">
+        <v>0.361</v>
+      </c>
+      <c r="AF11">
+        <v>3.8</v>
+      </c>
+      <c r="AG11">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH11">
+        <v>0.46</v>
+      </c>
+      <c r="AI11">
+        <v>0.496</v>
+      </c>
+      <c r="AJ11">
+        <v>4</v>
+      </c>
+      <c r="AK11">
         <v>4.7</v>
       </c>
-      <c r="AA11">
-        <v>11.6</v>
-      </c>
-      <c r="AB11">
-        <v>0.404</v>
-      </c>
-      <c r="AC11">
-        <v>1.9</v>
-      </c>
-      <c r="AD11">
-        <v>5.6</v>
-      </c>
-      <c r="AE11">
-        <v>0.34</v>
-      </c>
-      <c r="AF11">
-        <v>2.8</v>
-      </c>
-      <c r="AG11">
-        <v>6</v>
-      </c>
-      <c r="AH11">
-        <v>0.464</v>
-      </c>
-      <c r="AI11">
-        <v>0.486</v>
-      </c>
-      <c r="AJ11">
-        <v>4.3</v>
-      </c>
-      <c r="AK11">
-        <v>4.9</v>
-      </c>
       <c r="AL11">
-        <v>0.861</v>
+        <v>0.866</v>
       </c>
       <c r="AM11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AN11">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AO11">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AP11">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="AQ11">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AR11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AS11">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AU11">
-        <v>15.5</v>
+        <v>18.6</v>
       </c>
       <c r="AV11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY11">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2699,154 +2696,154 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>133</v>
       </c>
       <c r="F12">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G12">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="H12">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="I12">
-        <v>0.674</v>
+        <v>0.8</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K12">
-        <v>24728</v>
+        <v>24140</v>
       </c>
       <c r="L12">
-        <v>3258</v>
+        <v>3527</v>
       </c>
       <c r="M12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N12">
-        <v>24728</v>
+        <v>24140</v>
       </c>
       <c r="O12" t="s">
         <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q12">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="R12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S12">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V12" t="s">
         <v>133</v>
       </c>
       <c r="W12">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="X12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>30.3</v>
+        <v>33.5</v>
       </c>
       <c r="Z12">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AA12">
-        <v>14.7</v>
+        <v>15.6</v>
       </c>
       <c r="AB12">
-        <v>0.416</v>
+        <v>0.422</v>
       </c>
       <c r="AC12">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD12">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE12">
-        <v>0.361</v>
+        <v>0.356</v>
       </c>
       <c r="AF12">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="AG12">
-        <v>8.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AH12">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="AI12">
-        <v>0.496</v>
+        <v>0.484</v>
       </c>
       <c r="AJ12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK12">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AL12">
-        <v>0.866</v>
+        <v>0.762</v>
       </c>
       <c r="AM12">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AN12">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="AO12">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="AP12">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AQ12">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AR12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AT12">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="AU12">
-        <v>18.6</v>
+        <v>18.1</v>
       </c>
       <c r="AV12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AW12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY12">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2854,154 +2851,154 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F13">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="G13">
-        <v>484</v>
+        <v>584</v>
       </c>
       <c r="H13">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="I13">
-        <v>0.8</v>
+        <v>0.982</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K13">
-        <v>24140</v>
+        <v>23594</v>
       </c>
       <c r="L13">
-        <v>3527</v>
+        <v>3880</v>
       </c>
       <c r="M13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N13">
-        <v>24140</v>
+        <v>23594</v>
       </c>
       <c r="O13" t="s">
         <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q13">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="R13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S13">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W13">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>33.5</v>
+        <v>31.4</v>
       </c>
       <c r="Z13">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="AA13">
-        <v>15.6</v>
+        <v>10.1</v>
       </c>
       <c r="AB13">
-        <v>0.422</v>
+        <v>0.491</v>
       </c>
       <c r="AC13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD13">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="AE13">
-        <v>0.356</v>
+        <v>0.39</v>
       </c>
       <c r="AF13">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="AG13">
-        <v>10.2</v>
+        <v>5.4</v>
       </c>
       <c r="AH13">
-        <v>0.458</v>
+        <v>0.579</v>
       </c>
       <c r="AI13">
-        <v>0.484</v>
+        <v>0.582</v>
       </c>
       <c r="AJ13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK13">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="AL13">
-        <v>0.762</v>
+        <v>0.846</v>
       </c>
       <c r="AM13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AN13">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO13">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="AP13">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="AQ13">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AS13">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AT13">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AU13">
-        <v>18.1</v>
+        <v>16.8</v>
       </c>
       <c r="AV13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AW13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -3009,154 +3006,154 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F14">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G14">
-        <v>584</v>
+        <v>513</v>
       </c>
       <c r="H14">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="I14">
-        <v>0.982</v>
+        <v>0.877</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K14">
-        <v>23594</v>
+        <v>23106</v>
       </c>
       <c r="L14">
-        <v>3880</v>
+        <v>3201</v>
       </c>
       <c r="M14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N14">
-        <v>23594</v>
+        <v>23106</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q14">
-        <v>1989</v>
+        <v>1979</v>
       </c>
       <c r="R14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S14">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14" t="s">
+        <v>199</v>
+      </c>
+      <c r="V14" t="s">
+        <v>135</v>
+      </c>
+      <c r="W14">
+        <v>82</v>
+      </c>
+      <c r="X14">
+        <v>35</v>
+      </c>
+      <c r="Y14">
+        <v>32.2</v>
+      </c>
+      <c r="Z14">
+        <v>5.8</v>
+      </c>
+      <c r="AA14">
+        <v>10.9</v>
+      </c>
+      <c r="AB14">
+        <v>0.53</v>
+      </c>
+      <c r="AC14">
+        <v>0.8</v>
+      </c>
+      <c r="AD14">
+        <v>2.2</v>
+      </c>
+      <c r="AE14">
+        <v>0.382</v>
+      </c>
+      <c r="AF14">
+        <v>4.9</v>
+      </c>
+      <c r="AG14">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH14">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="AI14">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
         <v>3</v>
       </c>
-      <c r="U14" t="s">
-        <v>201</v>
-      </c>
-      <c r="V14" t="s">
-        <v>137</v>
-      </c>
-      <c r="W14">
-        <v>62</v>
-      </c>
-      <c r="X14">
-        <v>2</v>
-      </c>
-      <c r="Y14">
-        <v>31.4</v>
-      </c>
-      <c r="Z14">
-        <v>5</v>
-      </c>
-      <c r="AA14">
-        <v>10.1</v>
-      </c>
-      <c r="AB14">
-        <v>0.491</v>
-      </c>
-      <c r="AC14">
-        <v>1.8</v>
-      </c>
-      <c r="AD14">
-        <v>4.7</v>
-      </c>
-      <c r="AE14">
-        <v>0.39</v>
-      </c>
-      <c r="AF14">
-        <v>3.1</v>
-      </c>
-      <c r="AG14">
-        <v>5.4</v>
-      </c>
-      <c r="AH14">
-        <v>0.579</v>
-      </c>
-      <c r="AI14">
-        <v>0.582</v>
-      </c>
-      <c r="AJ14">
-        <v>5</v>
-      </c>
-      <c r="AK14">
-        <v>6</v>
-      </c>
       <c r="AL14">
-        <v>0.846</v>
+        <v>0.675</v>
       </c>
       <c r="AM14">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="AN14">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AO14">
-        <v>4.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AP14">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR14">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AS14">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AT14">
         <v>2.4</v>
       </c>
       <c r="AU14">
-        <v>16.8</v>
+        <v>14.4</v>
       </c>
       <c r="AV14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AW14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY14">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -3164,154 +3161,154 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G15">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="H15">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="I15">
-        <v>0.877</v>
+        <v>0.951</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K15">
-        <v>23106</v>
+        <v>22391</v>
       </c>
       <c r="L15">
-        <v>3201</v>
+        <v>3258</v>
       </c>
       <c r="M15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N15">
-        <v>23106</v>
+        <v>22391</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="Q15">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="R15" t="s">
+        <v>195</v>
+      </c>
+      <c r="S15">
+        <v>30</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15" t="s">
         <v>199</v>
       </c>
-      <c r="S15">
-        <v>32</v>
-      </c>
-      <c r="T15">
-        <v>12</v>
-      </c>
-      <c r="U15" t="s">
-        <v>201</v>
-      </c>
       <c r="V15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W15">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X15">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>32.2</v>
+        <v>31.1</v>
       </c>
       <c r="Z15">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="AA15">
-        <v>10.9</v>
+        <v>14</v>
       </c>
       <c r="AB15">
-        <v>0.53</v>
+        <v>0.449</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="AD15">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="AE15">
         <v>0.382</v>
       </c>
       <c r="AF15">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="AG15">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AH15">
-        <v>0.5659999999999999</v>
+        <v>0.491</v>
       </c>
       <c r="AI15">
-        <v>0.5679999999999999</v>
+        <v>0.523</v>
       </c>
       <c r="AJ15">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="AK15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL15">
-        <v>0.675</v>
+        <v>0.857</v>
       </c>
       <c r="AM15">
+        <v>0.4</v>
+      </c>
+      <c r="AN15">
         <v>2.1</v>
       </c>
-      <c r="AN15">
-        <v>6.5</v>
-      </c>
       <c r="AO15">
-        <v>8.699999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="AP15">
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AS15">
         <v>1.7</v>
       </c>
       <c r="AT15">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AU15">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="AV15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AW15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY15">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="16" spans="1:51">
@@ -3319,154 +3316,154 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F16">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H16">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I16">
-        <v>0.951</v>
+        <v>0.952</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K16">
-        <v>22391</v>
+        <v>21831</v>
       </c>
       <c r="L16">
-        <v>3258</v>
+        <v>3194</v>
       </c>
       <c r="M16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N16">
-        <v>22391</v>
+        <v>21831</v>
       </c>
       <c r="O16" t="s">
         <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q16">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="R16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T16">
         <v>10</v>
       </c>
       <c r="U16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W16">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y16">
-        <v>31.1</v>
+        <v>33.7</v>
       </c>
       <c r="Z16">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="AA16">
-        <v>14</v>
+        <v>15.8</v>
       </c>
       <c r="AB16">
-        <v>0.449</v>
+        <v>0.463</v>
       </c>
       <c r="AC16">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD16">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE16">
-        <v>0.382</v>
+        <v>0.366</v>
       </c>
       <c r="AF16">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="AG16">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AH16">
-        <v>0.491</v>
+        <v>0.525</v>
       </c>
       <c r="AI16">
-        <v>0.523</v>
+        <v>0.535</v>
       </c>
       <c r="AJ16">
+        <v>2.7</v>
+      </c>
+      <c r="AK16">
+        <v>3</v>
+      </c>
+      <c r="AL16">
+        <v>0.88</v>
+      </c>
+      <c r="AM16">
+        <v>0.5</v>
+      </c>
+      <c r="AN16">
+        <v>1.9</v>
+      </c>
+      <c r="AO16">
+        <v>2.4</v>
+      </c>
+      <c r="AP16">
         <v>3.4</v>
       </c>
-      <c r="AK16">
-        <v>4</v>
-      </c>
-      <c r="AL16">
-        <v>0.857</v>
-      </c>
-      <c r="AM16">
-        <v>0.4</v>
-      </c>
-      <c r="AN16">
-        <v>2.1</v>
-      </c>
-      <c r="AO16">
-        <v>2.5</v>
-      </c>
-      <c r="AP16">
-        <v>3</v>
-      </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AR16">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AS16">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AT16">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AU16">
-        <v>18</v>
+        <v>19.6</v>
       </c>
       <c r="AV16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AW16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY16">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="17" spans="1:51">
@@ -3474,154 +3471,154 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F17">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G17">
-        <v>576</v>
+        <v>615</v>
       </c>
       <c r="H17">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="I17">
-        <v>0.952</v>
+        <v>0.992</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K17">
-        <v>21831</v>
+        <v>21344</v>
       </c>
       <c r="L17">
-        <v>3194</v>
+        <v>3401</v>
       </c>
       <c r="M17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N17">
-        <v>21831</v>
+        <v>21344</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q17">
         <v>1977</v>
       </c>
       <c r="R17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W17">
         <v>74</v>
       </c>
       <c r="X17">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Y17">
-        <v>33.7</v>
+        <v>31.1</v>
       </c>
       <c r="Z17">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="AA17">
-        <v>15.8</v>
+        <v>13.3</v>
       </c>
       <c r="AB17">
-        <v>0.463</v>
+        <v>0.46</v>
       </c>
       <c r="AC17">
+        <v>2.1</v>
+      </c>
+      <c r="AD17">
+        <v>5.3</v>
+      </c>
+      <c r="AE17">
+        <v>0.401</v>
+      </c>
+      <c r="AF17">
+        <v>4</v>
+      </c>
+      <c r="AG17">
+        <v>8</v>
+      </c>
+      <c r="AH17">
+        <v>0.499</v>
+      </c>
+      <c r="AI17">
+        <v>0.54</v>
+      </c>
+      <c r="AJ17">
+        <v>5.1</v>
+      </c>
+      <c r="AK17">
+        <v>6</v>
+      </c>
+      <c r="AL17">
+        <v>0.86</v>
+      </c>
+      <c r="AM17">
+        <v>0.9</v>
+      </c>
+      <c r="AN17">
+        <v>3.9</v>
+      </c>
+      <c r="AO17">
+        <v>4.8</v>
+      </c>
+      <c r="AP17">
+        <v>4.5</v>
+      </c>
+      <c r="AQ17">
+        <v>1.5</v>
+      </c>
+      <c r="AR17">
+        <v>0.4</v>
+      </c>
+      <c r="AS17">
+        <v>2.7</v>
+      </c>
+      <c r="AT17">
         <v>2.3</v>
       </c>
-      <c r="AD17">
-        <v>6.2</v>
-      </c>
-      <c r="AE17">
-        <v>0.366</v>
-      </c>
-      <c r="AF17">
-        <v>5.1</v>
-      </c>
-      <c r="AG17">
-        <v>9.6</v>
-      </c>
-      <c r="AH17">
-        <v>0.525</v>
-      </c>
-      <c r="AI17">
-        <v>0.535</v>
-      </c>
-      <c r="AJ17">
-        <v>2.7</v>
-      </c>
-      <c r="AK17">
-        <v>3</v>
-      </c>
-      <c r="AL17">
-        <v>0.88</v>
-      </c>
-      <c r="AM17">
-        <v>0.5</v>
-      </c>
-      <c r="AN17">
-        <v>1.9</v>
-      </c>
-      <c r="AO17">
-        <v>2.4</v>
-      </c>
-      <c r="AP17">
-        <v>3.4</v>
-      </c>
-      <c r="AQ17">
-        <v>1.3</v>
-      </c>
-      <c r="AR17">
-        <v>0.3</v>
-      </c>
-      <c r="AS17">
-        <v>1.6</v>
-      </c>
-      <c r="AT17">
-        <v>1.9</v>
-      </c>
       <c r="AU17">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AV17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AW17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY17">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -3629,171 +3626,171 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G18">
-        <v>615</v>
+        <v>578</v>
       </c>
       <c r="H18">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="I18">
-        <v>0.992</v>
+        <v>0.91</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K18">
-        <v>21344</v>
+        <v>20760</v>
       </c>
       <c r="L18">
-        <v>3401</v>
+        <v>3462</v>
       </c>
       <c r="M18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N18">
-        <v>21344</v>
+        <v>20761</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="Q18">
-        <v>1977</v>
+        <v>1984</v>
       </c>
       <c r="R18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S18">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18" t="s">
+        <v>199</v>
+      </c>
+      <c r="V18" t="s">
+        <v>200</v>
+      </c>
+      <c r="W18">
+        <v>78</v>
+      </c>
+      <c r="X18">
+        <v>78</v>
+      </c>
+      <c r="Y18">
+        <v>40.9</v>
+      </c>
+      <c r="Z18">
+        <v>9.9</v>
+      </c>
+      <c r="AA18">
+        <v>20.8</v>
+      </c>
+      <c r="AB18">
+        <v>0.476</v>
+      </c>
+      <c r="AC18">
+        <v>1.3</v>
+      </c>
+      <c r="AD18">
+        <v>4</v>
+      </c>
+      <c r="AE18">
+        <v>0.319</v>
+      </c>
+      <c r="AF18">
+        <v>8.6</v>
+      </c>
+      <c r="AG18">
+        <v>16.8</v>
+      </c>
+      <c r="AH18">
+        <v>0.513</v>
+      </c>
+      <c r="AI18">
+        <v>0.507</v>
+      </c>
+      <c r="AJ18">
+        <v>6.3</v>
+      </c>
+      <c r="AK18">
+        <v>9</v>
+      </c>
+      <c r="AL18">
+        <v>0.698</v>
+      </c>
+      <c r="AM18">
+        <v>1.1</v>
+      </c>
+      <c r="AN18">
+        <v>5.7</v>
+      </c>
+      <c r="AO18">
+        <v>6.7</v>
+      </c>
+      <c r="AP18">
         <v>6</v>
       </c>
-      <c r="U18" t="s">
-        <v>201</v>
-      </c>
-      <c r="V18" t="s">
-        <v>141</v>
-      </c>
-      <c r="W18">
-        <v>74</v>
-      </c>
-      <c r="X18">
-        <v>23</v>
-      </c>
-      <c r="Y18">
-        <v>31.1</v>
-      </c>
-      <c r="Z18">
-        <v>6.1</v>
-      </c>
-      <c r="AA18">
-        <v>13.3</v>
-      </c>
-      <c r="AB18">
-        <v>0.46</v>
-      </c>
-      <c r="AC18">
-        <v>2.1</v>
-      </c>
-      <c r="AD18">
-        <v>5.3</v>
-      </c>
-      <c r="AE18">
-        <v>0.401</v>
-      </c>
-      <c r="AF18">
-        <v>4</v>
-      </c>
-      <c r="AG18">
-        <v>8</v>
-      </c>
-      <c r="AH18">
-        <v>0.499</v>
-      </c>
-      <c r="AI18">
-        <v>0.54</v>
-      </c>
-      <c r="AJ18">
-        <v>5.1</v>
-      </c>
-      <c r="AK18">
-        <v>6</v>
-      </c>
-      <c r="AL18">
-        <v>0.86</v>
-      </c>
-      <c r="AM18">
-        <v>0.9</v>
-      </c>
-      <c r="AN18">
-        <v>3.9</v>
-      </c>
-      <c r="AO18">
-        <v>4.8</v>
-      </c>
-      <c r="AP18">
-        <v>4.5</v>
-      </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR18">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AS18">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AT18">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AU18">
-        <v>19.5</v>
+        <v>27.3</v>
       </c>
       <c r="AV18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AW18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY18">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19">
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F19">
         <v>101</v>
@@ -3808,7 +3805,7 @@
         <v>0.91</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K19">
         <v>20760</v>
@@ -3817,22 +3814,22 @@
         <v>3462</v>
       </c>
       <c r="M19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N19">
         <v>20760</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q19">
         <v>1982</v>
       </c>
       <c r="R19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S19">
         <v>25</v>
@@ -3841,10 +3838,10 @@
         <v>4</v>
       </c>
       <c r="U19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W19">
         <v>80</v>
@@ -3922,13 +3919,13 @@
         <v>18.1</v>
       </c>
       <c r="AV19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AW19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY19">
         <v>2007</v>
@@ -3936,19 +3933,19 @@
     </row>
     <row r="20" spans="1:51">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20">
         <v>88</v>
@@ -3963,7 +3960,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K20">
         <v>20282</v>
@@ -3972,22 +3969,22 @@
         <v>3276</v>
       </c>
       <c r="M20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N20">
         <v>20282</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q20">
         <v>1980</v>
       </c>
       <c r="R20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S20">
         <v>26</v>
@@ -3996,10 +3993,10 @@
         <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W20">
         <v>74</v>
@@ -4077,13 +4074,13 @@
         <v>13.7</v>
       </c>
       <c r="AV20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AW20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY20">
         <v>2006</v>
@@ -4091,19 +4088,19 @@
     </row>
     <row r="21" spans="1:51">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F21">
         <v>88</v>
@@ -4118,7 +4115,7 @@
         <v>0.821</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K21">
         <v>19365</v>
@@ -4127,22 +4124,22 @@
         <v>3505</v>
       </c>
       <c r="M21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N21">
         <v>19365</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q21">
         <v>1983</v>
       </c>
       <c r="R21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S21">
         <v>22</v>
@@ -4151,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W21">
         <v>82</v>
@@ -4232,13 +4229,13 @@
         <v>15.1</v>
       </c>
       <c r="AV21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AW21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY21">
         <v>2005</v>
@@ -4246,19 +4243,19 @@
     </row>
     <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F22">
         <v>43</v>
@@ -4273,7 +4270,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K22">
         <v>18751</v>
@@ -4282,22 +4279,22 @@
         <v>3104</v>
       </c>
       <c r="M22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N22">
         <v>18751</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q22">
         <v>1976</v>
       </c>
       <c r="R22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S22">
         <v>28</v>
@@ -4306,10 +4303,10 @@
         <v>6</v>
       </c>
       <c r="U22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="W22">
         <v>82</v>
@@ -4387,13 +4384,13 @@
         <v>14.8</v>
       </c>
       <c r="AV22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AW22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY22">
         <v>2004</v>
@@ -4401,19 +4398,19 @@
     </row>
     <row r="23" spans="1:51">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23">
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F23">
         <v>52</v>
@@ -4428,7 +4425,7 @@
         <v>0.614</v>
       </c>
       <c r="J23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K23">
         <v>18294</v>
@@ -4437,22 +4434,22 @@
         <v>3041</v>
       </c>
       <c r="M23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N23">
         <v>18294</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q23">
         <v>1973</v>
       </c>
       <c r="R23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S23">
         <v>30</v>
@@ -4461,10 +4458,10 @@
         <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W23">
         <v>59</v>
@@ -4542,13 +4539,13 @@
         <v>15.2</v>
       </c>
       <c r="AV23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AW23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY23">
         <v>2003</v>
@@ -4556,19 +4553,19 @@
     </row>
     <row r="24" spans="1:51">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D24">
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F24">
         <v>56</v>
@@ -4583,7 +4580,7 @@
         <v>0.448</v>
       </c>
       <c r="J24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K24">
         <v>17842</v>
@@ -4592,22 +4589,22 @@
         <v>2908</v>
       </c>
       <c r="M24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N24">
         <v>17842</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q24">
         <v>1973</v>
       </c>
       <c r="R24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S24">
         <v>29</v>
@@ -4616,10 +4613,10 @@
         <v>7</v>
       </c>
       <c r="U24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W24">
         <v>78</v>
@@ -4697,13 +4694,13 @@
         <v>13.6</v>
       </c>
       <c r="AV24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AW24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY24">
         <v>2002</v>
@@ -4711,19 +4708,19 @@
     </row>
     <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D25">
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F25">
         <v>57</v>
@@ -4738,7 +4735,7 @@
         <v>0.46</v>
       </c>
       <c r="J25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K25">
         <v>17212</v>
@@ -4747,22 +4744,22 @@
         <v>2832</v>
       </c>
       <c r="M25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N25">
         <v>17212</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q25">
         <v>1972</v>
       </c>
       <c r="R25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S25">
         <v>29</v>
@@ -4771,10 +4768,10 @@
         <v>7</v>
       </c>
       <c r="U25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W25">
         <v>76</v>
@@ -4852,13 +4849,13 @@
         <v>11.6</v>
       </c>
       <c r="AV25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AW25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -4866,19 +4863,19 @@
     </row>
     <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F26">
         <v>104</v>
@@ -4893,7 +4890,7 @@
         <v>0.86</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K26">
         <v>17111</v>
@@ -4902,22 +4899,22 @@
         <v>2821</v>
       </c>
       <c r="M26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N26">
         <v>17111</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q26">
         <v>1971</v>
       </c>
       <c r="R26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S26">
         <v>29</v>
@@ -4926,10 +4923,10 @@
         <v>7</v>
       </c>
       <c r="U26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W26">
         <v>82</v>
@@ -5007,13 +5004,13 @@
         <v>13.8</v>
       </c>
       <c r="AV26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AW26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY26">
         <v>2000</v>
@@ -5021,19 +5018,19 @@
     </row>
     <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D27">
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F27">
         <v>85</v>
@@ -5048,7 +5045,7 @@
         <v>0.72</v>
       </c>
       <c r="J27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K27">
         <v>16338</v>
@@ -5057,22 +5054,22 @@
         <v>2846</v>
       </c>
       <c r="M27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N27">
         <v>16338</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q27">
         <v>1968</v>
       </c>
       <c r="R27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S27">
         <v>31</v>
@@ -5081,10 +5078,10 @@
         <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="W27">
         <v>50</v>
@@ -5162,13 +5159,13 @@
         <v>13.8</v>
       </c>
       <c r="AV27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AW27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY27">
         <v>1999</v>
@@ -5176,19 +5173,19 @@
     </row>
     <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D28">
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F28">
         <v>57</v>
@@ -5203,7 +5200,7 @@
         <v>0.491</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K28">
         <v>15806</v>
@@ -5212,22 +5209,22 @@
         <v>2417</v>
       </c>
       <c r="M28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N28">
         <v>15806</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q28">
         <v>1966</v>
       </c>
       <c r="R28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S28">
         <v>32</v>
@@ -5236,10 +5233,10 @@
         <v>10</v>
       </c>
       <c r="U28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W28">
         <v>70</v>
@@ -5317,13 +5314,13 @@
         <v>13.5</v>
       </c>
       <c r="AV28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AW28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY28">
         <v>1998</v>
@@ -5331,19 +5328,19 @@
     </row>
     <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29">
         <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F29">
         <v>84</v>
@@ -5358,7 +5355,7 @@
         <v>0.73</v>
       </c>
       <c r="J29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K29">
         <v>15391</v>
@@ -5367,22 +5364,22 @@
         <v>2438</v>
       </c>
       <c r="M29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N29">
         <v>15391</v>
       </c>
       <c r="O29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q29">
         <v>1965</v>
       </c>
       <c r="R29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S29">
         <v>32</v>
@@ -5391,10 +5388,10 @@
         <v>8</v>
       </c>
       <c r="U29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W29">
         <v>77</v>
@@ -5472,13 +5469,13 @@
         <v>13.8</v>
       </c>
       <c r="AV29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AW29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY29">
         <v>1997</v>
@@ -5486,19 +5483,19 @@
     </row>
     <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F30">
         <v>45</v>
@@ -5513,7 +5510,7 @@
         <v>0.398</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K30">
         <v>15049</v>
@@ -5522,22 +5519,22 @@
         <v>2829</v>
       </c>
       <c r="M30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N30">
         <v>15049</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q30">
         <v>1968</v>
       </c>
       <c r="R30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S30">
         <v>28</v>
@@ -5546,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W30">
         <v>81</v>
@@ -5627,13 +5624,13 @@
         <v>13.1</v>
       </c>
       <c r="AV30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AW30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY30">
         <v>1996</v>
@@ -5641,19 +5638,19 @@
     </row>
     <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D31">
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F31">
         <v>47</v>
@@ -5668,7 +5665,7 @@
         <v>0.448</v>
       </c>
       <c r="J31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K31">
         <v>14109</v>
@@ -5677,22 +5674,22 @@
         <v>2481</v>
       </c>
       <c r="M31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N31">
         <v>14109</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q31">
         <v>1966</v>
       </c>
       <c r="R31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S31">
         <v>29</v>
@@ -5701,10 +5698,10 @@
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W31">
         <v>77</v>
@@ -5782,13 +5779,13 @@
         <v>9.9</v>
       </c>
       <c r="AV31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AW31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY31">
         <v>1995</v>
@@ -5796,19 +5793,19 @@
     </row>
     <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D32">
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F32">
         <v>46</v>
@@ -5823,7 +5820,7 @@
         <v>0.455</v>
       </c>
       <c r="J32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K32">
         <v>13722</v>
@@ -5832,22 +5829,22 @@
         <v>2299</v>
       </c>
       <c r="M32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N32">
         <v>13722</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q32">
         <v>1964</v>
       </c>
       <c r="R32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S32">
         <v>30</v>
@@ -5856,10 +5853,10 @@
         <v>8</v>
       </c>
       <c r="U32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W32">
         <v>82</v>
@@ -5937,13 +5934,13 @@
         <v>16.3</v>
       </c>
       <c r="AV32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AW32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY32">
         <v>1994</v>
@@ -5951,19 +5948,19 @@
     </row>
     <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D33">
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F33">
         <v>89</v>
@@ -5978,7 +5975,7 @@
         <v>0.908</v>
       </c>
       <c r="J33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K33">
         <v>13240</v>
@@ -5987,22 +5984,22 @@
         <v>2492</v>
       </c>
       <c r="M33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N33">
         <v>13240</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q33">
         <v>1966</v>
       </c>
       <c r="R33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S33">
         <v>27</v>
@@ -6011,10 +6008,10 @@
         <v>4</v>
       </c>
       <c r="U33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="W33">
         <v>82</v>
@@ -6092,13 +6089,13 @@
         <v>19.1</v>
       </c>
       <c r="AV33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AW33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY33">
         <v>1993</v>
@@ -6106,19 +6103,19 @@
     </row>
     <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34">
         <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F34">
         <v>54</v>
@@ -6133,7 +6130,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="J34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K34">
         <v>12817</v>
@@ -6142,22 +6139,22 @@
         <v>2236</v>
       </c>
       <c r="M34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N34">
         <v>12817</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q34">
         <v>1962</v>
       </c>
       <c r="R34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S34">
         <v>30</v>
@@ -6166,10 +6163,10 @@
         <v>7</v>
       </c>
       <c r="U34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W34">
         <v>80</v>
@@ -6247,13 +6244,13 @@
         <v>17.3</v>
       </c>
       <c r="AV34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AW34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY34">
         <v>1992</v>
@@ -6261,19 +6258,19 @@
     </row>
     <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35">
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F35">
         <v>38</v>
@@ -6288,7 +6285,7 @@
         <v>0.396</v>
       </c>
       <c r="J35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K35">
         <v>12374</v>
@@ -6297,22 +6294,22 @@
         <v>2236</v>
       </c>
       <c r="M35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N35">
         <v>12374</v>
       </c>
       <c r="O35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q35">
         <v>1962</v>
       </c>
       <c r="R35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S35">
         <v>29</v>
@@ -6321,10 +6318,10 @@
         <v>6</v>
       </c>
       <c r="U35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W35">
         <v>82</v>
@@ -6402,13 +6399,13 @@
         <v>16.1</v>
       </c>
       <c r="AV35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AW35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY35">
         <v>1991</v>
@@ -6416,19 +6413,19 @@
     </row>
     <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F36">
         <v>77</v>
@@ -6443,7 +6440,7 @@
         <v>0.837</v>
       </c>
       <c r="J36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K36">
         <v>12152</v>
@@ -6452,22 +6449,22 @@
         <v>2090</v>
       </c>
       <c r="M36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N36">
         <v>12152</v>
       </c>
       <c r="O36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q36">
         <v>1959</v>
       </c>
       <c r="R36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S36">
         <v>31</v>
@@ -6476,10 +6473,10 @@
         <v>8</v>
       </c>
       <c r="U36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W36">
         <v>59</v>
@@ -6557,13 +6554,13 @@
         <v>23</v>
       </c>
       <c r="AV36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AW36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY36">
         <v>1990</v>
@@ -6571,19 +6568,19 @@
     </row>
     <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37">
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F37">
         <v>33</v>
@@ -6598,7 +6595,7 @@
         <v>0.388</v>
       </c>
       <c r="J37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K37">
         <v>11500</v>
@@ -6607,22 +6604,22 @@
         <v>1993</v>
       </c>
       <c r="M37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N37">
         <v>11500</v>
       </c>
       <c r="O37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q37">
         <v>1959</v>
       </c>
       <c r="R37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S37">
         <v>30</v>
@@ -6631,10 +6628,10 @@
         <v>8</v>
       </c>
       <c r="U37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W37">
         <v>70</v>
@@ -6712,13 +6709,13 @@
         <v>21.5</v>
       </c>
       <c r="AV37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AW37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY37">
         <v>1989</v>
@@ -6726,19 +6723,19 @@
     </row>
     <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38">
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F38">
         <v>67</v>
@@ -6753,7 +6750,7 @@
         <v>0.838</v>
       </c>
       <c r="J38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K38">
         <v>11294</v>
@@ -6762,22 +6759,22 @@
         <v>2337</v>
       </c>
       <c r="M38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N38">
         <v>11294</v>
       </c>
       <c r="O38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q38">
         <v>1964</v>
       </c>
       <c r="R38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S38">
         <v>24</v>
@@ -6786,10 +6783,10 @@
         <v>2</v>
       </c>
       <c r="U38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="W38">
         <v>81</v>
@@ -6867,13 +6864,13 @@
         <v>13.5</v>
       </c>
       <c r="AV38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AW38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AX38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY38">
         <v>1988</v>
@@ -6881,19 +6878,19 @@
     </row>
     <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39">
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F39">
         <v>41</v>
@@ -6908,7 +6905,7 @@
         <v>0.526</v>
       </c>
       <c r="J39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K39">
         <v>10868</v>
@@ -6917,22 +6914,22 @@
         <v>2090</v>
       </c>
       <c r="M39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N39">
         <v>10868</v>
       </c>
       <c r="O39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q39">
         <v>1959</v>
       </c>
       <c r="R39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S39">
         <v>28</v>
@@ -6941,10 +6938,10 @@
         <v>5</v>
       </c>
       <c r="U39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W39">
         <v>79</v>
@@ -7022,13 +7019,13 @@
         <v>19.5</v>
       </c>
       <c r="AV39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AW39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY39">
         <v>1987</v>
@@ -7036,19 +7033,19 @@
     </row>
     <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40">
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F40">
         <v>32</v>
@@ -7063,7 +7060,7 @@
         <v>0.41</v>
       </c>
       <c r="J40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K40">
         <v>10203</v>
@@ -7072,22 +7069,22 @@
         <v>1556</v>
       </c>
       <c r="M40" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N40">
         <v>10203</v>
       </c>
       <c r="O40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q40">
         <v>1952</v>
       </c>
       <c r="R40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S40">
         <v>34</v>
@@ -7096,10 +7093,10 @@
         <v>9</v>
       </c>
       <c r="U40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V40" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="W40">
         <v>80</v>
@@ -7177,13 +7174,13 @@
         <v>7.6</v>
       </c>
       <c r="AV40" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AW40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY40">
         <v>1986</v>
@@ -7191,19 +7188,19 @@
     </row>
     <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41">
         <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F41">
         <v>57</v>
@@ -7218,7 +7215,7 @@
         <v>0.731</v>
       </c>
       <c r="J41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K41">
         <v>10006</v>
@@ -7227,22 +7224,22 @@
         <v>1938</v>
       </c>
       <c r="M41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N41">
         <v>10006</v>
       </c>
       <c r="O41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q41">
         <v>1957</v>
       </c>
       <c r="R41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S41">
         <v>28</v>
@@ -7251,10 +7248,10 @@
         <v>5</v>
       </c>
       <c r="U41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V41" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="W41">
         <v>79</v>
@@ -7332,13 +7329,13 @@
         <v>19.8</v>
       </c>
       <c r="AV41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AW41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY41">
         <v>1985</v>
@@ -7346,19 +7343,19 @@
     </row>
     <row r="42" spans="1:51">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42">
         <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F42">
         <v>59</v>
@@ -7373,7 +7370,7 @@
         <v>0.776</v>
       </c>
       <c r="J42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K42">
         <v>9655</v>
@@ -7382,22 +7379,22 @@
         <v>1938</v>
       </c>
       <c r="M42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N42">
         <v>9655</v>
       </c>
       <c r="O42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q42">
         <v>1957</v>
       </c>
       <c r="R42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S42">
         <v>27</v>
@@ -7406,10 +7403,10 @@
         <v>4</v>
       </c>
       <c r="U42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V42" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="W42">
         <v>82</v>
@@ -7487,13 +7484,13 @@
         <v>18.4</v>
       </c>
       <c r="AV42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AW42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY42">
         <v>1984</v>
@@ -7501,22 +7498,22 @@
     </row>
     <row r="43" spans="1:51">
       <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
         <v>92</v>
       </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43">
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K43">
         <v>9119</v>
@@ -7525,22 +7522,22 @@
         <v>1559</v>
       </c>
       <c r="M43" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N43">
         <v>9119</v>
       </c>
       <c r="O43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q43">
         <v>1951</v>
       </c>
       <c r="R43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S43">
         <v>32</v>
@@ -7549,10 +7546,10 @@
         <v>9</v>
       </c>
       <c r="U43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W43">
         <v>74</v>
@@ -7630,13 +7627,13 @@
         <v>9</v>
       </c>
       <c r="AV43" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AW43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY43">
         <v>1983</v>

--- a/smoy_winners.xlsx
+++ b/smoy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="198">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -217,9 +217,6 @@
     <t>2008</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>Manu Ginóbili</t>
   </si>
   <si>
-    <t>Leandro Barbosa</t>
-  </si>
-  <si>
     <t>Mike Miller</t>
   </si>
   <si>
@@ -433,24 +427,24 @@
     <t>SAS</t>
   </si>
   <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
     <t>PHO</t>
   </si>
   <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
     <t>ORL</t>
   </si>
   <si>
@@ -520,9 +514,6 @@
     <t>2007-08</t>
   </si>
   <si>
-    <t>2006-07</t>
-  </si>
-  <si>
     <t>2005-06</t>
   </si>
   <si>
@@ -595,9 +586,6 @@
     <t>1982-83</t>
   </si>
   <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -614,9 +602,6 @@
   </si>
   <si>
     <t>NBA</t>
-  </si>
-  <si>
-    <t>CLE</t>
   </si>
   <si>
     <t>No</t>
@@ -980,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY43"/>
+  <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1146,16 +1131,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F2">
         <v>45</v>
@@ -1170,7 +1155,7 @@
         <v>0.711</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K2">
         <v>31663</v>
@@ -1179,7 +1164,7 @@
         <v>4771</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N2">
         <v>31663</v>
@@ -1188,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2">
         <v>1999</v>
       </c>
       <c r="R2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S2">
         <v>25</v>
@@ -1203,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W2">
         <v>81</v>
@@ -1284,13 +1269,13 @@
         <v>13.5</v>
       </c>
       <c r="AV2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AW2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1301,16 +1286,16 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F3">
         <v>96</v>
@@ -1325,7 +1310,7 @@
         <v>0.976</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K3">
         <v>30411</v>
@@ -1334,7 +1319,7 @@
         <v>4796</v>
       </c>
       <c r="M3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N3">
         <v>30411</v>
@@ -1343,13 +1328,13 @@
         <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q3">
         <v>1999</v>
       </c>
       <c r="R3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S3">
         <v>23</v>
@@ -1358,10 +1343,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W3">
         <v>66</v>
@@ -1439,13 +1424,13 @@
         <v>20.7</v>
       </c>
       <c r="AV3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AW3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY3">
         <v>2022</v>
@@ -1456,16 +1441,16 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>65</v>
@@ -1480,7 +1465,7 @@
         <v>0.8139999999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K4">
         <v>29298</v>
@@ -1489,7 +1474,7 @@
         <v>4265</v>
       </c>
       <c r="M4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N4">
         <v>29298</v>
@@ -1498,13 +1483,13 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q4">
         <v>1992</v>
       </c>
       <c r="R4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S4">
         <v>29</v>
@@ -1513,10 +1498,10 @@
         <v>7</v>
       </c>
       <c r="U4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="W4">
         <v>68</v>
@@ -1594,13 +1579,13 @@
         <v>18.4</v>
       </c>
       <c r="AV4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY4">
         <v>2021</v>
@@ -1611,16 +1596,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5">
         <v>58</v>
@@ -1635,7 +1620,7 @@
         <v>0.794</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K5">
         <v>28762</v>
@@ -1644,7 +1629,7 @@
         <v>4349</v>
       </c>
       <c r="M5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N5">
         <v>28762</v>
@@ -1653,13 +1638,13 @@
         <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>1993</v>
       </c>
       <c r="R5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S5">
         <v>27</v>
@@ -1668,10 +1653,10 @@
         <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W5">
         <v>63</v>
@@ -1749,13 +1734,13 @@
         <v>18.6</v>
       </c>
       <c r="AV5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AW5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY5">
         <v>2020</v>
@@ -1766,16 +1751,16 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6">
         <v>96</v>
@@ -1790,7 +1775,7 @@
         <v>0.978</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K6">
         <v>28013</v>
@@ -1799,7 +1784,7 @@
         <v>3619</v>
       </c>
       <c r="M6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N6">
         <v>28013</v>
@@ -1808,13 +1793,13 @@
         <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>1986</v>
       </c>
       <c r="R6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S6">
         <v>33</v>
@@ -1823,10 +1808,10 @@
         <v>14</v>
       </c>
       <c r="U6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W6">
         <v>75</v>
@@ -1904,13 +1889,13 @@
         <v>20</v>
       </c>
       <c r="AV6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AW6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY6">
         <v>2019</v>
@@ -1921,16 +1906,16 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F7">
         <v>97</v>
@@ -1945,7 +1930,7 @@
         <v>0.98</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K7">
         <v>27326</v>
@@ -1954,7 +1939,7 @@
         <v>3619</v>
       </c>
       <c r="M7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N7">
         <v>27326</v>
@@ -1963,13 +1948,13 @@
         <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>1986</v>
       </c>
       <c r="R7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S7">
         <v>32</v>
@@ -1978,10 +1963,10 @@
         <v>13</v>
       </c>
       <c r="U7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W7">
         <v>79</v>
@@ -2059,13 +2044,13 @@
         <v>22.6</v>
       </c>
       <c r="AV7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AW7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY7">
         <v>2018</v>
@@ -2076,16 +2061,16 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F8">
         <v>46</v>
@@ -2100,7 +2085,7 @@
         <v>0.716</v>
       </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K8">
         <v>26508</v>
@@ -2109,7 +2094,7 @@
         <v>3815</v>
       </c>
       <c r="M8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N8">
         <v>26508</v>
@@ -2118,13 +2103,13 @@
         <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>1988</v>
       </c>
       <c r="R8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S8">
         <v>29</v>
@@ -2133,10 +2118,10 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="W8">
         <v>75</v>
@@ -2214,13 +2199,13 @@
         <v>16.2</v>
       </c>
       <c r="AV8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AW8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY8">
         <v>2017</v>
@@ -2231,16 +2216,16 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9">
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9">
         <v>51</v>
@@ -2255,7 +2240,7 @@
         <v>0.525</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K9">
         <v>25966</v>
@@ -2264,7 +2249,7 @@
         <v>3258</v>
       </c>
       <c r="M9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N9">
         <v>25966</v>
@@ -2273,13 +2258,13 @@
         <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>1980</v>
       </c>
       <c r="R9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S9">
         <v>36</v>
@@ -2288,10 +2273,10 @@
         <v>16</v>
       </c>
       <c r="U9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W9">
         <v>79</v>
@@ -2369,13 +2354,13 @@
         <v>14.2</v>
       </c>
       <c r="AV9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AW9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY9">
         <v>2016</v>
@@ -2386,16 +2371,16 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10">
         <v>78</v>
@@ -2410,7 +2395,7 @@
         <v>0.772</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K10">
         <v>25497</v>
@@ -2419,7 +2404,7 @@
         <v>3619</v>
       </c>
       <c r="M10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N10">
         <v>25497</v>
@@ -2428,13 +2413,13 @@
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q10">
         <v>1986</v>
       </c>
       <c r="R10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S10">
         <v>29</v>
@@ -2443,10 +2428,10 @@
         <v>10</v>
       </c>
       <c r="U10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W10">
         <v>80</v>
@@ -2524,13 +2509,13 @@
         <v>15.5</v>
       </c>
       <c r="AV10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AW10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY10">
         <v>2015</v>
@@ -2541,16 +2526,16 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11">
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F11">
         <v>57</v>
@@ -2565,7 +2550,7 @@
         <v>0.674</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K11">
         <v>24728</v>
@@ -2574,7 +2559,7 @@
         <v>3258</v>
       </c>
       <c r="M11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N11">
         <v>24728</v>
@@ -2583,13 +2568,13 @@
         <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>1980</v>
       </c>
       <c r="R11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S11">
         <v>34</v>
@@ -2598,10 +2583,10 @@
         <v>14</v>
       </c>
       <c r="U11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W11">
         <v>69</v>
@@ -2679,13 +2664,13 @@
         <v>18.6</v>
       </c>
       <c r="AV11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AW11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY11">
         <v>2014</v>
@@ -2696,16 +2681,16 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12">
         <v>72</v>
@@ -2720,7 +2705,7 @@
         <v>0.8</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K12">
         <v>24140</v>
@@ -2729,7 +2714,7 @@
         <v>3527</v>
       </c>
       <c r="M12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N12">
         <v>24140</v>
@@ -2738,13 +2723,13 @@
         <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q12">
         <v>1985</v>
       </c>
       <c r="R12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S12">
         <v>28</v>
@@ -2753,10 +2738,10 @@
         <v>9</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W12">
         <v>80</v>
@@ -2834,13 +2819,13 @@
         <v>18.1</v>
       </c>
       <c r="AV12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AW12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY12">
         <v>2013</v>
@@ -2851,16 +2836,16 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F13">
         <v>115</v>
@@ -2875,7 +2860,7 @@
         <v>0.982</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K13">
         <v>23594</v>
@@ -2884,7 +2869,7 @@
         <v>3880</v>
       </c>
       <c r="M13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N13">
         <v>23594</v>
@@ -2893,13 +2878,13 @@
         <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>1989</v>
       </c>
       <c r="R13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S13">
         <v>23</v>
@@ -2908,10 +2893,10 @@
         <v>3</v>
       </c>
       <c r="U13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W13">
         <v>62</v>
@@ -2989,13 +2974,13 @@
         <v>16.8</v>
       </c>
       <c r="AV13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW13" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX13" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY13">
         <v>2012</v>
@@ -3006,16 +2991,16 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F14">
         <v>96</v>
@@ -3030,7 +3015,7 @@
         <v>0.877</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K14">
         <v>23106</v>
@@ -3039,7 +3024,7 @@
         <v>3201</v>
       </c>
       <c r="M14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N14">
         <v>23106</v>
@@ -3048,13 +3033,13 @@
         <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q14">
         <v>1979</v>
       </c>
       <c r="R14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S14">
         <v>32</v>
@@ -3063,10 +3048,10 @@
         <v>12</v>
       </c>
       <c r="U14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W14">
         <v>82</v>
@@ -3144,13 +3129,13 @@
         <v>14.4</v>
       </c>
       <c r="AV14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AW14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY14">
         <v>2011</v>
@@ -3161,16 +3146,16 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F15">
         <v>110</v>
@@ -3185,7 +3170,7 @@
         <v>0.951</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K15">
         <v>22391</v>
@@ -3194,7 +3179,7 @@
         <v>3258</v>
       </c>
       <c r="M15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N15">
         <v>22391</v>
@@ -3203,13 +3188,13 @@
         <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q15">
         <v>1980</v>
       </c>
       <c r="R15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S15">
         <v>30</v>
@@ -3218,10 +3203,10 @@
         <v>10</v>
       </c>
       <c r="U15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W15">
         <v>79</v>
@@ -3299,13 +3284,13 @@
         <v>18</v>
       </c>
       <c r="AV15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AW15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY15">
         <v>2010</v>
@@ -3316,16 +3301,16 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F16">
         <v>111</v>
@@ -3340,7 +3325,7 @@
         <v>0.952</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K16">
         <v>21831</v>
@@ -3349,7 +3334,7 @@
         <v>3194</v>
       </c>
       <c r="M16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N16">
         <v>21831</v>
@@ -3358,13 +3343,13 @@
         <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q16">
         <v>1977</v>
       </c>
       <c r="R16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S16">
         <v>32</v>
@@ -3373,10 +3358,10 @@
         <v>10</v>
       </c>
       <c r="U16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="W16">
         <v>74</v>
@@ -3454,13 +3439,13 @@
         <v>19.6</v>
       </c>
       <c r="AV16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AW16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY16">
         <v>2009</v>
@@ -3471,16 +3456,16 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F17">
         <v>123</v>
@@ -3495,7 +3480,7 @@
         <v>0.992</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K17">
         <v>21344</v>
@@ -3504,7 +3489,7 @@
         <v>3401</v>
       </c>
       <c r="M17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N17">
         <v>21344</v>
@@ -3513,13 +3498,13 @@
         <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q17">
         <v>1977</v>
       </c>
       <c r="R17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S17">
         <v>31</v>
@@ -3528,10 +3513,10 @@
         <v>6</v>
       </c>
       <c r="U17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W17">
         <v>74</v>
@@ -3609,13 +3594,13 @@
         <v>19.5</v>
       </c>
       <c r="AV17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AW17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY17">
         <v>2008</v>
@@ -3626,937 +3611,937 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G18">
-        <v>578</v>
+        <v>501</v>
       </c>
       <c r="H18">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="I18">
-        <v>0.91</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K18">
-        <v>20760</v>
+        <v>20282</v>
       </c>
       <c r="L18">
-        <v>3462</v>
+        <v>3276</v>
       </c>
       <c r="M18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N18">
-        <v>20761</v>
+        <v>20282</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="Q18">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="R18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="S18">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V18" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="W18">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X18">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="Y18">
-        <v>40.9</v>
+        <v>30.6</v>
       </c>
       <c r="Z18">
-        <v>9.9</v>
+        <v>4.8</v>
       </c>
       <c r="AA18">
-        <v>20.8</v>
+        <v>10.3</v>
       </c>
       <c r="AB18">
-        <v>0.476</v>
+        <v>0.466</v>
       </c>
       <c r="AC18">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD18">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AE18">
-        <v>0.319</v>
+        <v>0.407</v>
       </c>
       <c r="AF18">
-        <v>8.6</v>
+        <v>2.9</v>
       </c>
       <c r="AG18">
-        <v>16.8</v>
+        <v>5.7</v>
       </c>
       <c r="AH18">
         <v>0.513</v>
       </c>
       <c r="AI18">
-        <v>0.507</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AJ18">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="AK18">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="AL18">
-        <v>0.698</v>
+        <v>0.8</v>
       </c>
       <c r="AM18">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AN18">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO18">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="AP18">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="AQ18">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="AR18">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AS18">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="AT18">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AU18">
-        <v>27.3</v>
+        <v>13.7</v>
       </c>
       <c r="AV18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AW18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY18">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
         <v>105</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G19">
-        <v>578</v>
+        <v>513</v>
       </c>
       <c r="H19">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="I19">
-        <v>0.91</v>
+        <v>0.821</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K19">
-        <v>20760</v>
+        <v>19365</v>
       </c>
       <c r="L19">
-        <v>3462</v>
+        <v>3505</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N19">
-        <v>20760</v>
+        <v>19365</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s">
         <v>105</v>
       </c>
       <c r="Q19">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="R19" t="s">
+        <v>191</v>
+      </c>
+      <c r="S19">
+        <v>22</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
         <v>195</v>
       </c>
-      <c r="S19">
-        <v>25</v>
-      </c>
-      <c r="T19">
+      <c r="V19" t="s">
+        <v>138</v>
+      </c>
+      <c r="W19">
+        <v>82</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>24.4</v>
+      </c>
+      <c r="Z19">
+        <v>5.3</v>
+      </c>
+      <c r="AA19">
+        <v>12.9</v>
+      </c>
+      <c r="AB19">
+        <v>0.411</v>
+      </c>
+      <c r="AC19">
+        <v>1.6</v>
+      </c>
+      <c r="AD19">
         <v>4</v>
       </c>
-      <c r="U19" t="s">
-        <v>199</v>
-      </c>
-      <c r="V19" t="s">
-        <v>139</v>
-      </c>
-      <c r="W19">
-        <v>80</v>
-      </c>
-      <c r="X19">
-        <v>18</v>
-      </c>
-      <c r="Y19">
-        <v>32.7</v>
-      </c>
-      <c r="Z19">
-        <v>6.6</v>
-      </c>
-      <c r="AA19">
-        <v>13.9</v>
-      </c>
-      <c r="AB19">
-        <v>0.476</v>
-      </c>
-      <c r="AC19">
-        <v>2.4</v>
-      </c>
-      <c r="AD19">
-        <v>5.5</v>
-      </c>
       <c r="AE19">
-        <v>0.434</v>
+        <v>0.405</v>
       </c>
       <c r="AF19">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AG19">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH19">
-        <v>0.504</v>
+        <v>0.414</v>
       </c>
       <c r="AI19">
-        <v>0.5620000000000001</v>
+        <v>0.474</v>
       </c>
       <c r="AJ19">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AK19">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AL19">
-        <v>0.845</v>
+        <v>0.863</v>
       </c>
       <c r="AM19">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AN19">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AO19">
+        <v>2.6</v>
+      </c>
+      <c r="AP19">
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <v>0.6</v>
+      </c>
+      <c r="AR19">
+        <v>0.1</v>
+      </c>
+      <c r="AS19">
+        <v>2.3</v>
+      </c>
+      <c r="AT19">
         <v>2.7</v>
       </c>
-      <c r="AP19">
-        <v>4</v>
-      </c>
-      <c r="AQ19">
-        <v>1.2</v>
-      </c>
-      <c r="AR19">
-        <v>0.2</v>
-      </c>
-      <c r="AS19">
-        <v>1.8</v>
-      </c>
-      <c r="AT19">
-        <v>2.6</v>
-      </c>
       <c r="AU19">
-        <v>18.1</v>
+        <v>15.1</v>
       </c>
       <c r="AV19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY19">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="20" spans="1:51">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
         <v>106</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F20">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="G20">
-        <v>501</v>
+        <v>338</v>
       </c>
       <c r="H20">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="I20">
-        <v>0.8149999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K20">
-        <v>20282</v>
+        <v>18751</v>
       </c>
       <c r="L20">
-        <v>3276</v>
+        <v>3104</v>
       </c>
       <c r="M20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N20">
-        <v>20282</v>
+        <v>18751</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s">
         <v>106</v>
       </c>
       <c r="Q20">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="R20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T20">
         <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W20">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="X20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Y20">
-        <v>30.6</v>
+        <v>29</v>
       </c>
       <c r="Z20">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="AA20">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="AB20">
-        <v>0.466</v>
+        <v>0.535</v>
       </c>
       <c r="AC20">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD20">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="AE20">
-        <v>0.407</v>
+        <v>0.4</v>
       </c>
       <c r="AF20">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG20">
-        <v>5.7</v>
+        <v>10.6</v>
       </c>
       <c r="AH20">
-        <v>0.513</v>
+        <v>0.541</v>
       </c>
       <c r="AI20">
-        <v>0.5570000000000001</v>
+        <v>0.543</v>
       </c>
       <c r="AJ20">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AK20">
+        <v>3.6</v>
+      </c>
+      <c r="AL20">
+        <v>0.748</v>
+      </c>
+      <c r="AM20">
         <v>2.8</v>
       </c>
-      <c r="AL20">
-        <v>0.8</v>
-      </c>
-      <c r="AM20">
-        <v>0.6</v>
-      </c>
       <c r="AN20">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="AO20">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="AP20">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="AQ20">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0.4</v>
       </c>
       <c r="AS20">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AU20">
-        <v>13.7</v>
+        <v>14.8</v>
       </c>
       <c r="AV20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY20">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="21" spans="1:51">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
         <v>107</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F21">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G21">
-        <v>513</v>
+        <v>362</v>
       </c>
       <c r="H21">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="I21">
-        <v>0.821</v>
+        <v>0.614</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K21">
-        <v>19365</v>
+        <v>18294</v>
       </c>
       <c r="L21">
-        <v>3505</v>
+        <v>3041</v>
       </c>
       <c r="M21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N21">
-        <v>19365</v>
+        <v>18294</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s">
         <v>107</v>
       </c>
       <c r="Q21">
-        <v>1983</v>
+        <v>1973</v>
       </c>
       <c r="R21" t="s">
+        <v>194</v>
+      </c>
+      <c r="S21">
+        <v>30</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21" t="s">
         <v>195</v>
       </c>
-      <c r="S21">
-        <v>22</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21" t="s">
-        <v>199</v>
-      </c>
       <c r="V21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W21">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Y21">
-        <v>24.4</v>
+        <v>28.4</v>
       </c>
       <c r="Z21">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AA21">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="AB21">
-        <v>0.411</v>
+        <v>0.464</v>
       </c>
       <c r="AC21">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD21">
         <v>4</v>
       </c>
       <c r="AE21">
-        <v>0.405</v>
+        <v>0.379</v>
       </c>
       <c r="AF21">
+        <v>4.3</v>
+      </c>
+      <c r="AG21">
+        <v>8.4</v>
+      </c>
+      <c r="AH21">
+        <v>0.505</v>
+      </c>
+      <c r="AI21">
+        <v>0.525</v>
+      </c>
+      <c r="AJ21">
+        <v>2.1</v>
+      </c>
+      <c r="AK21">
+        <v>2.5</v>
+      </c>
+      <c r="AL21">
+        <v>0.846</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>2.7</v>
+      </c>
+      <c r="AO21">
         <v>3.7</v>
       </c>
-      <c r="AG21">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH21">
-        <v>0.414</v>
-      </c>
-      <c r="AI21">
-        <v>0.474</v>
-      </c>
-      <c r="AJ21">
-        <v>2.8</v>
-      </c>
-      <c r="AK21">
-        <v>3.3</v>
-      </c>
-      <c r="AL21">
-        <v>0.863</v>
-      </c>
-      <c r="AM21">
-        <v>0.7</v>
-      </c>
-      <c r="AN21">
-        <v>2</v>
-      </c>
-      <c r="AO21">
-        <v>2.6</v>
-      </c>
       <c r="AP21">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="AQ21">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
         <v>0.1</v>
       </c>
       <c r="AS21">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AT21">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AU21">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="AV21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY21">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>108</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F22">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G22">
-        <v>338</v>
+        <v>56</v>
       </c>
       <c r="H22">
-        <v>600</v>
+        <v>125</v>
       </c>
       <c r="I22">
-        <v>0.5629999999999999</v>
+        <v>0.448</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K22">
-        <v>18751</v>
+        <v>17842</v>
       </c>
       <c r="L22">
-        <v>3104</v>
+        <v>2908</v>
       </c>
       <c r="M22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N22">
-        <v>18751</v>
+        <v>17842</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s">
         <v>108</v>
       </c>
       <c r="Q22">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="R22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="S22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="W22">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y22">
-        <v>29</v>
+        <v>21.8</v>
       </c>
       <c r="Z22">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AA22">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="AB22">
-        <v>0.535</v>
+        <v>0.51</v>
       </c>
       <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0.1</v>
+      </c>
+      <c r="AE22">
         <v>0.2</v>
       </c>
-      <c r="AD22">
-        <v>0.5</v>
-      </c>
-      <c r="AE22">
-        <v>0.4</v>
-      </c>
       <c r="AF22">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="AG22">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="AH22">
-        <v>0.541</v>
+        <v>0.512</v>
       </c>
       <c r="AI22">
-        <v>0.543</v>
+        <v>0.511</v>
       </c>
       <c r="AJ22">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AK22">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AL22">
-        <v>0.748</v>
+        <v>0.805</v>
       </c>
       <c r="AM22">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="AN22">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="AO22">
-        <v>6.3</v>
+        <v>4.1</v>
       </c>
       <c r="AP22">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR22">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AT22">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="AU22">
-        <v>14.8</v>
+        <v>13.6</v>
       </c>
       <c r="AV22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY22">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="23" spans="1:51">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
         <v>109</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F23">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G23">
-        <v>362</v>
+        <v>57</v>
       </c>
       <c r="H23">
-        <v>590</v>
+        <v>124</v>
       </c>
       <c r="I23">
-        <v>0.614</v>
+        <v>0.46</v>
       </c>
       <c r="J23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K23">
-        <v>18294</v>
+        <v>17212</v>
       </c>
       <c r="L23">
-        <v>3041</v>
+        <v>2832</v>
       </c>
       <c r="M23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N23">
-        <v>18294</v>
+        <v>17212</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
         <v>109</v>
       </c>
       <c r="Q23">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="R23" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="S23">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W23">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="X23">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Y23">
-        <v>28.4</v>
+        <v>31.5</v>
       </c>
       <c r="Z23">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="AA23">
-        <v>12.4</v>
+        <v>9.4</v>
       </c>
       <c r="AB23">
-        <v>0.464</v>
+        <v>0.473</v>
       </c>
       <c r="AC23">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD23">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="AE23">
-        <v>0.379</v>
+        <v>0.312</v>
       </c>
       <c r="AF23">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AG23">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AH23">
-        <v>0.505</v>
+        <v>0.524</v>
       </c>
       <c r="AI23">
-        <v>0.525</v>
+        <v>0.511</v>
       </c>
       <c r="AJ23">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK23">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AL23">
-        <v>0.846</v>
+        <v>0.768</v>
       </c>
       <c r="AM23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AN23">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="AO23">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AP23">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="AQ23">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>0.1</v>
       </c>
       <c r="AS23">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="AT23">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AU23">
-        <v>15.2</v>
+        <v>11.6</v>
       </c>
       <c r="AV23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AW23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY23">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="24" spans="1:51">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>110</v>
@@ -4565,46 +4550,46 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="G24">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="H24">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I24">
-        <v>0.448</v>
+        <v>0.86</v>
       </c>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K24">
-        <v>17842</v>
+        <v>17111</v>
       </c>
       <c r="L24">
-        <v>2908</v>
+        <v>2821</v>
       </c>
       <c r="M24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N24">
-        <v>17842</v>
+        <v>17111</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s">
         <v>110</v>
       </c>
       <c r="Q24">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="R24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S24">
         <v>29</v>
@@ -4613,1074 +4598,1074 @@
         <v>7</v>
       </c>
       <c r="U24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W24">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X24">
         <v>7</v>
       </c>
       <c r="Y24">
-        <v>21.8</v>
+        <v>27.9</v>
       </c>
       <c r="Z24">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AA24">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="AB24">
-        <v>0.51</v>
+        <v>0.486</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD24">
-        <v>0.1</v>
+        <v>3.2</v>
       </c>
       <c r="AE24">
-        <v>0.2</v>
+        <v>0.439</v>
       </c>
       <c r="AF24">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="AG24">
-        <v>10.3</v>
+        <v>7.5</v>
       </c>
       <c r="AH24">
-        <v>0.512</v>
+        <v>0.506</v>
       </c>
       <c r="AI24">
-        <v>0.511</v>
+        <v>0.551</v>
       </c>
       <c r="AJ24">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="AK24">
+        <v>3</v>
+      </c>
+      <c r="AL24">
+        <v>0.639</v>
+      </c>
+      <c r="AM24">
+        <v>1.7</v>
+      </c>
+      <c r="AN24">
         <v>3.8</v>
       </c>
-      <c r="AL24">
-        <v>0.805</v>
-      </c>
-      <c r="AM24">
-        <v>1.5</v>
-      </c>
-      <c r="AN24">
-        <v>2.6</v>
-      </c>
       <c r="AO24">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ24">
+        <v>1.1</v>
+      </c>
+      <c r="AR24">
         <v>0.6</v>
       </c>
-      <c r="AR24">
-        <v>0.3</v>
-      </c>
       <c r="AS24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AU24">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="AV24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AW24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY24">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>111</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F25">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G25">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H25">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I25">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K25">
-        <v>17212</v>
+        <v>16338</v>
       </c>
       <c r="L25">
-        <v>2832</v>
+        <v>2846</v>
       </c>
       <c r="M25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N25">
-        <v>17212</v>
+        <v>16338</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
         <v>111</v>
       </c>
       <c r="Q25">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="R25" t="s">
+        <v>194</v>
+      </c>
+      <c r="S25">
+        <v>31</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25" t="s">
         <v>195</v>
       </c>
-      <c r="S25">
-        <v>29</v>
-      </c>
-      <c r="T25">
-        <v>7</v>
-      </c>
-      <c r="U25" t="s">
-        <v>199</v>
-      </c>
       <c r="V25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W25">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="X25">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="Y25">
-        <v>31.5</v>
+        <v>30</v>
       </c>
       <c r="Z25">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AA25">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="AB25">
-        <v>0.473</v>
+        <v>0.441</v>
       </c>
       <c r="AC25">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="AD25">
+        <v>3.8</v>
+      </c>
+      <c r="AE25">
+        <v>0.365</v>
+      </c>
+      <c r="AF25">
+        <v>3.2</v>
+      </c>
+      <c r="AG25">
+        <v>6.7</v>
+      </c>
+      <c r="AH25">
+        <v>0.483</v>
+      </c>
+      <c r="AI25">
+        <v>0.507</v>
+      </c>
+      <c r="AJ25">
+        <v>3.2</v>
+      </c>
+      <c r="AK25">
+        <v>3.6</v>
+      </c>
+      <c r="AL25">
+        <v>0.904</v>
+      </c>
+      <c r="AM25">
+        <v>1.1</v>
+      </c>
+      <c r="AN25">
+        <v>2.5</v>
+      </c>
+      <c r="AO25">
+        <v>3.6</v>
+      </c>
+      <c r="AP25">
+        <v>6.7</v>
+      </c>
+      <c r="AQ25">
         <v>2.2</v>
-      </c>
-      <c r="AE25">
-        <v>0.312</v>
-      </c>
-      <c r="AF25">
-        <v>3.8</v>
-      </c>
-      <c r="AG25">
-        <v>7.2</v>
-      </c>
-      <c r="AH25">
-        <v>0.524</v>
-      </c>
-      <c r="AI25">
-        <v>0.511</v>
-      </c>
-      <c r="AJ25">
-        <v>2</v>
-      </c>
-      <c r="AK25">
-        <v>2.6</v>
-      </c>
-      <c r="AL25">
-        <v>0.768</v>
-      </c>
-      <c r="AM25">
-        <v>0.4</v>
-      </c>
-      <c r="AN25">
-        <v>3.7</v>
-      </c>
-      <c r="AO25">
-        <v>4.1</v>
-      </c>
-      <c r="AP25">
-        <v>5</v>
-      </c>
-      <c r="AQ25">
-        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.1</v>
       </c>
       <c r="AS25">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AT25">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AU25">
-        <v>11.6</v>
+        <v>13.8</v>
       </c>
       <c r="AV25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AW25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY25">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
         <v>112</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F26">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G26">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="H26">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I26">
-        <v>0.86</v>
+        <v>0.491</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K26">
-        <v>17111</v>
+        <v>15806</v>
       </c>
       <c r="L26">
-        <v>2821</v>
+        <v>2417</v>
       </c>
       <c r="M26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N26">
-        <v>17111</v>
+        <v>15806</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s">
         <v>112</v>
       </c>
       <c r="Q26">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="R26" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S26">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W26">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="X26">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y26">
-        <v>27.9</v>
+        <v>25.6</v>
       </c>
       <c r="Z26">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AA26">
+        <v>10.8</v>
+      </c>
+      <c r="AB26">
+        <v>0.516</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0.1</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>5.6</v>
+      </c>
+      <c r="AG26">
         <v>10.7</v>
       </c>
-      <c r="AB26">
-        <v>0.486</v>
-      </c>
-      <c r="AC26">
+      <c r="AH26">
+        <v>0.521</v>
+      </c>
+      <c r="AI26">
+        <v>0.516</v>
+      </c>
+      <c r="AJ26">
+        <v>2.4</v>
+      </c>
+      <c r="AK26">
+        <v>3.2</v>
+      </c>
+      <c r="AL26">
+        <v>0.739</v>
+      </c>
+      <c r="AM26">
+        <v>1.6</v>
+      </c>
+      <c r="AN26">
+        <v>4</v>
+      </c>
+      <c r="AO26">
+        <v>5.6</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>0.7</v>
+      </c>
+      <c r="AS26">
         <v>1.4</v>
       </c>
-      <c r="AD26">
-        <v>3.2</v>
-      </c>
-      <c r="AE26">
-        <v>0.439</v>
-      </c>
-      <c r="AF26">
-        <v>3.8</v>
-      </c>
-      <c r="AG26">
-        <v>7.5</v>
-      </c>
-      <c r="AH26">
-        <v>0.506</v>
-      </c>
-      <c r="AI26">
-        <v>0.551</v>
-      </c>
-      <c r="AJ26">
-        <v>1.9</v>
-      </c>
-      <c r="AK26">
-        <v>3</v>
-      </c>
-      <c r="AL26">
-        <v>0.639</v>
-      </c>
-      <c r="AM26">
-        <v>1.7</v>
-      </c>
-      <c r="AN26">
-        <v>3.8</v>
-      </c>
-      <c r="AO26">
-        <v>5.5</v>
-      </c>
-      <c r="AP26">
-        <v>2.1</v>
-      </c>
-      <c r="AQ26">
-        <v>1.1</v>
-      </c>
-      <c r="AR26">
-        <v>0.6</v>
-      </c>
-      <c r="AS26">
-        <v>2</v>
-      </c>
       <c r="AT26">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AU26">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="AV26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AW26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY26">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
         <v>113</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F27">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I27">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K27">
-        <v>16338</v>
+        <v>15391</v>
       </c>
       <c r="L27">
-        <v>2846</v>
+        <v>2438</v>
       </c>
       <c r="M27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N27">
-        <v>16338</v>
+        <v>15391</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P27" t="s">
         <v>113</v>
       </c>
       <c r="Q27">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="R27" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="S27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V27" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="W27">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="X27">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>30</v>
+        <v>26.5</v>
       </c>
       <c r="Z27">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AA27">
-        <v>10.4</v>
+        <v>11.1</v>
       </c>
       <c r="AB27">
-        <v>0.441</v>
+        <v>0.431</v>
       </c>
       <c r="AC27">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AD27">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="AE27">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="AF27">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AG27">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="AH27">
-        <v>0.483</v>
+        <v>0.488</v>
       </c>
       <c r="AI27">
-        <v>0.507</v>
+        <v>0.519</v>
       </c>
       <c r="AJ27">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="AK27">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AL27">
-        <v>0.904</v>
+        <v>0.769</v>
       </c>
       <c r="AM27">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AO27">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="AP27">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="AQ27">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="AR27">
         <v>0.1</v>
       </c>
       <c r="AS27">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="AT27">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AU27">
         <v>13.8</v>
       </c>
       <c r="AV27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
         <v>114</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F28">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G28">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I28">
-        <v>0.491</v>
+        <v>0.398</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K28">
-        <v>15806</v>
+        <v>15049</v>
       </c>
       <c r="L28">
-        <v>2417</v>
+        <v>2829</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N28">
-        <v>15806</v>
+        <v>15049</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" t="s">
         <v>114</v>
       </c>
       <c r="Q28">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="R28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S28">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W28">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="X28">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Y28">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="Z28">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="AA28">
-        <v>10.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB28">
-        <v>0.516</v>
+        <v>0.49</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AD28">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="AF28">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="AG28">
-        <v>10.7</v>
+        <v>7</v>
       </c>
       <c r="AH28">
-        <v>0.521</v>
+        <v>0.524</v>
       </c>
       <c r="AI28">
-        <v>0.516</v>
+        <v>0.546</v>
       </c>
       <c r="AJ28">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AK28">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AL28">
-        <v>0.739</v>
+        <v>0.772</v>
       </c>
       <c r="AM28">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AN28">
+        <v>2.6</v>
+      </c>
+      <c r="AO28">
         <v>4</v>
       </c>
-      <c r="AO28">
-        <v>5.6</v>
-      </c>
       <c r="AP28">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AS28">
         <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="AU28">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="AV28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AW28" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX28" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY28">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
         <v>115</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F29">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G29">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H29">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I29">
-        <v>0.73</v>
+        <v>0.448</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K29">
-        <v>15391</v>
+        <v>14109</v>
       </c>
       <c r="L29">
-        <v>2438</v>
+        <v>2481</v>
       </c>
       <c r="M29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N29">
-        <v>15391</v>
+        <v>14109</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" t="s">
         <v>115</v>
       </c>
       <c r="Q29">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="R29" t="s">
+        <v>192</v>
+      </c>
+      <c r="S29">
+        <v>29</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29" t="s">
         <v>195</v>
       </c>
-      <c r="S29">
-        <v>32</v>
-      </c>
-      <c r="T29">
-        <v>8</v>
-      </c>
-      <c r="U29" t="s">
-        <v>199</v>
-      </c>
       <c r="V29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W29">
         <v>77</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Y29">
-        <v>26.5</v>
+        <v>32.4</v>
       </c>
       <c r="Z29">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="AA29">
-        <v>11.1</v>
+        <v>6.6</v>
       </c>
       <c r="AB29">
-        <v>0.431</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="AC29">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="AG29">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AH29">
-        <v>0.488</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="AI29">
-        <v>0.519</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="AJ29">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK29">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="AL29">
-        <v>0.769</v>
+        <v>0.641</v>
       </c>
       <c r="AM29">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="AN29">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="AO29">
-        <v>2.7</v>
+        <v>8.4</v>
       </c>
       <c r="AP29">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AQ29">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AR29">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AS29">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AT29">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AU29">
-        <v>13.8</v>
+        <v>9.9</v>
       </c>
       <c r="AV29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AW29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY29">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
         <v>116</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F30">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I30">
-        <v>0.398</v>
+        <v>0.455</v>
       </c>
       <c r="J30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K30">
-        <v>15049</v>
+        <v>13722</v>
       </c>
       <c r="L30">
-        <v>2829</v>
+        <v>2299</v>
       </c>
       <c r="M30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N30">
-        <v>15049</v>
+        <v>13722</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" t="s">
         <v>116</v>
       </c>
       <c r="Q30">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="R30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="S30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="W30">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="Z30">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="AA30">
+        <v>14.3</v>
+      </c>
+      <c r="AB30">
+        <v>0.455</v>
+      </c>
+      <c r="AC30">
+        <v>1.9</v>
+      </c>
+      <c r="AD30">
+        <v>4.6</v>
+      </c>
+      <c r="AE30">
+        <v>0.402</v>
+      </c>
+      <c r="AF30">
+        <v>4.6</v>
+      </c>
+      <c r="AG30">
         <v>9.699999999999999</v>
       </c>
-      <c r="AB30">
-        <v>0.49</v>
-      </c>
-      <c r="AC30">
-        <v>1.1</v>
-      </c>
-      <c r="AD30">
+      <c r="AH30">
+        <v>0.48</v>
+      </c>
+      <c r="AI30">
+        <v>0.52</v>
+      </c>
+      <c r="AJ30">
+        <v>1.4</v>
+      </c>
+      <c r="AK30">
+        <v>1.6</v>
+      </c>
+      <c r="AL30">
+        <v>0.873</v>
+      </c>
+      <c r="AM30">
+        <v>0.9</v>
+      </c>
+      <c r="AN30">
+        <v>2.3</v>
+      </c>
+      <c r="AO30">
+        <v>3.2</v>
+      </c>
+      <c r="AP30">
         <v>2.7</v>
       </c>
-      <c r="AE30">
-        <v>0.403</v>
-      </c>
-      <c r="AF30">
-        <v>3.7</v>
-      </c>
-      <c r="AG30">
-        <v>7</v>
-      </c>
-      <c r="AH30">
-        <v>0.524</v>
-      </c>
-      <c r="AI30">
-        <v>0.546</v>
-      </c>
-      <c r="AJ30">
-        <v>2.5</v>
-      </c>
-      <c r="AK30">
-        <v>3.3</v>
-      </c>
-      <c r="AL30">
-        <v>0.772</v>
-      </c>
-      <c r="AM30">
-        <v>1.4</v>
-      </c>
-      <c r="AN30">
-        <v>2.6</v>
-      </c>
-      <c r="AO30">
-        <v>4</v>
-      </c>
-      <c r="AP30">
-        <v>3.5</v>
-      </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR30">
         <v>0.3</v>
       </c>
       <c r="AS30">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU30">
-        <v>13.1</v>
+        <v>16.3</v>
       </c>
       <c r="AV30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AW30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY30">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>117</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F31">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="G31">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H31">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I31">
-        <v>0.448</v>
+        <v>0.908</v>
       </c>
       <c r="J31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K31">
-        <v>14109</v>
+        <v>13240</v>
       </c>
       <c r="L31">
-        <v>2481</v>
+        <v>2492</v>
       </c>
       <c r="M31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N31">
-        <v>14109</v>
+        <v>13240</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P31" t="s">
         <v>117</v>
@@ -5689,114 +5674,114 @@
         <v>1966</v>
       </c>
       <c r="R31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S31">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U31" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V31" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="W31">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="X31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y31">
-        <v>32.4</v>
+        <v>31.4</v>
       </c>
       <c r="Z31">
-        <v>3.7</v>
+        <v>7.7</v>
       </c>
       <c r="AA31">
+        <v>16.3</v>
+      </c>
+      <c r="AB31">
+        <v>0.473</v>
+      </c>
+      <c r="AC31">
+        <v>0.2</v>
+      </c>
+      <c r="AD31">
+        <v>0.9</v>
+      </c>
+      <c r="AE31">
+        <v>0.247</v>
+      </c>
+      <c r="AF31">
+        <v>7.5</v>
+      </c>
+      <c r="AG31">
+        <v>15.4</v>
+      </c>
+      <c r="AH31">
+        <v>0.487</v>
+      </c>
+      <c r="AI31">
+        <v>0.48</v>
+      </c>
+      <c r="AJ31">
+        <v>3.5</v>
+      </c>
+      <c r="AK31">
+        <v>5.1</v>
+      </c>
+      <c r="AL31">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AM31">
+        <v>2</v>
+      </c>
+      <c r="AN31">
+        <v>4.6</v>
+      </c>
+      <c r="AO31">
         <v>6.6</v>
       </c>
-      <c r="AB31">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>3.7</v>
-      </c>
-      <c r="AG31">
-        <v>6.6</v>
-      </c>
-      <c r="AH31">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="AI31">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="AJ31">
-        <v>2.5</v>
-      </c>
-      <c r="AK31">
-        <v>3.9</v>
-      </c>
-      <c r="AL31">
-        <v>0.641</v>
-      </c>
-      <c r="AM31">
-        <v>2.4</v>
-      </c>
-      <c r="AN31">
-        <v>6.1</v>
-      </c>
-      <c r="AO31">
-        <v>8.4</v>
-      </c>
       <c r="AP31">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="AQ31">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AS31">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AT31">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AU31">
-        <v>9.9</v>
+        <v>19.1</v>
       </c>
       <c r="AV31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AW31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY31">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
         <v>118</v>
@@ -5808,1128 +5793,1128 @@
         <v>146</v>
       </c>
       <c r="F32">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G32">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H32">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I32">
-        <v>0.455</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K32">
-        <v>13722</v>
+        <v>12817</v>
       </c>
       <c r="L32">
-        <v>2299</v>
+        <v>2236</v>
       </c>
       <c r="M32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N32">
-        <v>13722</v>
+        <v>12817</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s">
         <v>118</v>
       </c>
       <c r="Q32">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="R32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S32">
         <v>30</v>
       </c>
       <c r="T32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V32" t="s">
         <v>146</v>
       </c>
       <c r="W32">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y32">
-        <v>26.5</v>
+        <v>32.6</v>
       </c>
       <c r="Z32">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA32">
-        <v>14.3</v>
+        <v>11.6</v>
       </c>
       <c r="AB32">
-        <v>0.455</v>
+        <v>0.536</v>
       </c>
       <c r="AC32">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="AD32">
+        <v>0.9</v>
+      </c>
+      <c r="AE32">
+        <v>0.324</v>
+      </c>
+      <c r="AF32">
+        <v>5.9</v>
+      </c>
+      <c r="AG32">
+        <v>10.7</v>
+      </c>
+      <c r="AH32">
+        <v>0.554</v>
+      </c>
+      <c r="AI32">
+        <v>0.549</v>
+      </c>
+      <c r="AJ32">
         <v>4.6</v>
       </c>
-      <c r="AE32">
-        <v>0.402</v>
-      </c>
-      <c r="AF32">
-        <v>4.6</v>
-      </c>
-      <c r="AG32">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AH32">
-        <v>0.48</v>
-      </c>
-      <c r="AI32">
-        <v>0.52</v>
-      </c>
-      <c r="AJ32">
-        <v>1.4</v>
-      </c>
       <c r="AK32">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="AL32">
-        <v>0.873</v>
+        <v>0.828</v>
       </c>
       <c r="AM32">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="AN32">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="AO32">
-        <v>3.2</v>
+        <v>9.6</v>
       </c>
       <c r="AP32">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="AQ32">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="AU32">
-        <v>16.3</v>
+        <v>17.3</v>
       </c>
       <c r="AV32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AW32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY32">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="G33">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I33">
-        <v>0.908</v>
+        <v>0.396</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K33">
-        <v>13240</v>
+        <v>12374</v>
       </c>
       <c r="L33">
-        <v>2492</v>
+        <v>2236</v>
       </c>
       <c r="M33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N33">
-        <v>13240</v>
+        <v>12374</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q33">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="R33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S33">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W33">
         <v>82</v>
       </c>
       <c r="X33">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y33">
-        <v>31.4</v>
+        <v>32.1</v>
       </c>
       <c r="Z33">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="AA33">
-        <v>16.3</v>
+        <v>10.1</v>
       </c>
       <c r="AB33">
-        <v>0.473</v>
+        <v>0.52</v>
       </c>
       <c r="AC33">
         <v>0.2</v>
       </c>
       <c r="AD33">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AE33">
-        <v>0.247</v>
+        <v>0.375</v>
       </c>
       <c r="AF33">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="AG33">
-        <v>15.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH33">
-        <v>0.487</v>
+        <v>0.527</v>
       </c>
       <c r="AI33">
-        <v>0.48</v>
+        <v>0.529</v>
       </c>
       <c r="AJ33">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="AK33">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="AL33">
-        <v>0.6899999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="AM33">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AN33">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO33">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AP33">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AR33">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="AS33">
         <v>2.1</v>
       </c>
       <c r="AT33">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AU33">
-        <v>19.1</v>
+        <v>16.1</v>
       </c>
       <c r="AV33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AW33" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX33" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY33">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34">
+        <v>77</v>
+      </c>
+      <c r="G34">
+        <v>77</v>
+      </c>
+      <c r="H34">
         <v>92</v>
       </c>
-      <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34">
+      <c r="I34">
+        <v>0.837</v>
+      </c>
+      <c r="J34" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34">
+        <v>12152</v>
+      </c>
+      <c r="L34">
+        <v>2090</v>
+      </c>
+      <c r="M34" t="s">
+        <v>182</v>
+      </c>
+      <c r="N34">
+        <v>12152</v>
+      </c>
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q34">
+        <v>1959</v>
+      </c>
+      <c r="R34" t="s">
+        <v>191</v>
+      </c>
+      <c r="S34">
+        <v>31</v>
+      </c>
+      <c r="T34">
+        <v>8</v>
+      </c>
+      <c r="U34" t="s">
+        <v>195</v>
+      </c>
+      <c r="V34" t="s">
+        <v>147</v>
+      </c>
+      <c r="W34">
+        <v>59</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
         <v>29</v>
       </c>
-      <c r="E34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34">
-        <v>54</v>
-      </c>
-      <c r="G34">
-        <v>54</v>
-      </c>
-      <c r="H34">
-        <v>96</v>
-      </c>
-      <c r="I34">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="J34" t="s">
-        <v>151</v>
-      </c>
-      <c r="K34">
-        <v>12817</v>
-      </c>
-      <c r="L34">
-        <v>2236</v>
-      </c>
-      <c r="M34" t="s">
-        <v>183</v>
-      </c>
-      <c r="N34">
-        <v>12817</v>
-      </c>
-      <c r="O34" t="s">
-        <v>82</v>
-      </c>
-      <c r="P34" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q34">
-        <v>1962</v>
-      </c>
-      <c r="R34" t="s">
-        <v>196</v>
-      </c>
-      <c r="S34">
-        <v>30</v>
-      </c>
-      <c r="T34">
-        <v>7</v>
-      </c>
-      <c r="U34" t="s">
-        <v>199</v>
-      </c>
-      <c r="V34" t="s">
-        <v>148</v>
-      </c>
-      <c r="W34">
-        <v>80</v>
-      </c>
-      <c r="X34">
-        <v>4</v>
-      </c>
-      <c r="Y34">
-        <v>32.6</v>
-      </c>
       <c r="Z34">
+        <v>8.5</v>
+      </c>
+      <c r="AA34">
+        <v>16.7</v>
+      </c>
+      <c r="AB34">
+        <v>0.51</v>
+      </c>
+      <c r="AC34">
+        <v>0.8</v>
+      </c>
+      <c r="AD34">
+        <v>2.3</v>
+      </c>
+      <c r="AE34">
+        <v>0.346</v>
+      </c>
+      <c r="AF34">
+        <v>7.7</v>
+      </c>
+      <c r="AG34">
+        <v>14.5</v>
+      </c>
+      <c r="AH34">
+        <v>0.535</v>
+      </c>
+      <c r="AI34">
+        <v>0.533</v>
+      </c>
+      <c r="AJ34">
+        <v>5.2</v>
+      </c>
+      <c r="AK34">
         <v>6.2</v>
       </c>
-      <c r="AA34">
-        <v>11.6</v>
-      </c>
-      <c r="AB34">
-        <v>0.536</v>
-      </c>
-      <c r="AC34">
-        <v>0.3</v>
-      </c>
-      <c r="AD34">
-        <v>0.9</v>
-      </c>
-      <c r="AE34">
-        <v>0.324</v>
-      </c>
-      <c r="AF34">
-        <v>5.9</v>
-      </c>
-      <c r="AG34">
-        <v>10.7</v>
-      </c>
-      <c r="AH34">
-        <v>0.554</v>
-      </c>
-      <c r="AI34">
-        <v>0.549</v>
-      </c>
-      <c r="AJ34">
-        <v>4.6</v>
-      </c>
-      <c r="AK34">
-        <v>5.5</v>
-      </c>
       <c r="AL34">
-        <v>0.828</v>
+        <v>0.839</v>
       </c>
       <c r="AM34">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="AN34">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="AO34">
-        <v>9.6</v>
+        <v>2.8</v>
       </c>
       <c r="AP34">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="AQ34">
         <v>0.8</v>
       </c>
       <c r="AR34">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS34">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AT34">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="AU34">
-        <v>17.3</v>
+        <v>23</v>
       </c>
       <c r="AV34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AW34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY34">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
         <v>120</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I35">
-        <v>0.396</v>
+        <v>0.388</v>
       </c>
       <c r="J35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K35">
-        <v>12374</v>
+        <v>11500</v>
       </c>
       <c r="L35">
-        <v>2236</v>
+        <v>1993</v>
       </c>
       <c r="M35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N35">
-        <v>12374</v>
+        <v>11500</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P35" t="s">
         <v>120</v>
       </c>
       <c r="Q35">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="R35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V35" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="W35">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="X35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y35">
-        <v>32.1</v>
+        <v>29.2</v>
       </c>
       <c r="Z35">
-        <v>5.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA35">
-        <v>10.1</v>
+        <v>17.5</v>
       </c>
       <c r="AB35">
-        <v>0.52</v>
+        <v>0.497</v>
       </c>
       <c r="AC35">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AD35">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AE35">
-        <v>0.375</v>
+        <v>0.413</v>
       </c>
       <c r="AF35">
-        <v>5.1</v>
+        <v>7.7</v>
       </c>
       <c r="AG35">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AH35">
-        <v>0.527</v>
+        <v>0.51</v>
       </c>
       <c r="AI35">
-        <v>0.529</v>
+        <v>0.526</v>
       </c>
       <c r="AJ35">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="AK35">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="AL35">
-        <v>0.8179999999999999</v>
+        <v>0.868</v>
       </c>
       <c r="AM35">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AN35">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="AO35">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="AP35">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="AQ35">
         <v>0.7</v>
       </c>
       <c r="AR35">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AS35">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AT35">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AU35">
-        <v>16.1</v>
+        <v>21.5</v>
       </c>
       <c r="AV35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AW35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY35">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
         <v>121</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36">
+        <v>67</v>
+      </c>
+      <c r="G36">
+        <v>67</v>
+      </c>
+      <c r="H36">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>0.838</v>
+      </c>
+      <c r="J36" t="s">
         <v>149</v>
       </c>
-      <c r="F36">
-        <v>77</v>
-      </c>
-      <c r="G36">
-        <v>77</v>
-      </c>
-      <c r="H36">
-        <v>92</v>
-      </c>
-      <c r="I36">
-        <v>0.837</v>
-      </c>
-      <c r="J36" t="s">
-        <v>151</v>
-      </c>
       <c r="K36">
-        <v>12152</v>
+        <v>11294</v>
       </c>
       <c r="L36">
-        <v>2090</v>
+        <v>2337</v>
       </c>
       <c r="M36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N36">
-        <v>12152</v>
+        <v>11294</v>
       </c>
       <c r="O36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s">
         <v>121</v>
       </c>
       <c r="Q36">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="R36" t="s">
+        <v>192</v>
+      </c>
+      <c r="S36">
+        <v>24</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36" t="s">
         <v>195</v>
       </c>
-      <c r="S36">
-        <v>31</v>
-      </c>
-      <c r="T36">
-        <v>8</v>
-      </c>
-      <c r="U36" t="s">
-        <v>199</v>
-      </c>
       <c r="V36" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="W36">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="X36">
+        <v>9</v>
+      </c>
+      <c r="Y36">
+        <v>28.5</v>
+      </c>
+      <c r="Z36">
+        <v>5.5</v>
+      </c>
+      <c r="AA36">
+        <v>11</v>
+      </c>
+      <c r="AB36">
+        <v>0.5</v>
+      </c>
+      <c r="AC36">
         <v>0</v>
       </c>
-      <c r="Y36">
-        <v>29</v>
-      </c>
-      <c r="Z36">
-        <v>8.5</v>
-      </c>
-      <c r="AA36">
-        <v>16.7</v>
-      </c>
-      <c r="AB36">
-        <v>0.51</v>
-      </c>
-      <c r="AC36">
-        <v>0.8</v>
-      </c>
       <c r="AD36">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="AE36">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="AG36">
-        <v>14.5</v>
+        <v>10.9</v>
       </c>
       <c r="AH36">
-        <v>0.535</v>
+        <v>0.503</v>
       </c>
       <c r="AI36">
-        <v>0.533</v>
+        <v>0.5</v>
       </c>
       <c r="AJ36">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK36">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="AL36">
-        <v>0.839</v>
+        <v>0.74</v>
       </c>
       <c r="AM36">
+        <v>4.4</v>
+      </c>
+      <c r="AN36">
+        <v>7.4</v>
+      </c>
+      <c r="AO36">
+        <v>11.8</v>
+      </c>
+      <c r="AP36">
         <v>1.1</v>
       </c>
-      <c r="AN36">
-        <v>1.7</v>
-      </c>
-      <c r="AO36">
-        <v>2.8</v>
-      </c>
-      <c r="AP36">
-        <v>2.3</v>
-      </c>
       <c r="AQ36">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AR36">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="AS36">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AT36">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="AU36">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AV36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AW36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AX36" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY36">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F37">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G37">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I37">
-        <v>0.388</v>
+        <v>0.526</v>
       </c>
       <c r="J37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K37">
-        <v>11500</v>
+        <v>10868</v>
       </c>
       <c r="L37">
-        <v>1993</v>
+        <v>2090</v>
       </c>
       <c r="M37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N37">
-        <v>11500</v>
+        <v>10868</v>
       </c>
       <c r="O37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q37">
         <v>1959</v>
       </c>
       <c r="R37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="S37">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T37">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V37" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="W37">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="X37">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Y37">
-        <v>29.2</v>
+        <v>31.7</v>
       </c>
       <c r="Z37">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="AA37">
-        <v>17.5</v>
+        <v>13.6</v>
       </c>
       <c r="AB37">
-        <v>0.497</v>
+        <v>0.534</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="AE37">
-        <v>0.413</v>
+        <v>0.107</v>
       </c>
       <c r="AF37">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AG37">
-        <v>15</v>
+        <v>13.3</v>
       </c>
       <c r="AH37">
-        <v>0.51</v>
+        <v>0.545</v>
       </c>
       <c r="AI37">
-        <v>0.526</v>
+        <v>0.535</v>
       </c>
       <c r="AJ37">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="AK37">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="AL37">
-        <v>0.868</v>
+        <v>0.88</v>
       </c>
       <c r="AM37">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AN37">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="AO37">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="AP37">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AS37">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AT37">
         <v>2.8</v>
       </c>
       <c r="AU37">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="AV37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AW37" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX37" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY37">
-        <v>1989</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F38">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G38">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="H38">
+        <v>78</v>
+      </c>
+      <c r="I38">
+        <v>0.41</v>
+      </c>
+      <c r="J38" t="s">
+        <v>149</v>
+      </c>
+      <c r="K38">
+        <v>10203</v>
+      </c>
+      <c r="L38">
+        <v>1556</v>
+      </c>
+      <c r="M38" t="s">
+        <v>186</v>
+      </c>
+      <c r="N38">
+        <v>10203</v>
+      </c>
+      <c r="O38" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q38">
+        <v>1952</v>
+      </c>
+      <c r="R38" t="s">
+        <v>190</v>
+      </c>
+      <c r="S38">
+        <v>34</v>
+      </c>
+      <c r="T38">
+        <v>9</v>
+      </c>
+      <c r="U38" t="s">
+        <v>195</v>
+      </c>
+      <c r="V38" t="s">
+        <v>148</v>
+      </c>
+      <c r="W38">
         <v>80</v>
       </c>
-      <c r="I38">
-        <v>0.838</v>
-      </c>
-      <c r="J38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K38">
-        <v>11294</v>
-      </c>
-      <c r="L38">
-        <v>2337</v>
-      </c>
-      <c r="M38" t="s">
-        <v>187</v>
-      </c>
-      <c r="N38">
-        <v>11294</v>
-      </c>
-      <c r="O38" t="s">
-        <v>86</v>
-      </c>
-      <c r="P38" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q38">
-        <v>1964</v>
-      </c>
-      <c r="R38" t="s">
-        <v>196</v>
-      </c>
-      <c r="S38">
-        <v>24</v>
-      </c>
-      <c r="T38">
+      <c r="X38">
         <v>2</v>
       </c>
-      <c r="U38" t="s">
-        <v>199</v>
-      </c>
-      <c r="V38" t="s">
-        <v>137</v>
-      </c>
-      <c r="W38">
-        <v>81</v>
-      </c>
-      <c r="X38">
-        <v>9</v>
-      </c>
       <c r="Y38">
-        <v>28.5</v>
+        <v>19.3</v>
       </c>
       <c r="Z38">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="AA38">
-        <v>11</v>
+        <v>5.1</v>
       </c>
       <c r="AB38">
-        <v>0.5</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AC38">
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="AG38">
-        <v>10.9</v>
+        <v>5.1</v>
       </c>
       <c r="AH38">
-        <v>0.503</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AI38">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AJ38">
+        <v>1.8</v>
+      </c>
+      <c r="AK38">
+        <v>2.5</v>
+      </c>
+      <c r="AL38">
+        <v>0.713</v>
+      </c>
+      <c r="AM38">
+        <v>1.7</v>
+      </c>
+      <c r="AN38">
+        <v>5.1</v>
+      </c>
+      <c r="AO38">
+        <v>6.8</v>
+      </c>
+      <c r="AP38">
+        <v>2.1</v>
+      </c>
+      <c r="AQ38">
         <v>0.5</v>
       </c>
-      <c r="AJ38">
-        <v>2.5</v>
-      </c>
-      <c r="AK38">
-        <v>3.4</v>
-      </c>
-      <c r="AL38">
-        <v>0.74</v>
-      </c>
-      <c r="AM38">
-        <v>4.4</v>
-      </c>
-      <c r="AN38">
-        <v>7.4</v>
-      </c>
-      <c r="AO38">
-        <v>11.8</v>
-      </c>
-      <c r="AP38">
-        <v>1.1</v>
-      </c>
-      <c r="AQ38">
+      <c r="AR38">
         <v>1.3</v>
       </c>
-      <c r="AR38">
-        <v>1.1</v>
-      </c>
       <c r="AS38">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AT38">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="AU38">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AW38" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AX38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY38">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39">
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F39">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G39">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H39">
         <v>78</v>
       </c>
       <c r="I39">
-        <v>0.526</v>
+        <v>0.731</v>
       </c>
       <c r="J39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K39">
-        <v>10868</v>
+        <v>10006</v>
       </c>
       <c r="L39">
-        <v>2090</v>
+        <v>1938</v>
       </c>
       <c r="M39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N39">
-        <v>10868</v>
+        <v>10006</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q39">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="R39" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S39">
         <v>28</v>
@@ -6938,10 +6923,10 @@
         <v>5</v>
       </c>
       <c r="U39" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W39">
         <v>79</v>
@@ -6950,171 +6935,171 @@
         <v>31</v>
       </c>
       <c r="Y39">
-        <v>31.7</v>
+        <v>33.6</v>
       </c>
       <c r="Z39">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AA39">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="AB39">
-        <v>0.534</v>
+        <v>0.57</v>
       </c>
       <c r="AC39">
         <v>0</v>
       </c>
       <c r="AD39">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AE39">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AG39">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="AH39">
-        <v>0.545</v>
+        <v>0.573</v>
       </c>
       <c r="AI39">
-        <v>0.535</v>
+        <v>0.57</v>
       </c>
       <c r="AJ39">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AK39">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AL39">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="AM39">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="AN39">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="AO39">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="AP39">
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AR39">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT39">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AU39">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="AV39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AW39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY39">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F40">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G40">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H40">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I40">
-        <v>0.41</v>
+        <v>0.776</v>
       </c>
       <c r="J40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K40">
-        <v>10203</v>
+        <v>9655</v>
       </c>
       <c r="L40">
-        <v>1556</v>
+        <v>1938</v>
       </c>
       <c r="M40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N40">
-        <v>10203</v>
+        <v>9655</v>
       </c>
       <c r="O40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q40">
-        <v>1952</v>
+        <v>1957</v>
       </c>
       <c r="R40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S40">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="T40">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="W40">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Y40">
-        <v>19.3</v>
+        <v>31.4</v>
       </c>
       <c r="Z40">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="AA40">
-        <v>5.1</v>
+        <v>12.9</v>
       </c>
       <c r="AB40">
-        <v>0.5620000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -7123,519 +7108,209 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="AF40">
-        <v>2.9</v>
+        <v>7.1</v>
       </c>
       <c r="AG40">
-        <v>5.1</v>
+        <v>12.8</v>
       </c>
       <c r="AH40">
-        <v>0.5620000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AI40">
-        <v>0.5620000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AJ40">
+        <v>4.1</v>
+      </c>
+      <c r="AK40">
+        <v>5.4</v>
+      </c>
+      <c r="AL40">
+        <v>0.765</v>
+      </c>
+      <c r="AM40">
+        <v>2.5</v>
+      </c>
+      <c r="AN40">
+        <v>4.9</v>
+      </c>
+      <c r="AO40">
+        <v>7.4</v>
+      </c>
+      <c r="AP40">
+        <v>1.3</v>
+      </c>
+      <c r="AQ40">
+        <v>0.3</v>
+      </c>
+      <c r="AR40">
+        <v>1.5</v>
+      </c>
+      <c r="AS40">
         <v>1.8</v>
       </c>
-      <c r="AK40">
-        <v>2.5</v>
-      </c>
-      <c r="AL40">
-        <v>0.713</v>
-      </c>
-      <c r="AM40">
-        <v>1.7</v>
-      </c>
-      <c r="AN40">
-        <v>5.1</v>
-      </c>
-      <c r="AO40">
-        <v>6.8</v>
-      </c>
-      <c r="AP40">
-        <v>2.1</v>
-      </c>
-      <c r="AQ40">
-        <v>0.5</v>
-      </c>
-      <c r="AR40">
-        <v>1.3</v>
-      </c>
-      <c r="AS40">
-        <v>1.9</v>
-      </c>
       <c r="AT40">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AU40">
-        <v>7.6</v>
+        <v>18.4</v>
       </c>
       <c r="AV40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AW40" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX40" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY40">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41">
-        <v>57</v>
-      </c>
-      <c r="G41">
-        <v>57</v>
-      </c>
-      <c r="H41">
-        <v>78</v>
-      </c>
-      <c r="I41">
-        <v>0.731</v>
+        <v>141</v>
       </c>
       <c r="J41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K41">
-        <v>10006</v>
+        <v>9119</v>
       </c>
       <c r="L41">
-        <v>1938</v>
+        <v>1559</v>
       </c>
       <c r="M41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N41">
-        <v>10006</v>
+        <v>9119</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q41">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="R41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S41">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V41" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="W41">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="X41">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>33.6</v>
+        <v>23.6</v>
       </c>
       <c r="Z41">
-        <v>7.7</v>
+        <v>3.4</v>
       </c>
       <c r="AA41">
-        <v>13.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB41">
-        <v>0.57</v>
+        <v>0.543</v>
       </c>
       <c r="AC41">
         <v>0</v>
       </c>
       <c r="AD41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE41">
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>7.7</v>
+        <v>3.4</v>
       </c>
       <c r="AG41">
-        <v>13.4</v>
+        <v>6.2</v>
       </c>
       <c r="AH41">
-        <v>0.573</v>
+        <v>0.545</v>
       </c>
       <c r="AI41">
-        <v>0.57</v>
+        <v>0.543</v>
       </c>
       <c r="AJ41">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="AK41">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="AL41">
-        <v>0.76</v>
+        <v>0.793</v>
       </c>
       <c r="AM41">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="AN41">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="AO41">
+        <v>4.6</v>
+      </c>
+      <c r="AP41">
+        <v>1.9</v>
+      </c>
+      <c r="AQ41">
+        <v>1.1</v>
+      </c>
+      <c r="AR41">
+        <v>1.2</v>
+      </c>
+      <c r="AS41">
+        <v>1.5</v>
+      </c>
+      <c r="AT41">
+        <v>2.7</v>
+      </c>
+      <c r="AU41">
         <v>9</v>
       </c>
-      <c r="AP41">
-        <v>1.8</v>
-      </c>
-      <c r="AQ41">
-        <v>0.4</v>
-      </c>
-      <c r="AR41">
-        <v>1.5</v>
-      </c>
-      <c r="AS41">
-        <v>2</v>
-      </c>
-      <c r="AT41">
-        <v>3</v>
-      </c>
-      <c r="AU41">
-        <v>19.8</v>
-      </c>
       <c r="AV41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AW41" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AX41" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY41">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="42" spans="1:51">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42">
-        <v>59</v>
-      </c>
-      <c r="G42">
-        <v>59</v>
-      </c>
-      <c r="H42">
-        <v>76</v>
-      </c>
-      <c r="I42">
-        <v>0.776</v>
-      </c>
-      <c r="J42" t="s">
-        <v>151</v>
-      </c>
-      <c r="K42">
-        <v>9655</v>
-      </c>
-      <c r="L42">
-        <v>1938</v>
-      </c>
-      <c r="M42" t="s">
-        <v>191</v>
-      </c>
-      <c r="N42">
-        <v>9655</v>
-      </c>
-      <c r="O42" t="s">
-        <v>90</v>
-      </c>
-      <c r="P42" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q42">
-        <v>1957</v>
-      </c>
-      <c r="R42" t="s">
-        <v>196</v>
-      </c>
-      <c r="S42">
-        <v>27</v>
-      </c>
-      <c r="T42">
-        <v>4</v>
-      </c>
-      <c r="U42" t="s">
-        <v>199</v>
-      </c>
-      <c r="V42" t="s">
-        <v>150</v>
-      </c>
-      <c r="W42">
-        <v>82</v>
-      </c>
-      <c r="X42">
-        <v>10</v>
-      </c>
-      <c r="Y42">
-        <v>31.4</v>
-      </c>
-      <c r="Z42">
-        <v>7.2</v>
-      </c>
-      <c r="AA42">
-        <v>12.9</v>
-      </c>
-      <c r="AB42">
-        <v>0.556</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0.333</v>
-      </c>
-      <c r="AF42">
-        <v>7.1</v>
-      </c>
-      <c r="AG42">
-        <v>12.8</v>
-      </c>
-      <c r="AH42">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="AI42">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="AJ42">
-        <v>4.1</v>
-      </c>
-      <c r="AK42">
-        <v>5.4</v>
-      </c>
-      <c r="AL42">
-        <v>0.765</v>
-      </c>
-      <c r="AM42">
-        <v>2.5</v>
-      </c>
-      <c r="AN42">
-        <v>4.9</v>
-      </c>
-      <c r="AO42">
-        <v>7.4</v>
-      </c>
-      <c r="AP42">
-        <v>1.3</v>
-      </c>
-      <c r="AQ42">
-        <v>0.3</v>
-      </c>
-      <c r="AR42">
-        <v>1.5</v>
-      </c>
-      <c r="AS42">
-        <v>1.8</v>
-      </c>
-      <c r="AT42">
-        <v>3</v>
-      </c>
-      <c r="AU42">
-        <v>18.4</v>
-      </c>
-      <c r="AV42" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW42" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX42" t="s">
-        <v>201</v>
-      </c>
-      <c r="AY42">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="43" spans="1:51">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43">
-        <v>31</v>
-      </c>
-      <c r="E43" t="s">
-        <v>144</v>
-      </c>
-      <c r="J43" t="s">
-        <v>151</v>
-      </c>
-      <c r="K43">
-        <v>9119</v>
-      </c>
-      <c r="L43">
-        <v>1559</v>
-      </c>
-      <c r="M43" t="s">
-        <v>192</v>
-      </c>
-      <c r="N43">
-        <v>9119</v>
-      </c>
-      <c r="O43" t="s">
-        <v>91</v>
-      </c>
-      <c r="P43" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q43">
-        <v>1951</v>
-      </c>
-      <c r="R43" t="s">
-        <v>196</v>
-      </c>
-      <c r="S43">
-        <v>32</v>
-      </c>
-      <c r="T43">
-        <v>9</v>
-      </c>
-      <c r="U43" t="s">
-        <v>199</v>
-      </c>
-      <c r="V43" t="s">
-        <v>144</v>
-      </c>
-      <c r="W43">
-        <v>74</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>23.6</v>
-      </c>
-      <c r="Z43">
-        <v>3.4</v>
-      </c>
-      <c r="AA43">
-        <v>6.2</v>
-      </c>
-      <c r="AB43">
-        <v>0.543</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>3.4</v>
-      </c>
-      <c r="AG43">
-        <v>6.2</v>
-      </c>
-      <c r="AH43">
-        <v>0.545</v>
-      </c>
-      <c r="AI43">
-        <v>0.543</v>
-      </c>
-      <c r="AJ43">
-        <v>2.2</v>
-      </c>
-      <c r="AK43">
-        <v>2.8</v>
-      </c>
-      <c r="AL43">
-        <v>0.793</v>
-      </c>
-      <c r="AM43">
-        <v>1.4</v>
-      </c>
-      <c r="AN43">
-        <v>3.3</v>
-      </c>
-      <c r="AO43">
-        <v>4.6</v>
-      </c>
-      <c r="AP43">
-        <v>1.9</v>
-      </c>
-      <c r="AQ43">
-        <v>1.1</v>
-      </c>
-      <c r="AR43">
-        <v>1.2</v>
-      </c>
-      <c r="AS43">
-        <v>1.5</v>
-      </c>
-      <c r="AT43">
-        <v>2.7</v>
-      </c>
-      <c r="AU43">
-        <v>9</v>
-      </c>
-      <c r="AV43" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW43" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX43" t="s">
-        <v>201</v>
-      </c>
-      <c r="AY43">
         <v>1983</v>
       </c>
     </row>

--- a/smoy_winners.xlsx
+++ b/smoy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="204">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -172,6 +172,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2022</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t>2008</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>2006</t>
   </si>
   <si>
@@ -295,6 +301,9 @@
     <t>Naz Reid</t>
   </si>
   <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
     <t>Tyler Herro</t>
   </si>
   <si>
@@ -328,6 +337,9 @@
     <t>Manu Ginóbili</t>
   </si>
   <si>
+    <t>Leandro Barbosa</t>
+  </si>
+  <si>
     <t>Mike Miller</t>
   </si>
   <si>
@@ -394,6 +406,9 @@
     <t>MIN</t>
   </si>
   <si>
+    <t>BOS</t>
+  </si>
+  <si>
     <t>MIA</t>
   </si>
   <si>
@@ -427,6 +442,9 @@
     <t>SAS</t>
   </si>
   <si>
+    <t>PHO</t>
+  </si>
+  <si>
     <t>MEM</t>
   </si>
   <si>
@@ -442,9 +460,6 @@
     <t>PHI</t>
   </si>
   <si>
-    <t>PHO</t>
-  </si>
-  <si>
     <t>ORL</t>
   </si>
   <si>
@@ -460,15 +475,15 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>BOS</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
     <t>2023-24</t>
   </si>
   <si>
+    <t>2022-23</t>
+  </si>
+  <si>
     <t>2021-22</t>
   </si>
   <si>
@@ -514,6 +529,9 @@
     <t>2007-08</t>
   </si>
   <si>
+    <t>2006-07</t>
+  </si>
+  <si>
     <t>2005-06</t>
   </si>
   <si>
@@ -589,6 +607,9 @@
     <t>C</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
@@ -596,9 +617,6 @@
   </si>
   <si>
     <t>SF</t>
-  </si>
-  <si>
-    <t>PG</t>
   </si>
   <si>
     <t>NBA</t>
@@ -965,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY41"/>
+  <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1131,16 +1149,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F2">
         <v>45</v>
@@ -1155,7 +1173,7 @@
         <v>0.711</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K2">
         <v>31663</v>
@@ -1164,7 +1182,7 @@
         <v>4771</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N2">
         <v>31663</v>
@@ -1173,13 +1191,13 @@
         <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>1999</v>
       </c>
       <c r="R2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="S2">
         <v>25</v>
@@ -1188,10 +1206,10 @@
         <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="W2">
         <v>81</v>
@@ -1269,13 +1287,13 @@
         <v>13.5</v>
       </c>
       <c r="AV2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AW2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1286,154 +1304,154 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>488</v>
+        <v>408</v>
       </c>
       <c r="H3">
         <v>500</v>
       </c>
       <c r="I3">
-        <v>0.976</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K3">
-        <v>30411</v>
+        <v>30890</v>
       </c>
       <c r="L3">
-        <v>4796</v>
+        <v>4424</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N3">
-        <v>30411</v>
+        <v>30890</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q3">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="R3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="S3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>32.6</v>
+        <v>26</v>
       </c>
       <c r="Z3">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="AA3">
-        <v>17</v>
+        <v>10.9</v>
       </c>
       <c r="AB3">
-        <v>0.447</v>
+        <v>0.484</v>
       </c>
       <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>4.4</v>
+      </c>
+      <c r="AE3">
+        <v>0.444</v>
+      </c>
+      <c r="AF3">
+        <v>3.3</v>
+      </c>
+      <c r="AG3">
+        <v>6.5</v>
+      </c>
+      <c r="AH3">
+        <v>0.51</v>
+      </c>
+      <c r="AI3">
+        <v>0.574</v>
+      </c>
+      <c r="AJ3">
+        <v>2.4</v>
+      </c>
+      <c r="AK3">
         <v>2.7</v>
       </c>
-      <c r="AD3">
-        <v>6.7</v>
-      </c>
-      <c r="AE3">
-        <v>0.399</v>
-      </c>
-      <c r="AF3">
-        <v>4.9</v>
-      </c>
-      <c r="AG3">
-        <v>10.3</v>
-      </c>
-      <c r="AH3">
-        <v>0.477</v>
-      </c>
-      <c r="AI3">
-        <v>0.525</v>
-      </c>
-      <c r="AJ3">
-        <v>2.9</v>
-      </c>
-      <c r="AK3">
-        <v>3.3</v>
-      </c>
       <c r="AL3">
-        <v>0.868</v>
+        <v>0.87</v>
       </c>
       <c r="AM3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN3">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="AP3">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AQ3">
         <v>0.7</v>
       </c>
       <c r="AR3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AS3">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AU3">
-        <v>20.7</v>
+        <v>14.9</v>
       </c>
       <c r="AV3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AW3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -1441,154 +1459,154 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F4">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G4">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="H4">
         <v>500</v>
       </c>
       <c r="I4">
-        <v>0.8139999999999999</v>
+        <v>0.976</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K4">
-        <v>29298</v>
+        <v>30411</v>
       </c>
       <c r="L4">
-        <v>4265</v>
+        <v>4796</v>
       </c>
       <c r="M4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N4">
-        <v>29298</v>
+        <v>30411</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="R4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="W4">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>26.7</v>
+        <v>32.6</v>
       </c>
       <c r="Z4">
+        <v>7.6</v>
+      </c>
+      <c r="AA4">
+        <v>17</v>
+      </c>
+      <c r="AB4">
+        <v>0.447</v>
+      </c>
+      <c r="AC4">
+        <v>2.7</v>
+      </c>
+      <c r="AD4">
         <v>6.7</v>
       </c>
-      <c r="AA4">
-        <v>15.8</v>
-      </c>
-      <c r="AB4">
-        <v>0.425</v>
-      </c>
-      <c r="AC4">
-        <v>3.1</v>
-      </c>
-      <c r="AD4">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AE4">
-        <v>0.347</v>
+        <v>0.399</v>
       </c>
       <c r="AF4">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="AG4">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="AH4">
-        <v>0.523</v>
+        <v>0.477</v>
       </c>
       <c r="AI4">
-        <v>0.522</v>
+        <v>0.525</v>
       </c>
       <c r="AJ4">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="AK4">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="AL4">
-        <v>0.896</v>
+        <v>0.868</v>
       </c>
       <c r="AM4">
+        <v>0.5</v>
+      </c>
+      <c r="AN4">
+        <v>4.5</v>
+      </c>
+      <c r="AO4">
+        <v>5</v>
+      </c>
+      <c r="AP4">
+        <v>4</v>
+      </c>
+      <c r="AQ4">
         <v>0.7</v>
-      </c>
-      <c r="AN4">
-        <v>3.3</v>
-      </c>
-      <c r="AO4">
-        <v>4</v>
-      </c>
-      <c r="AP4">
-        <v>2.5</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9</v>
       </c>
       <c r="AR4">
         <v>0.1</v>
       </c>
       <c r="AS4">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AT4">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AU4">
-        <v>18.4</v>
+        <v>20.7</v>
       </c>
       <c r="AV4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AW4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:51">
@@ -1596,154 +1614,154 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F5">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G5">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H5">
         <v>500</v>
       </c>
       <c r="I5">
-        <v>0.794</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K5">
-        <v>28762</v>
+        <v>29298</v>
       </c>
       <c r="L5">
-        <v>4349</v>
+        <v>4265</v>
       </c>
       <c r="M5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N5">
-        <v>28762</v>
+        <v>29298</v>
       </c>
       <c r="O5" t="s">
         <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="S5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W5">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>27.8</v>
+        <v>26.7</v>
       </c>
       <c r="Z5">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA5">
-        <v>12.9</v>
+        <v>15.8</v>
       </c>
       <c r="AB5">
-        <v>0.58</v>
+        <v>0.425</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD5">
-        <v>0.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="AF5">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="AG5">
-        <v>12.6</v>
+        <v>7</v>
       </c>
       <c r="AH5">
-        <v>0.593</v>
+        <v>0.523</v>
       </c>
       <c r="AI5">
-        <v>0.58</v>
+        <v>0.522</v>
       </c>
       <c r="AJ5">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="AK5">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="AL5">
-        <v>0.658</v>
+        <v>0.896</v>
       </c>
       <c r="AM5">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="AN5">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AO5">
-        <v>7.1</v>
+        <v>4</v>
       </c>
       <c r="AP5">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR5">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="AS5">
         <v>1.7</v>
       </c>
       <c r="AT5">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AU5">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="AV5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AW5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:51">
@@ -1751,154 +1769,154 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F6">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G6">
-        <v>489</v>
+        <v>397</v>
       </c>
       <c r="H6">
         <v>500</v>
       </c>
       <c r="I6">
-        <v>0.978</v>
+        <v>0.794</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K6">
-        <v>28013</v>
+        <v>28762</v>
       </c>
       <c r="L6">
-        <v>3619</v>
+        <v>4349</v>
       </c>
       <c r="M6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N6">
-        <v>28013</v>
+        <v>28762</v>
       </c>
       <c r="O6" t="s">
         <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q6">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="R6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="S6">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="T6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="W6">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="Z6">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA6">
-        <v>15.2</v>
+        <v>12.9</v>
       </c>
       <c r="AB6">
-        <v>0.425</v>
+        <v>0.58</v>
       </c>
       <c r="AC6">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="AE6">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.1</v>
+        <v>7.5</v>
       </c>
       <c r="AG6">
-        <v>11.3</v>
+        <v>12.6</v>
       </c>
       <c r="AH6">
-        <v>0.447</v>
+        <v>0.593</v>
       </c>
       <c r="AI6">
-        <v>0.471</v>
+        <v>0.58</v>
       </c>
       <c r="AJ6">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="AK6">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AL6">
-        <v>0.876</v>
+        <v>0.658</v>
       </c>
       <c r="AM6">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="AN6">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO6">
-        <v>3</v>
+        <v>7.1</v>
       </c>
       <c r="AP6">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AR6">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="AS6">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AT6">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="AU6">
-        <v>20</v>
+        <v>18.6</v>
       </c>
       <c r="AV6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AW6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1906,154 +1924,154 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7">
         <v>96</v>
       </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7">
-        <v>97</v>
-      </c>
       <c r="G7">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H7">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I7">
-        <v>0.98</v>
+        <v>0.978</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K7">
-        <v>27326</v>
+        <v>28013</v>
       </c>
       <c r="L7">
         <v>3619</v>
       </c>
       <c r="M7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N7">
-        <v>27326</v>
+        <v>28013</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q7">
         <v>1986</v>
       </c>
       <c r="R7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="W7">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>32.8</v>
+        <v>26.6</v>
       </c>
       <c r="Z7">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA7">
-        <v>16.9</v>
+        <v>15.2</v>
       </c>
       <c r="AB7">
-        <v>0.435</v>
+        <v>0.425</v>
       </c>
       <c r="AC7">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="AD7">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="AE7">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="AF7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AG7">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
       <c r="AH7">
-        <v>0.484</v>
+        <v>0.447</v>
       </c>
       <c r="AI7">
-        <v>0.505</v>
+        <v>0.471</v>
       </c>
       <c r="AJ7">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AK7">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AL7">
-        <v>0.88</v>
+        <v>0.876</v>
       </c>
       <c r="AM7">
         <v>0.5</v>
       </c>
       <c r="AN7">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AO7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP7">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AQ7">
+        <v>0.8</v>
+      </c>
+      <c r="AR7">
+        <v>0.1</v>
+      </c>
+      <c r="AS7">
+        <v>2.4</v>
+      </c>
+      <c r="AT7">
         <v>1.1</v>
       </c>
-      <c r="AR7">
-        <v>0.2</v>
-      </c>
-      <c r="AS7">
-        <v>3</v>
-      </c>
-      <c r="AT7">
-        <v>1.3</v>
-      </c>
       <c r="AU7">
-        <v>22.6</v>
+        <v>20</v>
       </c>
       <c r="AV7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AW7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -2061,154 +2079,154 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8">
         <v>97</v>
       </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8">
-        <v>46</v>
-      </c>
       <c r="G8">
-        <v>358</v>
+        <v>495</v>
       </c>
       <c r="H8">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I8">
-        <v>0.716</v>
+        <v>0.98</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K8">
-        <v>26508</v>
+        <v>27326</v>
       </c>
       <c r="L8">
-        <v>3815</v>
+        <v>3619</v>
       </c>
       <c r="M8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N8">
-        <v>26508</v>
+        <v>27326</v>
       </c>
       <c r="O8" t="s">
         <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q8">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="R8" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="W8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y8">
-        <v>31</v>
+        <v>32.8</v>
       </c>
       <c r="Z8">
+        <v>7.4</v>
+      </c>
+      <c r="AA8">
+        <v>16.9</v>
+      </c>
+      <c r="AB8">
+        <v>0.435</v>
+      </c>
+      <c r="AC8">
+        <v>2.4</v>
+      </c>
+      <c r="AD8">
+        <v>6.6</v>
+      </c>
+      <c r="AE8">
+        <v>0.359</v>
+      </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <v>10.4</v>
+      </c>
+      <c r="AH8">
+        <v>0.484</v>
+      </c>
+      <c r="AI8">
+        <v>0.505</v>
+      </c>
+      <c r="AJ8">
         <v>5.5</v>
       </c>
-      <c r="AA8">
-        <v>13.5</v>
-      </c>
-      <c r="AB8">
-        <v>0.406</v>
-      </c>
-      <c r="AC8">
-        <v>3.3</v>
-      </c>
-      <c r="AD8">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AE8">
-        <v>0.372</v>
-      </c>
-      <c r="AF8">
-        <v>2.2</v>
-      </c>
-      <c r="AG8">
-        <v>4.7</v>
-      </c>
-      <c r="AH8">
-        <v>0.468</v>
-      </c>
-      <c r="AI8">
-        <v>0.527</v>
-      </c>
-      <c r="AJ8">
+      <c r="AK8">
+        <v>6.2</v>
+      </c>
+      <c r="AL8">
+        <v>0.88</v>
+      </c>
+      <c r="AM8">
+        <v>0.5</v>
+      </c>
+      <c r="AN8">
         <v>2</v>
       </c>
-      <c r="AK8">
-        <v>2.3</v>
-      </c>
-      <c r="AL8">
-        <v>0.84</v>
-      </c>
-      <c r="AM8">
-        <v>0.4</v>
-      </c>
-      <c r="AN8">
-        <v>2.3</v>
-      </c>
       <c r="AO8">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="AQ8">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AR8">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AS8">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AT8">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AU8">
-        <v>16.2</v>
+        <v>22.6</v>
       </c>
       <c r="AV8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AW8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -2216,154 +2234,154 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F9">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H9">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="I9">
-        <v>0.525</v>
+        <v>0.716</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K9">
-        <v>25966</v>
+        <v>26508</v>
       </c>
       <c r="L9">
-        <v>3258</v>
+        <v>3815</v>
       </c>
       <c r="M9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N9">
-        <v>25966</v>
+        <v>26508</v>
       </c>
       <c r="O9" t="s">
         <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q9">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="R9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="T9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="W9">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Y9">
-        <v>26.9</v>
+        <v>31</v>
       </c>
       <c r="Z9">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AA9">
-        <v>11.9</v>
+        <v>13.5</v>
       </c>
       <c r="AB9">
-        <v>0.404</v>
+        <v>0.406</v>
       </c>
       <c r="AC9">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="AD9">
-        <v>4.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE9">
-        <v>0.34</v>
+        <v>0.372</v>
       </c>
       <c r="AF9">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="AG9">
-        <v>7.5</v>
+        <v>4.7</v>
       </c>
       <c r="AH9">
-        <v>0.44</v>
+        <v>0.468</v>
       </c>
       <c r="AI9">
-        <v>0.466</v>
+        <v>0.527</v>
       </c>
       <c r="AJ9">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="AK9">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AL9">
-        <v>0.904</v>
+        <v>0.84</v>
       </c>
       <c r="AM9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN9">
+        <v>2.3</v>
+      </c>
+      <c r="AO9">
+        <v>2.7</v>
+      </c>
+      <c r="AP9">
+        <v>2.5</v>
+      </c>
+      <c r="AQ9">
+        <v>0.6</v>
+      </c>
+      <c r="AR9">
+        <v>0.5</v>
+      </c>
+      <c r="AS9">
         <v>1.6</v>
       </c>
-      <c r="AO9">
-        <v>1.8</v>
-      </c>
-      <c r="AP9">
-        <v>2.3</v>
-      </c>
-      <c r="AQ9">
-        <v>0.7</v>
-      </c>
-      <c r="AR9">
-        <v>0.2</v>
-      </c>
-      <c r="AS9">
-        <v>1.4</v>
-      </c>
       <c r="AT9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU9">
-        <v>14.2</v>
+        <v>16.2</v>
       </c>
       <c r="AV9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AW9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -2371,115 +2389,115 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F10">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="G10">
-        <v>502</v>
+        <v>341</v>
       </c>
       <c r="H10">
         <v>650</v>
       </c>
       <c r="I10">
-        <v>0.772</v>
+        <v>0.525</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K10">
-        <v>25497</v>
+        <v>25966</v>
       </c>
       <c r="L10">
-        <v>3619</v>
+        <v>3258</v>
       </c>
       <c r="M10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N10">
-        <v>25497</v>
+        <v>25966</v>
       </c>
       <c r="O10" t="s">
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q10">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="R10" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="T10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="W10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y10">
-        <v>25.2</v>
+        <v>26.9</v>
       </c>
       <c r="Z10">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AA10">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="AB10">
         <v>0.404</v>
       </c>
       <c r="AC10">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD10">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="AE10">
         <v>0.34</v>
       </c>
       <c r="AF10">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AG10">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AH10">
-        <v>0.464</v>
+        <v>0.44</v>
       </c>
       <c r="AI10">
-        <v>0.486</v>
+        <v>0.466</v>
       </c>
       <c r="AJ10">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="AK10">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="AL10">
-        <v>0.861</v>
+        <v>0.904</v>
       </c>
       <c r="AM10">
         <v>0.3</v>
@@ -2488,37 +2506,37 @@
         <v>1.6</v>
       </c>
       <c r="AO10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AP10">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AQ10">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AR10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AS10">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
-        <v>15.5</v>
+        <v>14.2</v>
       </c>
       <c r="AV10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AW10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2526,154 +2544,154 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F11">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G11">
-        <v>421</v>
+        <v>502</v>
       </c>
       <c r="H11">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="I11">
-        <v>0.674</v>
+        <v>0.772</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K11">
-        <v>24728</v>
+        <v>25497</v>
       </c>
       <c r="L11">
-        <v>3258</v>
+        <v>3619</v>
       </c>
       <c r="M11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N11">
-        <v>24728</v>
+        <v>25497</v>
       </c>
       <c r="O11" t="s">
         <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q11">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="R11" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="W11">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="X11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>30.3</v>
+        <v>25.2</v>
       </c>
       <c r="Z11">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="AA11">
-        <v>14.7</v>
+        <v>11.6</v>
       </c>
       <c r="AB11">
-        <v>0.416</v>
+        <v>0.404</v>
       </c>
       <c r="AC11">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD11">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE11">
-        <v>0.361</v>
+        <v>0.34</v>
       </c>
       <c r="AF11">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="AG11">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="AH11">
-        <v>0.46</v>
+        <v>0.464</v>
       </c>
       <c r="AI11">
-        <v>0.496</v>
+        <v>0.486</v>
       </c>
       <c r="AJ11">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AK11">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AL11">
-        <v>0.866</v>
+        <v>0.861</v>
       </c>
       <c r="AM11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN11">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AO11">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AP11">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ11">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AR11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AT11">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AU11">
-        <v>18.6</v>
+        <v>15.5</v>
       </c>
       <c r="AV11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AW11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY11">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2681,154 +2699,154 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F12">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G12">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="H12">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="I12">
-        <v>0.8</v>
+        <v>0.674</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K12">
-        <v>24140</v>
+        <v>24728</v>
       </c>
       <c r="L12">
-        <v>3527</v>
+        <v>3258</v>
       </c>
       <c r="M12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N12">
-        <v>24140</v>
+        <v>24728</v>
       </c>
       <c r="O12" t="s">
         <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q12">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="R12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S12">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="T12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="U12" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W12">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y12">
-        <v>33.5</v>
+        <v>30.3</v>
       </c>
       <c r="Z12">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AA12">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="AB12">
-        <v>0.422</v>
+        <v>0.416</v>
       </c>
       <c r="AC12">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AD12">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE12">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="AF12">
+        <v>3.8</v>
+      </c>
+      <c r="AG12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH12">
+        <v>0.46</v>
+      </c>
+      <c r="AI12">
+        <v>0.496</v>
+      </c>
+      <c r="AJ12">
+        <v>4</v>
+      </c>
+      <c r="AK12">
         <v>4.7</v>
       </c>
-      <c r="AG12">
-        <v>10.2</v>
-      </c>
-      <c r="AH12">
-        <v>0.458</v>
-      </c>
-      <c r="AI12">
-        <v>0.484</v>
-      </c>
-      <c r="AJ12">
-        <v>3</v>
-      </c>
-      <c r="AK12">
-        <v>3.9</v>
-      </c>
       <c r="AL12">
-        <v>0.762</v>
+        <v>0.866</v>
       </c>
       <c r="AM12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AN12">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO12">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="AP12">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AQ12">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AR12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AS12">
+        <v>2</v>
+      </c>
+      <c r="AT12">
         <v>1.7</v>
       </c>
-      <c r="AT12">
-        <v>2.8</v>
-      </c>
       <c r="AU12">
-        <v>18.1</v>
+        <v>18.6</v>
       </c>
       <c r="AV12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AW12" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX12" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2836,154 +2854,154 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F13">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="G13">
-        <v>584</v>
+        <v>484</v>
       </c>
       <c r="H13">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="I13">
-        <v>0.982</v>
+        <v>0.8</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K13">
-        <v>23594</v>
+        <v>24140</v>
       </c>
       <c r="L13">
-        <v>3880</v>
+        <v>3527</v>
       </c>
       <c r="M13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N13">
-        <v>23594</v>
+        <v>24140</v>
       </c>
       <c r="O13" t="s">
         <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q13">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="R13" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S13">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T13">
+        <v>9</v>
+      </c>
+      <c r="U13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V13" t="s">
+        <v>136</v>
+      </c>
+      <c r="W13">
+        <v>80</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>33.5</v>
+      </c>
+      <c r="Z13">
+        <v>6.6</v>
+      </c>
+      <c r="AA13">
+        <v>15.6</v>
+      </c>
+      <c r="AB13">
+        <v>0.422</v>
+      </c>
+      <c r="AC13">
+        <v>1.9</v>
+      </c>
+      <c r="AD13">
+        <v>5.5</v>
+      </c>
+      <c r="AE13">
+        <v>0.356</v>
+      </c>
+      <c r="AF13">
+        <v>4.7</v>
+      </c>
+      <c r="AG13">
+        <v>10.2</v>
+      </c>
+      <c r="AH13">
+        <v>0.458</v>
+      </c>
+      <c r="AI13">
+        <v>0.484</v>
+      </c>
+      <c r="AJ13">
         <v>3</v>
       </c>
-      <c r="U13" t="s">
-        <v>195</v>
-      </c>
-      <c r="V13" t="s">
-        <v>132</v>
-      </c>
-      <c r="W13">
-        <v>62</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>31.4</v>
-      </c>
-      <c r="Z13">
-        <v>5</v>
-      </c>
-      <c r="AA13">
-        <v>10.1</v>
-      </c>
-      <c r="AB13">
-        <v>0.491</v>
-      </c>
-      <c r="AC13">
-        <v>1.8</v>
-      </c>
-      <c r="AD13">
-        <v>4.7</v>
-      </c>
-      <c r="AE13">
-        <v>0.39</v>
-      </c>
-      <c r="AF13">
-        <v>3.1</v>
-      </c>
-      <c r="AG13">
-        <v>5.4</v>
-      </c>
-      <c r="AH13">
-        <v>0.579</v>
-      </c>
-      <c r="AI13">
-        <v>0.582</v>
-      </c>
-      <c r="AJ13">
-        <v>5</v>
-      </c>
       <c r="AK13">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="AL13">
-        <v>0.846</v>
+        <v>0.762</v>
       </c>
       <c r="AM13">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AN13">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO13">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="AP13">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AS13">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AT13">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AU13">
-        <v>16.8</v>
+        <v>18.1</v>
       </c>
       <c r="AV13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AW13" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX13" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY13">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2991,154 +3009,154 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F14">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="G14">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="H14">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="I14">
-        <v>0.877</v>
+        <v>0.982</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K14">
-        <v>23106</v>
+        <v>23594</v>
       </c>
       <c r="L14">
-        <v>3201</v>
+        <v>3880</v>
       </c>
       <c r="M14" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N14">
-        <v>23106</v>
+        <v>23594</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q14">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="R14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="S14">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="T14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U14" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W14">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="X14">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="Y14">
-        <v>32.2</v>
+        <v>31.4</v>
       </c>
       <c r="Z14">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="AA14">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
       <c r="AB14">
-        <v>0.53</v>
+        <v>0.491</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AD14">
+        <v>4.7</v>
+      </c>
+      <c r="AE14">
+        <v>0.39</v>
+      </c>
+      <c r="AF14">
+        <v>3.1</v>
+      </c>
+      <c r="AG14">
+        <v>5.4</v>
+      </c>
+      <c r="AH14">
+        <v>0.579</v>
+      </c>
+      <c r="AI14">
+        <v>0.582</v>
+      </c>
+      <c r="AJ14">
+        <v>5</v>
+      </c>
+      <c r="AK14">
+        <v>6</v>
+      </c>
+      <c r="AL14">
+        <v>0.846</v>
+      </c>
+      <c r="AM14">
+        <v>0.5</v>
+      </c>
+      <c r="AN14">
+        <v>3.6</v>
+      </c>
+      <c r="AO14">
+        <v>4.1</v>
+      </c>
+      <c r="AP14">
+        <v>3.7</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>0.2</v>
+      </c>
+      <c r="AS14">
         <v>2.2</v>
-      </c>
-      <c r="AE14">
-        <v>0.382</v>
-      </c>
-      <c r="AF14">
-        <v>4.9</v>
-      </c>
-      <c r="AG14">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AH14">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="AI14">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="AJ14">
-        <v>2</v>
-      </c>
-      <c r="AK14">
-        <v>3</v>
-      </c>
-      <c r="AL14">
-        <v>0.675</v>
-      </c>
-      <c r="AM14">
-        <v>2.1</v>
-      </c>
-      <c r="AN14">
-        <v>6.5</v>
-      </c>
-      <c r="AO14">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AP14">
-        <v>3</v>
-      </c>
-      <c r="AQ14">
-        <v>0.6</v>
-      </c>
-      <c r="AR14">
-        <v>0.7</v>
-      </c>
-      <c r="AS14">
-        <v>1.7</v>
       </c>
       <c r="AT14">
         <v>2.4</v>
       </c>
       <c r="AU14">
-        <v>14.4</v>
+        <v>16.8</v>
       </c>
       <c r="AV14" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AW14" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX14" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -3146,154 +3164,154 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F15">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G15">
-        <v>580</v>
+        <v>513</v>
       </c>
       <c r="H15">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="I15">
-        <v>0.951</v>
+        <v>0.877</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K15">
-        <v>22391</v>
+        <v>23106</v>
       </c>
       <c r="L15">
-        <v>3258</v>
+        <v>3201</v>
       </c>
       <c r="M15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N15">
-        <v>22391</v>
+        <v>23106</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q15">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R15" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="S15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U15" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="W15">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y15">
-        <v>31.1</v>
+        <v>32.2</v>
       </c>
       <c r="Z15">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="AA15">
-        <v>14</v>
+        <v>10.9</v>
       </c>
       <c r="AB15">
-        <v>0.449</v>
+        <v>0.53</v>
       </c>
       <c r="AC15">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD15">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="AE15">
         <v>0.382</v>
       </c>
       <c r="AF15">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="AG15">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH15">
-        <v>0.491</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="AI15">
-        <v>0.523</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AJ15">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="AK15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL15">
-        <v>0.857</v>
+        <v>0.675</v>
       </c>
       <c r="AM15">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="AN15">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="AO15">
-        <v>2.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AP15">
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AR15">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AS15">
         <v>1.7</v>
       </c>
       <c r="AT15">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="AU15">
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="AV15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AW15" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX15" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY15">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="16" spans="1:51">
@@ -3301,154 +3319,154 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F16">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G16">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H16">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="I16">
-        <v>0.952</v>
+        <v>0.951</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K16">
-        <v>21831</v>
+        <v>22391</v>
       </c>
       <c r="L16">
-        <v>3194</v>
+        <v>3258</v>
       </c>
       <c r="M16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N16">
-        <v>21831</v>
+        <v>22391</v>
       </c>
       <c r="O16" t="s">
         <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q16">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="R16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T16">
         <v>10</v>
       </c>
       <c r="U16" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="W16">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="X16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>33.7</v>
+        <v>31.1</v>
       </c>
       <c r="Z16">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="AA16">
-        <v>15.8</v>
+        <v>14</v>
       </c>
       <c r="AB16">
-        <v>0.463</v>
+        <v>0.449</v>
       </c>
       <c r="AC16">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AD16">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="AE16">
-        <v>0.366</v>
+        <v>0.382</v>
       </c>
       <c r="AF16">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="AG16">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AH16">
-        <v>0.525</v>
+        <v>0.491</v>
       </c>
       <c r="AI16">
-        <v>0.535</v>
+        <v>0.523</v>
       </c>
       <c r="AJ16">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="AK16">
+        <v>4</v>
+      </c>
+      <c r="AL16">
+        <v>0.857</v>
+      </c>
+      <c r="AM16">
+        <v>0.4</v>
+      </c>
+      <c r="AN16">
+        <v>2.1</v>
+      </c>
+      <c r="AO16">
+        <v>2.5</v>
+      </c>
+      <c r="AP16">
         <v>3</v>
       </c>
-      <c r="AL16">
-        <v>0.88</v>
-      </c>
-      <c r="AM16">
-        <v>0.5</v>
-      </c>
-      <c r="AN16">
-        <v>1.9</v>
-      </c>
-      <c r="AO16">
-        <v>2.4</v>
-      </c>
-      <c r="AP16">
-        <v>3.4</v>
-      </c>
       <c r="AQ16">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AS16">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AT16">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AU16">
-        <v>19.6</v>
+        <v>18</v>
       </c>
       <c r="AV16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AW16" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX16" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY16">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="17" spans="1:51">
@@ -3456,154 +3474,154 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F17">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G17">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="H17">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="I17">
-        <v>0.992</v>
+        <v>0.952</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K17">
-        <v>21344</v>
+        <v>21831</v>
       </c>
       <c r="L17">
-        <v>3401</v>
+        <v>3194</v>
       </c>
       <c r="M17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N17">
-        <v>21344</v>
+        <v>21831</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17">
         <v>1977</v>
       </c>
       <c r="R17" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U17" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="W17">
         <v>74</v>
       </c>
       <c r="X17">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Y17">
-        <v>31.1</v>
+        <v>33.7</v>
       </c>
       <c r="Z17">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA17">
-        <v>13.3</v>
+        <v>15.8</v>
       </c>
       <c r="AB17">
-        <v>0.46</v>
+        <v>0.463</v>
       </c>
       <c r="AC17">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD17">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE17">
-        <v>0.401</v>
+        <v>0.366</v>
       </c>
       <c r="AF17">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="AG17">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AH17">
-        <v>0.499</v>
+        <v>0.525</v>
       </c>
       <c r="AI17">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="AJ17">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="AK17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AL17">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AM17">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AN17">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="AO17">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="AP17">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AR17">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AS17">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="AT17">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AU17">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AV17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AW17" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX17" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY17">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -3611,154 +3629,154 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F18">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="G18">
-        <v>501</v>
+        <v>615</v>
       </c>
       <c r="H18">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="I18">
-        <v>0.8149999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K18">
-        <v>20282</v>
+        <v>21344</v>
       </c>
       <c r="L18">
-        <v>3276</v>
+        <v>3401</v>
       </c>
       <c r="M18" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N18">
-        <v>20282</v>
+        <v>21344</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q18">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="R18" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S18">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T18">
         <v>6</v>
       </c>
       <c r="U18" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="W18">
         <v>74</v>
       </c>
       <c r="X18">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Y18">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="Z18">
+        <v>6.1</v>
+      </c>
+      <c r="AA18">
+        <v>13.3</v>
+      </c>
+      <c r="AB18">
+        <v>0.46</v>
+      </c>
+      <c r="AC18">
+        <v>2.1</v>
+      </c>
+      <c r="AD18">
+        <v>5.3</v>
+      </c>
+      <c r="AE18">
+        <v>0.401</v>
+      </c>
+      <c r="AF18">
+        <v>4</v>
+      </c>
+      <c r="AG18">
+        <v>8</v>
+      </c>
+      <c r="AH18">
+        <v>0.499</v>
+      </c>
+      <c r="AI18">
+        <v>0.54</v>
+      </c>
+      <c r="AJ18">
+        <v>5.1</v>
+      </c>
+      <c r="AK18">
+        <v>6</v>
+      </c>
+      <c r="AL18">
+        <v>0.86</v>
+      </c>
+      <c r="AM18">
+        <v>0.9</v>
+      </c>
+      <c r="AN18">
+        <v>3.9</v>
+      </c>
+      <c r="AO18">
         <v>4.8</v>
       </c>
-      <c r="AA18">
-        <v>10.3</v>
-      </c>
-      <c r="AB18">
-        <v>0.466</v>
-      </c>
-      <c r="AC18">
-        <v>1.9</v>
-      </c>
-      <c r="AD18">
-        <v>4.6</v>
-      </c>
-      <c r="AE18">
-        <v>0.407</v>
-      </c>
-      <c r="AF18">
-        <v>2.9</v>
-      </c>
-      <c r="AG18">
-        <v>5.7</v>
-      </c>
-      <c r="AH18">
-        <v>0.513</v>
-      </c>
-      <c r="AI18">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="AJ18">
-        <v>2.3</v>
-      </c>
-      <c r="AK18">
-        <v>2.8</v>
-      </c>
-      <c r="AL18">
-        <v>0.8</v>
-      </c>
-      <c r="AM18">
-        <v>0.6</v>
-      </c>
-      <c r="AN18">
-        <v>4.8</v>
-      </c>
-      <c r="AO18">
-        <v>5.4</v>
-      </c>
       <c r="AP18">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AQ18">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0.4</v>
       </c>
       <c r="AS18">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="AT18">
         <v>2.3</v>
       </c>
       <c r="AU18">
-        <v>13.7</v>
+        <v>19.5</v>
       </c>
       <c r="AV18" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AW18" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX18" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY18">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="19" spans="1:51">
@@ -3766,154 +3784,154 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F19">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G19">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="H19">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="I19">
-        <v>0.821</v>
+        <v>0.91</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K19">
-        <v>19365</v>
+        <v>20760</v>
       </c>
       <c r="L19">
-        <v>3505</v>
+        <v>3462</v>
       </c>
       <c r="M19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N19">
-        <v>19365</v>
+        <v>20760</v>
       </c>
       <c r="O19" t="s">
         <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q19">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="R19" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U19" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="W19">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Y19">
-        <v>24.4</v>
+        <v>32.7</v>
       </c>
       <c r="Z19">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="AA19">
-        <v>12.9</v>
+        <v>13.9</v>
       </c>
       <c r="AB19">
-        <v>0.411</v>
+        <v>0.476</v>
       </c>
       <c r="AC19">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD19">
+        <v>5.5</v>
+      </c>
+      <c r="AE19">
+        <v>0.434</v>
+      </c>
+      <c r="AF19">
+        <v>4.2</v>
+      </c>
+      <c r="AG19">
+        <v>8.4</v>
+      </c>
+      <c r="AH19">
+        <v>0.504</v>
+      </c>
+      <c r="AI19">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AJ19">
+        <v>2.5</v>
+      </c>
+      <c r="AK19">
+        <v>2.9</v>
+      </c>
+      <c r="AL19">
+        <v>0.845</v>
+      </c>
+      <c r="AM19">
+        <v>0.3</v>
+      </c>
+      <c r="AN19">
+        <v>2.4</v>
+      </c>
+      <c r="AO19">
+        <v>2.7</v>
+      </c>
+      <c r="AP19">
         <v>4</v>
       </c>
-      <c r="AE19">
-        <v>0.405</v>
-      </c>
-      <c r="AF19">
-        <v>3.7</v>
-      </c>
-      <c r="AG19">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH19">
-        <v>0.414</v>
-      </c>
-      <c r="AI19">
-        <v>0.474</v>
-      </c>
-      <c r="AJ19">
-        <v>2.8</v>
-      </c>
-      <c r="AK19">
-        <v>3.3</v>
-      </c>
-      <c r="AL19">
-        <v>0.863</v>
-      </c>
-      <c r="AM19">
-        <v>0.7</v>
-      </c>
-      <c r="AN19">
-        <v>2</v>
-      </c>
-      <c r="AO19">
+      <c r="AQ19">
+        <v>1.2</v>
+      </c>
+      <c r="AR19">
+        <v>0.2</v>
+      </c>
+      <c r="AS19">
+        <v>1.8</v>
+      </c>
+      <c r="AT19">
         <v>2.6</v>
       </c>
-      <c r="AP19">
-        <v>2</v>
-      </c>
-      <c r="AQ19">
-        <v>0.6</v>
-      </c>
-      <c r="AR19">
-        <v>0.1</v>
-      </c>
-      <c r="AS19">
-        <v>2.3</v>
-      </c>
-      <c r="AT19">
-        <v>2.7</v>
-      </c>
       <c r="AU19">
-        <v>15.1</v>
+        <v>18.1</v>
       </c>
       <c r="AV19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AW19" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX19" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY19">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="20" spans="1:51">
@@ -3921,154 +3939,154 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F20">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="G20">
-        <v>338</v>
+        <v>501</v>
       </c>
       <c r="H20">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="I20">
-        <v>0.5629999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K20">
-        <v>18751</v>
+        <v>20282</v>
       </c>
       <c r="L20">
-        <v>3104</v>
+        <v>3276</v>
       </c>
       <c r="M20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N20">
-        <v>18751</v>
+        <v>20282</v>
       </c>
       <c r="O20" t="s">
         <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q20">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="R20" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="S20">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T20">
         <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V20" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="W20">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="X20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y20">
-        <v>29</v>
+        <v>30.6</v>
       </c>
       <c r="Z20">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="AA20">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="AB20">
-        <v>0.535</v>
+        <v>0.466</v>
       </c>
       <c r="AC20">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="AD20">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="AE20">
-        <v>0.4</v>
+        <v>0.407</v>
       </c>
       <c r="AF20">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="AG20">
-        <v>10.6</v>
+        <v>5.7</v>
       </c>
       <c r="AH20">
-        <v>0.541</v>
+        <v>0.513</v>
       </c>
       <c r="AI20">
-        <v>0.543</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AJ20">
+        <v>2.3</v>
+      </c>
+      <c r="AK20">
+        <v>2.8</v>
+      </c>
+      <c r="AL20">
+        <v>0.8</v>
+      </c>
+      <c r="AM20">
+        <v>0.6</v>
+      </c>
+      <c r="AN20">
+        <v>4.8</v>
+      </c>
+      <c r="AO20">
+        <v>5.4</v>
+      </c>
+      <c r="AP20">
         <v>2.7</v>
       </c>
-      <c r="AK20">
-        <v>3.6</v>
-      </c>
-      <c r="AL20">
-        <v>0.748</v>
-      </c>
-      <c r="AM20">
-        <v>2.8</v>
-      </c>
-      <c r="AN20">
-        <v>3.5</v>
-      </c>
-      <c r="AO20">
-        <v>6.3</v>
-      </c>
-      <c r="AP20">
-        <v>0.9</v>
-      </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR20">
         <v>0.4</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AT20">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AU20">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
       <c r="AV20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AW20" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX20" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY20">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="21" spans="1:51">
@@ -4076,154 +4094,154 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F21">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G21">
-        <v>362</v>
+        <v>513</v>
       </c>
       <c r="H21">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="I21">
-        <v>0.614</v>
+        <v>0.821</v>
       </c>
       <c r="J21" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K21">
-        <v>18294</v>
+        <v>19365</v>
       </c>
       <c r="L21">
-        <v>3041</v>
+        <v>3505</v>
       </c>
       <c r="M21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N21">
-        <v>18294</v>
+        <v>19365</v>
       </c>
       <c r="O21" t="s">
         <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q21">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="R21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="S21">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="T21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V21" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="W21">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="X21">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="Y21">
-        <v>28.4</v>
+        <v>24.4</v>
       </c>
       <c r="Z21">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="AA21">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="AB21">
-        <v>0.464</v>
+        <v>0.411</v>
       </c>
       <c r="AC21">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD21">
         <v>4</v>
       </c>
       <c r="AE21">
-        <v>0.379</v>
+        <v>0.405</v>
       </c>
       <c r="AF21">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="AG21">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH21">
-        <v>0.505</v>
+        <v>0.414</v>
       </c>
       <c r="AI21">
-        <v>0.525</v>
+        <v>0.474</v>
       </c>
       <c r="AJ21">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="AK21">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AL21">
-        <v>0.846</v>
+        <v>0.863</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN21">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AO21">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="AP21">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AR21">
         <v>0.1</v>
       </c>
       <c r="AS21">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AT21">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AU21">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="AV21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AW21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY21">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="22" spans="1:51">
@@ -4231,154 +4249,154 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
         <v>140</v>
       </c>
       <c r="F22">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G22">
-        <v>56</v>
+        <v>338</v>
       </c>
       <c r="H22">
-        <v>125</v>
+        <v>600</v>
       </c>
       <c r="I22">
-        <v>0.448</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K22">
-        <v>17842</v>
+        <v>18751</v>
       </c>
       <c r="L22">
-        <v>2908</v>
+        <v>3104</v>
       </c>
       <c r="M22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N22">
-        <v>17842</v>
+        <v>18751</v>
       </c>
       <c r="O22" t="s">
         <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q22">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="R22" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="S22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U22" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V22" t="s">
         <v>140</v>
       </c>
       <c r="W22">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y22">
-        <v>21.8</v>
+        <v>29</v>
       </c>
       <c r="Z22">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AA22">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="AB22">
-        <v>0.51</v>
+        <v>0.535</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD22">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AE22">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AF22">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AG22">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="AH22">
-        <v>0.512</v>
+        <v>0.541</v>
       </c>
       <c r="AI22">
-        <v>0.511</v>
+        <v>0.543</v>
       </c>
       <c r="AJ22">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AK22">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AL22">
-        <v>0.805</v>
+        <v>0.748</v>
       </c>
       <c r="AM22">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="AN22">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO22">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ22">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS22">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="AU22">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
       <c r="AV22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AW22" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX22" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY22">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="23" spans="1:51">
@@ -4386,154 +4404,154 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F23">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G23">
-        <v>57</v>
+        <v>362</v>
       </c>
       <c r="H23">
-        <v>124</v>
+        <v>590</v>
       </c>
       <c r="I23">
-        <v>0.46</v>
+        <v>0.614</v>
       </c>
       <c r="J23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K23">
-        <v>17212</v>
+        <v>18294</v>
       </c>
       <c r="L23">
-        <v>2832</v>
+        <v>3041</v>
       </c>
       <c r="M23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N23">
-        <v>17212</v>
+        <v>18294</v>
       </c>
       <c r="O23" t="s">
         <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q23">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="R23" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="S23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V23" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="W23">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="X23">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Y23">
-        <v>31.5</v>
+        <v>28.4</v>
       </c>
       <c r="Z23">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="AA23">
-        <v>9.4</v>
+        <v>12.4</v>
       </c>
       <c r="AB23">
-        <v>0.473</v>
+        <v>0.464</v>
       </c>
       <c r="AC23">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD23">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="AE23">
-        <v>0.312</v>
+        <v>0.379</v>
       </c>
       <c r="AF23">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AG23">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AH23">
-        <v>0.524</v>
+        <v>0.505</v>
       </c>
       <c r="AI23">
-        <v>0.511</v>
+        <v>0.525</v>
       </c>
       <c r="AJ23">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK23">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AL23">
-        <v>0.768</v>
+        <v>0.846</v>
       </c>
       <c r="AM23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AN23">
+        <v>2.7</v>
+      </c>
+      <c r="AO23">
         <v>3.7</v>
       </c>
-      <c r="AO23">
-        <v>4.1</v>
-      </c>
       <c r="AP23">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AR23">
         <v>0.1</v>
       </c>
       <c r="AS23">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AT23">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AU23">
-        <v>11.6</v>
+        <v>15.2</v>
       </c>
       <c r="AV23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AW23" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX23" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY23">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="24" spans="1:51">
@@ -4541,55 +4559,55 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D24">
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F24">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="G24">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="H24">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I24">
-        <v>0.86</v>
+        <v>0.448</v>
       </c>
       <c r="J24" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K24">
-        <v>17111</v>
+        <v>17842</v>
       </c>
       <c r="L24">
-        <v>2821</v>
+        <v>2908</v>
       </c>
       <c r="M24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N24">
-        <v>17111</v>
+        <v>17842</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q24">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="R24" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="S24">
         <v>29</v>
@@ -4598,97 +4616,97 @@
         <v>7</v>
       </c>
       <c r="U24" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="W24">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="X24">
         <v>7</v>
       </c>
       <c r="Y24">
-        <v>27.9</v>
+        <v>21.8</v>
       </c>
       <c r="Z24">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AA24">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="AB24">
-        <v>0.486</v>
+        <v>0.51</v>
       </c>
       <c r="AC24">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE24">
-        <v>0.439</v>
+        <v>0.2</v>
       </c>
       <c r="AF24">
+        <v>5.3</v>
+      </c>
+      <c r="AG24">
+        <v>10.3</v>
+      </c>
+      <c r="AH24">
+        <v>0.512</v>
+      </c>
+      <c r="AI24">
+        <v>0.511</v>
+      </c>
+      <c r="AJ24">
+        <v>3.1</v>
+      </c>
+      <c r="AK24">
         <v>3.8</v>
       </c>
-      <c r="AG24">
-        <v>7.5</v>
-      </c>
-      <c r="AH24">
-        <v>0.506</v>
-      </c>
-      <c r="AI24">
-        <v>0.551</v>
-      </c>
-      <c r="AJ24">
-        <v>1.9</v>
-      </c>
-      <c r="AK24">
-        <v>3</v>
-      </c>
       <c r="AL24">
-        <v>0.639</v>
+        <v>0.805</v>
       </c>
       <c r="AM24">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AN24">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="AO24">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="AP24">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AR24">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT24">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AU24">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="AV24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AW24" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX24" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY24">
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="25" spans="1:51">
@@ -4696,154 +4714,154 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F25">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G25">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H25">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I25">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K25">
-        <v>16338</v>
+        <v>17212</v>
       </c>
       <c r="L25">
-        <v>2846</v>
+        <v>2832</v>
       </c>
       <c r="M25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N25">
-        <v>16338</v>
+        <v>17212</v>
       </c>
       <c r="O25" t="s">
         <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q25">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="R25" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="S25">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T25">
+        <v>7</v>
+      </c>
+      <c r="U25" t="s">
+        <v>201</v>
+      </c>
+      <c r="V25" t="s">
+        <v>147</v>
+      </c>
+      <c r="W25">
+        <v>76</v>
+      </c>
+      <c r="X25">
+        <v>33</v>
+      </c>
+      <c r="Y25">
+        <v>31.5</v>
+      </c>
+      <c r="Z25">
+        <v>4.4</v>
+      </c>
+      <c r="AA25">
+        <v>9.4</v>
+      </c>
+      <c r="AB25">
+        <v>0.473</v>
+      </c>
+      <c r="AC25">
+        <v>0.7</v>
+      </c>
+      <c r="AD25">
+        <v>2.2</v>
+      </c>
+      <c r="AE25">
+        <v>0.312</v>
+      </c>
+      <c r="AF25">
+        <v>3.8</v>
+      </c>
+      <c r="AG25">
+        <v>7.2</v>
+      </c>
+      <c r="AH25">
+        <v>0.524</v>
+      </c>
+      <c r="AI25">
+        <v>0.511</v>
+      </c>
+      <c r="AJ25">
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <v>2.6</v>
+      </c>
+      <c r="AL25">
+        <v>0.768</v>
+      </c>
+      <c r="AM25">
+        <v>0.4</v>
+      </c>
+      <c r="AN25">
+        <v>3.7</v>
+      </c>
+      <c r="AO25">
+        <v>4.1</v>
+      </c>
+      <c r="AP25">
         <v>5</v>
       </c>
-      <c r="U25" t="s">
-        <v>195</v>
-      </c>
-      <c r="V25" t="s">
-        <v>143</v>
-      </c>
-      <c r="W25">
-        <v>50</v>
-      </c>
-      <c r="X25">
-        <v>15</v>
-      </c>
-      <c r="Y25">
-        <v>30</v>
-      </c>
-      <c r="Z25">
-        <v>4.6</v>
-      </c>
-      <c r="AA25">
-        <v>10.4</v>
-      </c>
-      <c r="AB25">
-        <v>0.441</v>
-      </c>
-      <c r="AC25">
+      <c r="AQ25">
         <v>1.4</v>
-      </c>
-      <c r="AD25">
-        <v>3.8</v>
-      </c>
-      <c r="AE25">
-        <v>0.365</v>
-      </c>
-      <c r="AF25">
-        <v>3.2</v>
-      </c>
-      <c r="AG25">
-        <v>6.7</v>
-      </c>
-      <c r="AH25">
-        <v>0.483</v>
-      </c>
-      <c r="AI25">
-        <v>0.507</v>
-      </c>
-      <c r="AJ25">
-        <v>3.2</v>
-      </c>
-      <c r="AK25">
-        <v>3.6</v>
-      </c>
-      <c r="AL25">
-        <v>0.904</v>
-      </c>
-      <c r="AM25">
-        <v>1.1</v>
-      </c>
-      <c r="AN25">
-        <v>2.5</v>
-      </c>
-      <c r="AO25">
-        <v>3.6</v>
-      </c>
-      <c r="AP25">
-        <v>6.7</v>
-      </c>
-      <c r="AQ25">
-        <v>2.2</v>
       </c>
       <c r="AR25">
         <v>0.1</v>
       </c>
       <c r="AS25">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AT25">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AU25">
-        <v>13.8</v>
+        <v>11.6</v>
       </c>
       <c r="AV25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AW25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY25">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="26" spans="1:51">
@@ -4851,154 +4869,154 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
         <v>142</v>
       </c>
       <c r="F26">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G26">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="H26">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I26">
-        <v>0.491</v>
+        <v>0.86</v>
       </c>
       <c r="J26" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K26">
-        <v>15806</v>
+        <v>17111</v>
       </c>
       <c r="L26">
-        <v>2417</v>
+        <v>2821</v>
       </c>
       <c r="M26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N26">
-        <v>15806</v>
+        <v>17111</v>
       </c>
       <c r="O26" t="s">
         <v>75</v>
       </c>
       <c r="P26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q26">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="R26" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="S26">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U26" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V26" t="s">
         <v>142</v>
       </c>
       <c r="W26">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="X26">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y26">
-        <v>25.6</v>
+        <v>27.9</v>
       </c>
       <c r="Z26">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AA26">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="AB26">
-        <v>0.516</v>
+        <v>0.486</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD26">
-        <v>0.1</v>
+        <v>3.2</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>0.439</v>
       </c>
       <c r="AF26">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="AG26">
-        <v>10.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH26">
-        <v>0.521</v>
+        <v>0.506</v>
       </c>
       <c r="AI26">
-        <v>0.516</v>
+        <v>0.551</v>
       </c>
       <c r="AJ26">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AK26">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AL26">
-        <v>0.739</v>
+        <v>0.639</v>
       </c>
       <c r="AM26">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AN26">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AO26">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AP26">
+        <v>2.1</v>
+      </c>
+      <c r="AQ26">
+        <v>1.1</v>
+      </c>
+      <c r="AR26">
+        <v>0.6</v>
+      </c>
+      <c r="AS26">
         <v>2</v>
       </c>
-      <c r="AQ26">
-        <v>1</v>
-      </c>
-      <c r="AR26">
-        <v>0.7</v>
-      </c>
-      <c r="AS26">
-        <v>1.4</v>
-      </c>
       <c r="AT26">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AU26">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="AV26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AW26" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX26" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY26">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:51">
@@ -5006,154 +5024,154 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F27">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I27">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K27">
-        <v>15391</v>
+        <v>16338</v>
       </c>
       <c r="L27">
-        <v>2438</v>
+        <v>2846</v>
       </c>
       <c r="M27" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N27">
-        <v>15391</v>
+        <v>16338</v>
       </c>
       <c r="O27" t="s">
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q27">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="R27" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="S27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V27" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="W27">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Y27">
-        <v>26.5</v>
+        <v>30</v>
       </c>
       <c r="Z27">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AA27">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="AB27">
-        <v>0.431</v>
+        <v>0.441</v>
       </c>
       <c r="AC27">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AD27">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="AE27">
-        <v>0.369</v>
+        <v>0.365</v>
       </c>
       <c r="AF27">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AG27">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="AH27">
-        <v>0.488</v>
+        <v>0.483</v>
       </c>
       <c r="AI27">
-        <v>0.519</v>
+        <v>0.507</v>
       </c>
       <c r="AJ27">
+        <v>3.2</v>
+      </c>
+      <c r="AK27">
+        <v>3.6</v>
+      </c>
+      <c r="AL27">
+        <v>0.904</v>
+      </c>
+      <c r="AM27">
+        <v>1.1</v>
+      </c>
+      <c r="AN27">
+        <v>2.5</v>
+      </c>
+      <c r="AO27">
+        <v>3.6</v>
+      </c>
+      <c r="AP27">
+        <v>6.7</v>
+      </c>
+      <c r="AQ27">
         <v>2.2</v>
-      </c>
-      <c r="AK27">
-        <v>2.9</v>
-      </c>
-      <c r="AL27">
-        <v>0.769</v>
-      </c>
-      <c r="AM27">
-        <v>0.5</v>
-      </c>
-      <c r="AN27">
-        <v>2.2</v>
-      </c>
-      <c r="AO27">
-        <v>2.7</v>
-      </c>
-      <c r="AP27">
-        <v>2.8</v>
-      </c>
-      <c r="AQ27">
-        <v>1.2</v>
       </c>
       <c r="AR27">
         <v>0.1</v>
       </c>
       <c r="AS27">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="AT27">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU27">
         <v>13.8</v>
       </c>
       <c r="AV27" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AW27" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX27" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY27">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="28" spans="1:51">
@@ -5161,154 +5179,154 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F28">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G28">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H28">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I28">
-        <v>0.398</v>
+        <v>0.491</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K28">
-        <v>15049</v>
+        <v>15806</v>
       </c>
       <c r="L28">
-        <v>2829</v>
+        <v>2417</v>
       </c>
       <c r="M28" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N28">
-        <v>15049</v>
+        <v>15806</v>
       </c>
       <c r="O28" t="s">
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q28">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="R28" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="S28">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U28" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="W28">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="X28">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Y28">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="Z28">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="AA28">
-        <v>9.699999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="AB28">
-        <v>0.49</v>
+        <v>0.516</v>
       </c>
       <c r="AC28">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="AE28">
-        <v>0.403</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="AG28">
-        <v>7</v>
+        <v>10.7</v>
       </c>
       <c r="AH28">
-        <v>0.524</v>
+        <v>0.521</v>
       </c>
       <c r="AI28">
-        <v>0.546</v>
+        <v>0.516</v>
       </c>
       <c r="AJ28">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AK28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AL28">
-        <v>0.772</v>
+        <v>0.739</v>
       </c>
       <c r="AM28">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AN28">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="AO28">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="AP28">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AS28">
         <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="AU28">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="AV28" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AW28" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX28" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY28">
-        <v>1996</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="29" spans="1:51">
@@ -5316,154 +5334,154 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29">
+        <v>84</v>
+      </c>
+      <c r="G29">
+        <v>84</v>
+      </c>
+      <c r="H29">
         <v>115</v>
       </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29">
-        <v>47</v>
-      </c>
-      <c r="G29">
-        <v>47</v>
-      </c>
-      <c r="H29">
-        <v>105</v>
-      </c>
       <c r="I29">
-        <v>0.448</v>
+        <v>0.73</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K29">
-        <v>14109</v>
+        <v>15391</v>
       </c>
       <c r="L29">
-        <v>2481</v>
+        <v>2438</v>
       </c>
       <c r="M29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N29">
-        <v>14109</v>
+        <v>15391</v>
       </c>
       <c r="O29" t="s">
         <v>78</v>
       </c>
       <c r="P29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q29">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="R29" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="S29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U29" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="W29">
         <v>77</v>
       </c>
       <c r="X29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>32.4</v>
+        <v>26.5</v>
       </c>
       <c r="Z29">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="AA29">
-        <v>6.6</v>
+        <v>11.1</v>
       </c>
       <c r="AB29">
-        <v>0.5659999999999999</v>
+        <v>0.431</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="AF29">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="AG29">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="AH29">
-        <v>0.5669999999999999</v>
+        <v>0.488</v>
       </c>
       <c r="AI29">
-        <v>0.5659999999999999</v>
+        <v>0.519</v>
       </c>
       <c r="AJ29">
+        <v>2.2</v>
+      </c>
+      <c r="AK29">
+        <v>2.9</v>
+      </c>
+      <c r="AL29">
+        <v>0.769</v>
+      </c>
+      <c r="AM29">
+        <v>0.5</v>
+      </c>
+      <c r="AN29">
+        <v>2.2</v>
+      </c>
+      <c r="AO29">
+        <v>2.7</v>
+      </c>
+      <c r="AP29">
+        <v>2.8</v>
+      </c>
+      <c r="AQ29">
+        <v>1.2</v>
+      </c>
+      <c r="AR29">
+        <v>0.1</v>
+      </c>
+      <c r="AS29">
+        <v>2.1</v>
+      </c>
+      <c r="AT29">
         <v>2.5</v>
       </c>
-      <c r="AK29">
-        <v>3.9</v>
-      </c>
-      <c r="AL29">
-        <v>0.641</v>
-      </c>
-      <c r="AM29">
-        <v>2.4</v>
-      </c>
-      <c r="AN29">
-        <v>6.1</v>
-      </c>
-      <c r="AO29">
-        <v>8.4</v>
-      </c>
-      <c r="AP29">
-        <v>3.1</v>
-      </c>
-      <c r="AQ29">
-        <v>0.9</v>
-      </c>
-      <c r="AR29">
-        <v>0.3</v>
-      </c>
-      <c r="AS29">
-        <v>1.6</v>
-      </c>
-      <c r="AT29">
-        <v>3.3</v>
-      </c>
       <c r="AU29">
-        <v>9.9</v>
+        <v>13.8</v>
       </c>
       <c r="AV29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AW29" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX29" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY29">
-        <v>1995</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="30" spans="1:51">
@@ -5471,154 +5489,154 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
         <v>144</v>
       </c>
       <c r="F30">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I30">
-        <v>0.455</v>
+        <v>0.398</v>
       </c>
       <c r="J30" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K30">
-        <v>13722</v>
+        <v>15049</v>
       </c>
       <c r="L30">
-        <v>2299</v>
+        <v>2829</v>
       </c>
       <c r="M30" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N30">
-        <v>13722</v>
+        <v>15049</v>
       </c>
       <c r="O30" t="s">
         <v>79</v>
       </c>
       <c r="P30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q30">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="R30" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="S30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V30" t="s">
         <v>144</v>
       </c>
       <c r="W30">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y30">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="Z30">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="AA30">
-        <v>14.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB30">
-        <v>0.455</v>
+        <v>0.49</v>
       </c>
       <c r="AC30">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD30">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="AE30">
-        <v>0.402</v>
+        <v>0.403</v>
       </c>
       <c r="AF30">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="AG30">
-        <v>9.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="AH30">
-        <v>0.48</v>
+        <v>0.524</v>
       </c>
       <c r="AI30">
-        <v>0.52</v>
+        <v>0.546</v>
       </c>
       <c r="AJ30">
+        <v>2.5</v>
+      </c>
+      <c r="AK30">
+        <v>3.3</v>
+      </c>
+      <c r="AL30">
+        <v>0.772</v>
+      </c>
+      <c r="AM30">
         <v>1.4</v>
       </c>
-      <c r="AK30">
-        <v>1.6</v>
-      </c>
-      <c r="AL30">
-        <v>0.873</v>
-      </c>
-      <c r="AM30">
-        <v>0.9</v>
-      </c>
       <c r="AN30">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AO30">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AP30">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AQ30">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>0.3</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU30">
-        <v>16.3</v>
+        <v>13.1</v>
       </c>
       <c r="AV30" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AW30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY30">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="31" spans="1:51">
@@ -5626,154 +5644,154 @@
         <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F31">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G31">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H31">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I31">
-        <v>0.908</v>
+        <v>0.448</v>
       </c>
       <c r="J31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K31">
-        <v>13240</v>
+        <v>14109</v>
       </c>
       <c r="L31">
-        <v>2492</v>
+        <v>2481</v>
       </c>
       <c r="M31" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N31">
-        <v>13240</v>
+        <v>14109</v>
       </c>
       <c r="O31" t="s">
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q31">
         <v>1966</v>
       </c>
       <c r="R31" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="S31">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V31" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="W31">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y31">
-        <v>31.4</v>
+        <v>32.4</v>
       </c>
       <c r="Z31">
-        <v>7.7</v>
+        <v>3.7</v>
       </c>
       <c r="AA31">
-        <v>16.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB31">
-        <v>0.473</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>3.7</v>
+      </c>
+      <c r="AG31">
+        <v>6.6</v>
+      </c>
+      <c r="AH31">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="AI31">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="AJ31">
+        <v>2.5</v>
+      </c>
+      <c r="AK31">
+        <v>3.9</v>
+      </c>
+      <c r="AL31">
+        <v>0.641</v>
+      </c>
+      <c r="AM31">
+        <v>2.4</v>
+      </c>
+      <c r="AN31">
+        <v>6.1</v>
+      </c>
+      <c r="AO31">
+        <v>8.4</v>
+      </c>
+      <c r="AP31">
+        <v>3.1</v>
+      </c>
+      <c r="AQ31">
         <v>0.9</v>
       </c>
-      <c r="AE31">
-        <v>0.247</v>
-      </c>
-      <c r="AF31">
-        <v>7.5</v>
-      </c>
-      <c r="AG31">
-        <v>15.4</v>
-      </c>
-      <c r="AH31">
-        <v>0.487</v>
-      </c>
-      <c r="AI31">
-        <v>0.48</v>
-      </c>
-      <c r="AJ31">
-        <v>3.5</v>
-      </c>
-      <c r="AK31">
-        <v>5.1</v>
-      </c>
-      <c r="AL31">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AM31">
-        <v>2</v>
-      </c>
-      <c r="AN31">
-        <v>4.6</v>
-      </c>
-      <c r="AO31">
-        <v>6.6</v>
-      </c>
-      <c r="AP31">
-        <v>2.2</v>
-      </c>
-      <c r="AQ31">
-        <v>1.2</v>
-      </c>
       <c r="AR31">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="AS31">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AT31">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AU31">
-        <v>19.1</v>
+        <v>9.9</v>
       </c>
       <c r="AV31" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AW31" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX31" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY31">
-        <v>1993</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="32" spans="1:51">
@@ -5781,154 +5799,154 @@
         <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F32">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G32">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H32">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I32">
-        <v>0.5629999999999999</v>
+        <v>0.455</v>
       </c>
       <c r="J32" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K32">
-        <v>12817</v>
+        <v>13722</v>
       </c>
       <c r="L32">
-        <v>2236</v>
+        <v>2299</v>
       </c>
       <c r="M32" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N32">
-        <v>12817</v>
+        <v>13722</v>
       </c>
       <c r="O32" t="s">
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q32">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="R32" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="S32">
         <v>30</v>
       </c>
       <c r="T32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U32" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="W32">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>32.6</v>
+        <v>26.5</v>
       </c>
       <c r="Z32">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AA32">
-        <v>11.6</v>
+        <v>14.3</v>
       </c>
       <c r="AB32">
-        <v>0.536</v>
+        <v>0.455</v>
       </c>
       <c r="AC32">
+        <v>1.9</v>
+      </c>
+      <c r="AD32">
+        <v>4.6</v>
+      </c>
+      <c r="AE32">
+        <v>0.402</v>
+      </c>
+      <c r="AF32">
+        <v>4.6</v>
+      </c>
+      <c r="AG32">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH32">
+        <v>0.48</v>
+      </c>
+      <c r="AI32">
+        <v>0.52</v>
+      </c>
+      <c r="AJ32">
+        <v>1.4</v>
+      </c>
+      <c r="AK32">
+        <v>1.6</v>
+      </c>
+      <c r="AL32">
+        <v>0.873</v>
+      </c>
+      <c r="AM32">
+        <v>0.9</v>
+      </c>
+      <c r="AN32">
+        <v>2.3</v>
+      </c>
+      <c r="AO32">
+        <v>3.2</v>
+      </c>
+      <c r="AP32">
+        <v>2.7</v>
+      </c>
+      <c r="AQ32">
+        <v>1.2</v>
+      </c>
+      <c r="AR32">
         <v>0.3</v>
       </c>
-      <c r="AD32">
-        <v>0.9</v>
-      </c>
-      <c r="AE32">
-        <v>0.324</v>
-      </c>
-      <c r="AF32">
-        <v>5.9</v>
-      </c>
-      <c r="AG32">
-        <v>10.7</v>
-      </c>
-      <c r="AH32">
-        <v>0.554</v>
-      </c>
-      <c r="AI32">
-        <v>0.549</v>
-      </c>
-      <c r="AJ32">
-        <v>4.6</v>
-      </c>
-      <c r="AK32">
-        <v>5.5</v>
-      </c>
-      <c r="AL32">
-        <v>0.828</v>
-      </c>
-      <c r="AM32">
-        <v>2.5</v>
-      </c>
-      <c r="AN32">
-        <v>7.1</v>
-      </c>
-      <c r="AO32">
-        <v>9.6</v>
-      </c>
-      <c r="AP32">
-        <v>3.9</v>
-      </c>
-      <c r="AQ32">
-        <v>0.8</v>
-      </c>
-      <c r="AR32">
-        <v>0.5</v>
-      </c>
       <c r="AS32">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="AU32">
-        <v>17.3</v>
+        <v>16.3</v>
       </c>
       <c r="AV32" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AW32" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX32" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY32">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="33" spans="1:51">
@@ -5936,154 +5954,154 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F33">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G33">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="H33">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I33">
-        <v>0.396</v>
+        <v>0.908</v>
       </c>
       <c r="J33" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K33">
-        <v>12374</v>
+        <v>13240</v>
       </c>
       <c r="L33">
-        <v>2236</v>
+        <v>2492</v>
       </c>
       <c r="M33" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N33">
-        <v>12374</v>
+        <v>13240</v>
       </c>
       <c r="O33" t="s">
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q33">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="R33" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="S33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U33" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V33" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="W33">
         <v>82</v>
       </c>
       <c r="X33">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Y33">
-        <v>32.1</v>
+        <v>31.4</v>
       </c>
       <c r="Z33">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="AA33">
-        <v>10.1</v>
+        <v>16.3</v>
       </c>
       <c r="AB33">
-        <v>0.52</v>
+        <v>0.473</v>
       </c>
       <c r="AC33">
         <v>0.2</v>
       </c>
       <c r="AD33">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AE33">
-        <v>0.375</v>
+        <v>0.247</v>
       </c>
       <c r="AF33">
+        <v>7.5</v>
+      </c>
+      <c r="AG33">
+        <v>15.4</v>
+      </c>
+      <c r="AH33">
+        <v>0.487</v>
+      </c>
+      <c r="AI33">
+        <v>0.48</v>
+      </c>
+      <c r="AJ33">
+        <v>3.5</v>
+      </c>
+      <c r="AK33">
         <v>5.1</v>
       </c>
-      <c r="AG33">
-        <v>9.6</v>
-      </c>
-      <c r="AH33">
-        <v>0.527</v>
-      </c>
-      <c r="AI33">
-        <v>0.529</v>
-      </c>
-      <c r="AJ33">
-        <v>5.4</v>
-      </c>
-      <c r="AK33">
+      <c r="AL33">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AM33">
+        <v>2</v>
+      </c>
+      <c r="AN33">
+        <v>4.6</v>
+      </c>
+      <c r="AO33">
         <v>6.6</v>
       </c>
-      <c r="AL33">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="AM33">
+      <c r="AP33">
         <v>2.2</v>
       </c>
-      <c r="AN33">
-        <v>5.9</v>
-      </c>
-      <c r="AO33">
-        <v>8</v>
-      </c>
-      <c r="AP33">
-        <v>3.7</v>
-      </c>
       <c r="AQ33">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AS33">
         <v>2.1</v>
       </c>
       <c r="AT33">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU33">
-        <v>16.1</v>
+        <v>19.1</v>
       </c>
       <c r="AV33" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AW33" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX33" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY33">
-        <v>1991</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="34" spans="1:51">
@@ -6091,154 +6109,154 @@
         <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F34">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G34">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H34">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I34">
-        <v>0.837</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J34" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K34">
-        <v>12152</v>
+        <v>12817</v>
       </c>
       <c r="L34">
-        <v>2090</v>
+        <v>2236</v>
       </c>
       <c r="M34" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N34">
-        <v>12152</v>
+        <v>12817</v>
       </c>
       <c r="O34" t="s">
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q34">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="R34" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="S34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U34" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="W34">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y34">
-        <v>29</v>
+        <v>32.6</v>
       </c>
       <c r="Z34">
-        <v>8.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA34">
-        <v>16.7</v>
+        <v>11.6</v>
       </c>
       <c r="AB34">
-        <v>0.51</v>
+        <v>0.536</v>
       </c>
       <c r="AC34">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD34">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="AE34">
-        <v>0.346</v>
+        <v>0.324</v>
       </c>
       <c r="AF34">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
       <c r="AG34">
-        <v>14.5</v>
+        <v>10.7</v>
       </c>
       <c r="AH34">
-        <v>0.535</v>
+        <v>0.554</v>
       </c>
       <c r="AI34">
-        <v>0.533</v>
+        <v>0.549</v>
       </c>
       <c r="AJ34">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="AK34">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AL34">
-        <v>0.839</v>
+        <v>0.828</v>
       </c>
       <c r="AM34">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="AN34">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="AO34">
-        <v>2.8</v>
+        <v>9.6</v>
       </c>
       <c r="AP34">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="AQ34">
         <v>0.8</v>
       </c>
       <c r="AR34">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AT34">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="AU34">
-        <v>23</v>
+        <v>17.3</v>
       </c>
       <c r="AV34" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AW34" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX34" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY34">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="35" spans="1:51">
@@ -6246,154 +6264,154 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F35">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G35">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I35">
-        <v>0.388</v>
+        <v>0.396</v>
       </c>
       <c r="J35" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K35">
-        <v>11500</v>
+        <v>12374</v>
       </c>
       <c r="L35">
-        <v>1993</v>
+        <v>2236</v>
       </c>
       <c r="M35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N35">
-        <v>11500</v>
+        <v>12374</v>
       </c>
       <c r="O35" t="s">
         <v>84</v>
       </c>
       <c r="P35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q35">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="R35" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="S35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35" t="s">
+        <v>201</v>
+      </c>
+      <c r="V35" t="s">
+        <v>151</v>
+      </c>
+      <c r="W35">
+        <v>82</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>32.1</v>
+      </c>
+      <c r="Z35">
+        <v>5.3</v>
+      </c>
+      <c r="AA35">
+        <v>10.1</v>
+      </c>
+      <c r="AB35">
+        <v>0.52</v>
+      </c>
+      <c r="AC35">
+        <v>0.2</v>
+      </c>
+      <c r="AD35">
+        <v>0.5</v>
+      </c>
+      <c r="AE35">
+        <v>0.375</v>
+      </c>
+      <c r="AF35">
+        <v>5.1</v>
+      </c>
+      <c r="AG35">
+        <v>9.6</v>
+      </c>
+      <c r="AH35">
+        <v>0.527</v>
+      </c>
+      <c r="AI35">
+        <v>0.529</v>
+      </c>
+      <c r="AJ35">
+        <v>5.4</v>
+      </c>
+      <c r="AK35">
+        <v>6.6</v>
+      </c>
+      <c r="AL35">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="AM35">
+        <v>2.2</v>
+      </c>
+      <c r="AN35">
+        <v>5.9</v>
+      </c>
+      <c r="AO35">
         <v>8</v>
       </c>
-      <c r="U35" t="s">
-        <v>195</v>
-      </c>
-      <c r="V35" t="s">
-        <v>142</v>
-      </c>
-      <c r="W35">
-        <v>70</v>
-      </c>
-      <c r="X35">
-        <v>7</v>
-      </c>
-      <c r="Y35">
-        <v>29.2</v>
-      </c>
-      <c r="Z35">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AA35">
-        <v>17.5</v>
-      </c>
-      <c r="AB35">
-        <v>0.497</v>
-      </c>
-      <c r="AC35">
-        <v>1</v>
-      </c>
-      <c r="AD35">
-        <v>2.5</v>
-      </c>
-      <c r="AE35">
-        <v>0.413</v>
-      </c>
-      <c r="AF35">
-        <v>7.7</v>
-      </c>
-      <c r="AG35">
-        <v>15</v>
-      </c>
-      <c r="AH35">
-        <v>0.51</v>
-      </c>
-      <c r="AI35">
-        <v>0.526</v>
-      </c>
-      <c r="AJ35">
-        <v>3.1</v>
-      </c>
-      <c r="AK35">
-        <v>3.6</v>
-      </c>
-      <c r="AL35">
-        <v>0.868</v>
-      </c>
-      <c r="AM35">
-        <v>1.3</v>
-      </c>
-      <c r="AN35">
-        <v>3.1</v>
-      </c>
-      <c r="AO35">
-        <v>4.4</v>
-      </c>
       <c r="AP35">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="AQ35">
         <v>0.7</v>
       </c>
       <c r="AR35">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AS35">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AT35">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AU35">
-        <v>21.5</v>
+        <v>16.1</v>
       </c>
       <c r="AV35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AW35" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX35" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY35">
-        <v>1989</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="36" spans="1:51">
@@ -6401,154 +6419,154 @@
         <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F36">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G36">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H36">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I36">
-        <v>0.838</v>
+        <v>0.837</v>
       </c>
       <c r="J36" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K36">
-        <v>11294</v>
+        <v>12152</v>
       </c>
       <c r="L36">
-        <v>2337</v>
+        <v>2090</v>
       </c>
       <c r="M36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N36">
-        <v>11294</v>
+        <v>12152</v>
       </c>
       <c r="O36" t="s">
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q36">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="R36" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="S36">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U36" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V36" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="W36">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="X36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="Z36">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA36">
-        <v>11</v>
+        <v>16.7</v>
       </c>
       <c r="AB36">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD36">
+        <v>2.3</v>
+      </c>
+      <c r="AE36">
+        <v>0.346</v>
+      </c>
+      <c r="AF36">
+        <v>7.7</v>
+      </c>
+      <c r="AG36">
+        <v>14.5</v>
+      </c>
+      <c r="AH36">
+        <v>0.535</v>
+      </c>
+      <c r="AI36">
+        <v>0.533</v>
+      </c>
+      <c r="AJ36">
+        <v>5.2</v>
+      </c>
+      <c r="AK36">
+        <v>6.2</v>
+      </c>
+      <c r="AL36">
+        <v>0.839</v>
+      </c>
+      <c r="AM36">
+        <v>1.1</v>
+      </c>
+      <c r="AN36">
+        <v>1.7</v>
+      </c>
+      <c r="AO36">
+        <v>2.8</v>
+      </c>
+      <c r="AP36">
+        <v>2.3</v>
+      </c>
+      <c r="AQ36">
+        <v>0.8</v>
+      </c>
+      <c r="AR36">
         <v>0.1</v>
       </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>5.5</v>
-      </c>
-      <c r="AG36">
-        <v>10.9</v>
-      </c>
-      <c r="AH36">
-        <v>0.503</v>
-      </c>
-      <c r="AI36">
-        <v>0.5</v>
-      </c>
-      <c r="AJ36">
-        <v>2.5</v>
-      </c>
-      <c r="AK36">
-        <v>3.4</v>
-      </c>
-      <c r="AL36">
-        <v>0.74</v>
-      </c>
-      <c r="AM36">
-        <v>4.4</v>
-      </c>
-      <c r="AN36">
-        <v>7.4</v>
-      </c>
-      <c r="AO36">
-        <v>11.8</v>
-      </c>
-      <c r="AP36">
-        <v>1.1</v>
-      </c>
-      <c r="AQ36">
-        <v>1.3</v>
-      </c>
-      <c r="AR36">
-        <v>1.1</v>
-      </c>
       <c r="AS36">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AT36">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="AU36">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AV36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AW36" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AX36" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY36">
-        <v>1988</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="37" spans="1:51">
@@ -6556,154 +6574,154 @@
         <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F37">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G37">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I37">
-        <v>0.526</v>
+        <v>0.388</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K37">
-        <v>10868</v>
+        <v>11500</v>
       </c>
       <c r="L37">
-        <v>2090</v>
+        <v>1993</v>
       </c>
       <c r="M37" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N37">
-        <v>10868</v>
+        <v>11500</v>
       </c>
       <c r="O37" t="s">
         <v>86</v>
       </c>
       <c r="P37" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q37">
         <v>1959</v>
       </c>
       <c r="R37" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="S37">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U37" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="W37">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="X37">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Y37">
-        <v>31.7</v>
+        <v>29.2</v>
       </c>
       <c r="Z37">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA37">
-        <v>13.6</v>
+        <v>17.5</v>
       </c>
       <c r="AB37">
-        <v>0.534</v>
+        <v>0.497</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="AE37">
-        <v>0.107</v>
+        <v>0.413</v>
       </c>
       <c r="AF37">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AG37">
-        <v>13.3</v>
+        <v>15</v>
       </c>
       <c r="AH37">
-        <v>0.545</v>
+        <v>0.51</v>
       </c>
       <c r="AI37">
-        <v>0.535</v>
+        <v>0.526</v>
       </c>
       <c r="AJ37">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="AK37">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="AL37">
-        <v>0.88</v>
+        <v>0.868</v>
       </c>
       <c r="AM37">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AN37">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="AO37">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AR37">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AT37">
         <v>2.8</v>
       </c>
       <c r="AU37">
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="AV37" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AW37" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX37" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY37">
-        <v>1987</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="38" spans="1:51">
@@ -6711,154 +6729,154 @@
         <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F38">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G38">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="H38">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I38">
-        <v>0.41</v>
+        <v>0.838</v>
       </c>
       <c r="J38" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K38">
-        <v>10203</v>
+        <v>11294</v>
       </c>
       <c r="L38">
-        <v>1556</v>
+        <v>2337</v>
       </c>
       <c r="M38" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N38">
-        <v>10203</v>
+        <v>11294</v>
       </c>
       <c r="O38" t="s">
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q38">
-        <v>1952</v>
+        <v>1964</v>
       </c>
       <c r="R38" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="S38">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38" t="s">
+        <v>201</v>
+      </c>
+      <c r="V38" t="s">
+        <v>140</v>
+      </c>
+      <c r="W38">
+        <v>81</v>
+      </c>
+      <c r="X38">
         <v>9</v>
       </c>
-      <c r="U38" t="s">
-        <v>195</v>
-      </c>
-      <c r="V38" t="s">
-        <v>148</v>
-      </c>
-      <c r="W38">
-        <v>80</v>
-      </c>
-      <c r="X38">
-        <v>2</v>
-      </c>
       <c r="Y38">
-        <v>19.3</v>
+        <v>28.5</v>
       </c>
       <c r="Z38">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="AA38">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="AB38">
-        <v>0.5620000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC38">
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE38">
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="AG38">
-        <v>5.1</v>
+        <v>10.9</v>
       </c>
       <c r="AH38">
-        <v>0.5620000000000001</v>
+        <v>0.503</v>
       </c>
       <c r="AI38">
-        <v>0.5620000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AJ38">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AK38">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AL38">
-        <v>0.713</v>
+        <v>0.74</v>
       </c>
       <c r="AM38">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="AN38">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="AO38">
-        <v>6.8</v>
+        <v>11.8</v>
       </c>
       <c r="AP38">
+        <v>1.1</v>
+      </c>
+      <c r="AQ38">
+        <v>1.3</v>
+      </c>
+      <c r="AR38">
+        <v>1.1</v>
+      </c>
+      <c r="AS38">
         <v>2.1</v>
       </c>
-      <c r="AQ38">
-        <v>0.5</v>
-      </c>
-      <c r="AR38">
-        <v>1.3</v>
-      </c>
-      <c r="AS38">
-        <v>1.9</v>
-      </c>
       <c r="AT38">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="AU38">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="AV38" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AW38" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AX38" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY38">
-        <v>1986</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="39" spans="1:51">
@@ -6866,7 +6884,7 @@
         <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
         <v>123</v>
@@ -6875,34 +6893,34 @@
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F39">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G39">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H39">
         <v>78</v>
       </c>
       <c r="I39">
-        <v>0.731</v>
+        <v>0.526</v>
       </c>
       <c r="J39" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K39">
-        <v>10006</v>
+        <v>10868</v>
       </c>
       <c r="L39">
-        <v>1938</v>
+        <v>2090</v>
       </c>
       <c r="M39" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N39">
-        <v>10006</v>
+        <v>10868</v>
       </c>
       <c r="O39" t="s">
         <v>88</v>
@@ -6911,10 +6929,10 @@
         <v>123</v>
       </c>
       <c r="Q39">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="R39" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="S39">
         <v>28</v>
@@ -6923,10 +6941,10 @@
         <v>5</v>
       </c>
       <c r="U39" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V39" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="W39">
         <v>79</v>
@@ -6935,85 +6953,85 @@
         <v>31</v>
       </c>
       <c r="Y39">
-        <v>33.6</v>
+        <v>31.7</v>
       </c>
       <c r="Z39">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AA39">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="AB39">
-        <v>0.57</v>
+        <v>0.534</v>
       </c>
       <c r="AC39">
         <v>0</v>
       </c>
       <c r="AD39">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="AF39">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AG39">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="AH39">
-        <v>0.573</v>
+        <v>0.545</v>
       </c>
       <c r="AI39">
-        <v>0.57</v>
+        <v>0.535</v>
       </c>
       <c r="AJ39">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AK39">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AL39">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="AM39">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="AN39">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="AO39">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="AP39">
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR39">
+        <v>0.3</v>
+      </c>
+      <c r="AS39">
         <v>1.5</v>
       </c>
-      <c r="AS39">
-        <v>2</v>
-      </c>
       <c r="AT39">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AU39">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="AV39" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AW39" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX39" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY39">
-        <v>1985</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="40" spans="1:51">
@@ -7021,85 +7039,85 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F40">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G40">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I40">
-        <v>0.776</v>
+        <v>0.41</v>
       </c>
       <c r="J40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K40">
-        <v>9655</v>
+        <v>10203</v>
       </c>
       <c r="L40">
-        <v>1938</v>
+        <v>1556</v>
       </c>
       <c r="M40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N40">
-        <v>9655</v>
+        <v>10203</v>
       </c>
       <c r="O40" t="s">
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q40">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="R40" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="S40">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U40" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V40" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="W40">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X40">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y40">
-        <v>31.4</v>
+        <v>19.3</v>
       </c>
       <c r="Z40">
-        <v>7.2</v>
+        <v>2.9</v>
       </c>
       <c r="AA40">
-        <v>12.9</v>
+        <v>5.1</v>
       </c>
       <c r="AB40">
-        <v>0.556</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -7108,67 +7126,67 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
       <c r="AG40">
-        <v>12.8</v>
+        <v>5.1</v>
       </c>
       <c r="AH40">
-        <v>0.5570000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AI40">
-        <v>0.5570000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AJ40">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="AK40">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="AL40">
-        <v>0.765</v>
+        <v>0.713</v>
       </c>
       <c r="AM40">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="AN40">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO40">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AP40">
+        <v>2.1</v>
+      </c>
+      <c r="AQ40">
+        <v>0.5</v>
+      </c>
+      <c r="AR40">
         <v>1.3</v>
       </c>
-      <c r="AQ40">
-        <v>0.3</v>
-      </c>
-      <c r="AR40">
-        <v>1.5</v>
-      </c>
       <c r="AS40">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AT40">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU40">
-        <v>18.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AW40" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AX40" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AY40">
-        <v>1984</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="41" spans="1:51">
@@ -7176,141 +7194,451 @@
         <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="F41">
+        <v>57</v>
+      </c>
+      <c r="G41">
+        <v>57</v>
+      </c>
+      <c r="H41">
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <v>0.731</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K41">
-        <v>9119</v>
+        <v>10006</v>
       </c>
       <c r="L41">
-        <v>1559</v>
+        <v>1938</v>
       </c>
       <c r="M41" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N41">
-        <v>9119</v>
+        <v>10006</v>
       </c>
       <c r="O41" t="s">
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q41">
-        <v>1951</v>
+        <v>1957</v>
       </c>
       <c r="R41" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="S41">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U41" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="V41" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="W41">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y41">
-        <v>23.6</v>
+        <v>33.6</v>
       </c>
       <c r="Z41">
-        <v>3.4</v>
+        <v>7.7</v>
       </c>
       <c r="AA41">
-        <v>6.2</v>
+        <v>13.4</v>
       </c>
       <c r="AB41">
-        <v>0.543</v>
+        <v>0.57</v>
       </c>
       <c r="AC41">
         <v>0</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE41">
         <v>0</v>
       </c>
       <c r="AF41">
+        <v>7.7</v>
+      </c>
+      <c r="AG41">
+        <v>13.4</v>
+      </c>
+      <c r="AH41">
+        <v>0.573</v>
+      </c>
+      <c r="AI41">
+        <v>0.57</v>
+      </c>
+      <c r="AJ41">
+        <v>4.5</v>
+      </c>
+      <c r="AK41">
+        <v>5.9</v>
+      </c>
+      <c r="AL41">
+        <v>0.76</v>
+      </c>
+      <c r="AM41">
+        <v>2.9</v>
+      </c>
+      <c r="AN41">
+        <v>6.1</v>
+      </c>
+      <c r="AO41">
+        <v>9</v>
+      </c>
+      <c r="AP41">
+        <v>1.8</v>
+      </c>
+      <c r="AQ41">
+        <v>0.4</v>
+      </c>
+      <c r="AR41">
+        <v>1.5</v>
+      </c>
+      <c r="AS41">
+        <v>2</v>
+      </c>
+      <c r="AT41">
+        <v>3</v>
+      </c>
+      <c r="AU41">
+        <v>19.8</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY41">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42">
+        <v>59</v>
+      </c>
+      <c r="G42">
+        <v>59</v>
+      </c>
+      <c r="H42">
+        <v>76</v>
+      </c>
+      <c r="I42">
+        <v>0.776</v>
+      </c>
+      <c r="J42" t="s">
+        <v>153</v>
+      </c>
+      <c r="K42">
+        <v>9655</v>
+      </c>
+      <c r="L42">
+        <v>1938</v>
+      </c>
+      <c r="M42" t="s">
+        <v>194</v>
+      </c>
+      <c r="N42">
+        <v>9655</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q42">
+        <v>1957</v>
+      </c>
+      <c r="R42" t="s">
+        <v>199</v>
+      </c>
+      <c r="S42">
+        <v>27</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+      <c r="U42" t="s">
+        <v>201</v>
+      </c>
+      <c r="V42" t="s">
+        <v>130</v>
+      </c>
+      <c r="W42">
+        <v>82</v>
+      </c>
+      <c r="X42">
+        <v>10</v>
+      </c>
+      <c r="Y42">
+        <v>31.4</v>
+      </c>
+      <c r="Z42">
+        <v>7.2</v>
+      </c>
+      <c r="AA42">
+        <v>12.9</v>
+      </c>
+      <c r="AB42">
+        <v>0.556</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0.333</v>
+      </c>
+      <c r="AF42">
+        <v>7.1</v>
+      </c>
+      <c r="AG42">
+        <v>12.8</v>
+      </c>
+      <c r="AH42">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="AI42">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="AJ42">
+        <v>4.1</v>
+      </c>
+      <c r="AK42">
+        <v>5.4</v>
+      </c>
+      <c r="AL42">
+        <v>0.765</v>
+      </c>
+      <c r="AM42">
+        <v>2.5</v>
+      </c>
+      <c r="AN42">
+        <v>4.9</v>
+      </c>
+      <c r="AO42">
+        <v>7.4</v>
+      </c>
+      <c r="AP42">
+        <v>1.3</v>
+      </c>
+      <c r="AQ42">
+        <v>0.3</v>
+      </c>
+      <c r="AR42">
+        <v>1.5</v>
+      </c>
+      <c r="AS42">
+        <v>1.8</v>
+      </c>
+      <c r="AT42">
+        <v>3</v>
+      </c>
+      <c r="AU42">
+        <v>18.4</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY42">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" t="s">
+        <v>153</v>
+      </c>
+      <c r="K43">
+        <v>9119</v>
+      </c>
+      <c r="L43">
+        <v>1559</v>
+      </c>
+      <c r="M43" t="s">
+        <v>195</v>
+      </c>
+      <c r="N43">
+        <v>9119</v>
+      </c>
+      <c r="O43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P43" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q43">
+        <v>1951</v>
+      </c>
+      <c r="R43" t="s">
+        <v>199</v>
+      </c>
+      <c r="S43">
+        <v>32</v>
+      </c>
+      <c r="T43">
+        <v>9</v>
+      </c>
+      <c r="U43" t="s">
+        <v>201</v>
+      </c>
+      <c r="V43" t="s">
+        <v>147</v>
+      </c>
+      <c r="W43">
+        <v>74</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>23.6</v>
+      </c>
+      <c r="Z43">
         <v>3.4</v>
       </c>
-      <c r="AG41">
+      <c r="AA43">
         <v>6.2</v>
       </c>
-      <c r="AH41">
+      <c r="AB43">
+        <v>0.543</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>3.4</v>
+      </c>
+      <c r="AG43">
+        <v>6.2</v>
+      </c>
+      <c r="AH43">
         <v>0.545</v>
       </c>
-      <c r="AI41">
+      <c r="AI43">
         <v>0.543</v>
       </c>
-      <c r="AJ41">
+      <c r="AJ43">
         <v>2.2</v>
       </c>
-      <c r="AK41">
+      <c r="AK43">
         <v>2.8</v>
       </c>
-      <c r="AL41">
+      <c r="AL43">
         <v>0.793</v>
       </c>
-      <c r="AM41">
+      <c r="AM43">
         <v>1.4</v>
       </c>
-      <c r="AN41">
+      <c r="AN43">
         <v>3.3</v>
       </c>
-      <c r="AO41">
+      <c r="AO43">
         <v>4.6</v>
       </c>
-      <c r="AP41">
+      <c r="AP43">
         <v>1.9</v>
       </c>
-      <c r="AQ41">
+      <c r="AQ43">
         <v>1.1</v>
       </c>
-      <c r="AR41">
+      <c r="AR43">
         <v>1.2</v>
       </c>
-      <c r="AS41">
+      <c r="AS43">
         <v>1.5</v>
       </c>
-      <c r="AT41">
+      <c r="AT43">
         <v>2.7</v>
       </c>
-      <c r="AU41">
+      <c r="AU43">
         <v>9</v>
       </c>
-      <c r="AV41" t="s">
-        <v>189</v>
-      </c>
-      <c r="AW41" t="s">
-        <v>196</v>
-      </c>
-      <c r="AX41" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY41">
+      <c r="AV43" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY43">
         <v>1983</v>
       </c>
     </row>

--- a/smoy_winners.xlsx
+++ b/smoy_winners.xlsx
@@ -46,19 +46,19 @@
     <t>winner</t>
   </si>
   <si>
-    <t>seas_id_x</t>
-  </si>
-  <si>
-    <t>player_id</t>
+    <t>seas_id</t>
+  </si>
+  <si>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>season_x</t>
   </si>
   <si>
-    <t>seas_id_y</t>
-  </si>
-  <si>
     <t>season_ending_year_y</t>
+  </si>
+  <si>
+    <t>player_id_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -1184,11 +1184,11 @@
       <c r="M2" t="s">
         <v>154</v>
       </c>
-      <c r="N2">
-        <v>31663</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
+      </c>
+      <c r="O2">
+        <v>3832</v>
       </c>
       <c r="P2" t="s">
         <v>94</v>
@@ -1339,11 +1339,11 @@
       <c r="M3" t="s">
         <v>155</v>
       </c>
-      <c r="N3">
-        <v>30890</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>52</v>
+      </c>
+      <c r="O3">
+        <v>3412</v>
       </c>
       <c r="P3" t="s">
         <v>95</v>
@@ -1494,11 +1494,11 @@
       <c r="M4" t="s">
         <v>156</v>
       </c>
-      <c r="N4">
-        <v>30411</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4" t="s">
         <v>53</v>
+      </c>
+      <c r="O4">
+        <v>5013</v>
       </c>
       <c r="P4" t="s">
         <v>96</v>
@@ -1649,11 +1649,11 @@
       <c r="M5" t="s">
         <v>157</v>
       </c>
-      <c r="N5">
-        <v>29298</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>54</v>
+      </c>
+      <c r="O5">
+        <v>2865</v>
       </c>
       <c r="P5" t="s">
         <v>97</v>
@@ -1804,11 +1804,11 @@
       <c r="M6" t="s">
         <v>158</v>
       </c>
-      <c r="N6">
-        <v>28762</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>55</v>
+      </c>
+      <c r="O6">
+        <v>3776</v>
       </c>
       <c r="P6" t="s">
         <v>98</v>
@@ -1959,11 +1959,11 @@
       <c r="M7" t="s">
         <v>159</v>
       </c>
-      <c r="N7">
-        <v>28013</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" t="s">
         <v>56</v>
+      </c>
+      <c r="O7">
+        <v>3354</v>
       </c>
       <c r="P7" t="s">
         <v>99</v>
@@ -2114,11 +2114,11 @@
       <c r="M8" t="s">
         <v>160</v>
       </c>
-      <c r="N8">
-        <v>27326</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" t="s">
         <v>57</v>
+      </c>
+      <c r="O8">
+        <v>3354</v>
       </c>
       <c r="P8" t="s">
         <v>99</v>
@@ -2269,11 +2269,11 @@
       <c r="M9" t="s">
         <v>161</v>
       </c>
-      <c r="N9">
-        <v>26508</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>58</v>
+      </c>
+      <c r="O9">
+        <v>1677</v>
       </c>
       <c r="P9" t="s">
         <v>100</v>
@@ -2424,11 +2424,11 @@
       <c r="M10" t="s">
         <v>162</v>
       </c>
-      <c r="N10">
-        <v>25966</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10" t="s">
         <v>59</v>
+      </c>
+      <c r="O10">
+        <v>2332</v>
       </c>
       <c r="P10" t="s">
         <v>101</v>
@@ -2579,11 +2579,11 @@
       <c r="M11" t="s">
         <v>163</v>
       </c>
-      <c r="N11">
-        <v>25497</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>60</v>
+      </c>
+      <c r="O11">
+        <v>3354</v>
       </c>
       <c r="P11" t="s">
         <v>99</v>
@@ -2734,11 +2734,11 @@
       <c r="M12" t="s">
         <v>164</v>
       </c>
-      <c r="N12">
-        <v>24728</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>61</v>
+      </c>
+      <c r="O12">
+        <v>2332</v>
       </c>
       <c r="P12" t="s">
         <v>101</v>
@@ -2889,11 +2889,11 @@
       <c r="M13" t="s">
         <v>165</v>
       </c>
-      <c r="N13">
-        <v>24140</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>62</v>
+      </c>
+      <c r="O13">
+        <v>2220</v>
       </c>
       <c r="P13" t="s">
         <v>102</v>
@@ -3044,11 +3044,11 @@
       <c r="M14" t="s">
         <v>166</v>
       </c>
-      <c r="N14">
-        <v>23594</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
         <v>63</v>
+      </c>
+      <c r="O14">
+        <v>2354</v>
       </c>
       <c r="P14" t="s">
         <v>103</v>
@@ -3199,11 +3199,11 @@
       <c r="M15" t="s">
         <v>167</v>
       </c>
-      <c r="N15">
-        <v>23106</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>64</v>
+      </c>
+      <c r="O15">
+        <v>3192</v>
       </c>
       <c r="P15" t="s">
         <v>104</v>
@@ -3354,11 +3354,11 @@
       <c r="M16" t="s">
         <v>168</v>
       </c>
-      <c r="N16">
-        <v>22391</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>65</v>
+      </c>
+      <c r="O16">
+        <v>2332</v>
       </c>
       <c r="P16" t="s">
         <v>101</v>
@@ -3509,11 +3509,11 @@
       <c r="M17" t="s">
         <v>169</v>
       </c>
-      <c r="N17">
-        <v>21831</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s">
         <v>66</v>
+      </c>
+      <c r="O17">
+        <v>2427</v>
       </c>
       <c r="P17" t="s">
         <v>105</v>
@@ -3664,11 +3664,11 @@
       <c r="M18" t="s">
         <v>170</v>
       </c>
-      <c r="N18">
-        <v>21344</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>67</v>
+      </c>
+      <c r="O18">
+        <v>3435</v>
       </c>
       <c r="P18" t="s">
         <v>106</v>
@@ -3819,11 +3819,11 @@
       <c r="M19" t="s">
         <v>171</v>
       </c>
-      <c r="N19">
-        <v>20760</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>68</v>
+      </c>
+      <c r="O19">
+        <v>3263</v>
       </c>
       <c r="P19" t="s">
         <v>107</v>
@@ -3974,11 +3974,11 @@
       <c r="M20" t="s">
         <v>172</v>
       </c>
-      <c r="N20">
-        <v>20282</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N20" t="s">
         <v>69</v>
+      </c>
+      <c r="O20">
+        <v>3709</v>
       </c>
       <c r="P20" t="s">
         <v>108</v>
@@ -4129,11 +4129,11 @@
       <c r="M21" t="s">
         <v>173</v>
       </c>
-      <c r="N21">
-        <v>19365</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>70</v>
+      </c>
+      <c r="O21">
+        <v>343</v>
       </c>
       <c r="P21" t="s">
         <v>109</v>
@@ -4284,11 +4284,11 @@
       <c r="M22" t="s">
         <v>174</v>
       </c>
-      <c r="N22">
-        <v>18751</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="N22" t="s">
         <v>71</v>
+      </c>
+      <c r="O22">
+        <v>216</v>
       </c>
       <c r="P22" t="s">
         <v>110</v>
@@ -4439,11 +4439,11 @@
       <c r="M23" t="s">
         <v>175</v>
       </c>
-      <c r="N23">
-        <v>18294</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s">
         <v>72</v>
+      </c>
+      <c r="O23">
+        <v>558</v>
       </c>
       <c r="P23" t="s">
         <v>111</v>
@@ -4594,11 +4594,11 @@
       <c r="M24" t="s">
         <v>176</v>
       </c>
-      <c r="N24">
-        <v>17842</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24" t="s">
         <v>73</v>
+      </c>
+      <c r="O24">
+        <v>1023</v>
       </c>
       <c r="P24" t="s">
         <v>112</v>
@@ -4749,11 +4749,11 @@
       <c r="M25" t="s">
         <v>177</v>
       </c>
-      <c r="N25">
-        <v>17212</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N25" t="s">
         <v>74</v>
+      </c>
+      <c r="O25">
+        <v>21</v>
       </c>
       <c r="P25" t="s">
         <v>113</v>
@@ -4904,11 +4904,11 @@
       <c r="M26" t="s">
         <v>178</v>
       </c>
-      <c r="N26">
-        <v>17111</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N26" t="s">
         <v>75</v>
+      </c>
+      <c r="O26">
+        <v>4339</v>
       </c>
       <c r="P26" t="s">
         <v>114</v>
@@ -5059,11 +5059,11 @@
       <c r="M27" t="s">
         <v>179</v>
       </c>
-      <c r="N27">
-        <v>16338</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="N27" t="s">
         <v>76</v>
+      </c>
+      <c r="O27">
+        <v>1173</v>
       </c>
       <c r="P27" t="s">
         <v>115</v>
@@ -5214,11 +5214,11 @@
       <c r="M28" t="s">
         <v>180</v>
       </c>
-      <c r="N28">
-        <v>15806</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="N28" t="s">
         <v>77</v>
+      </c>
+      <c r="O28">
+        <v>1144</v>
       </c>
       <c r="P28" t="s">
         <v>116</v>
@@ -5369,11 +5369,11 @@
       <c r="M29" t="s">
         <v>181</v>
       </c>
-      <c r="N29">
-        <v>15391</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="N29" t="s">
         <v>78</v>
+      </c>
+      <c r="O29">
+        <v>2794</v>
       </c>
       <c r="P29" t="s">
         <v>117</v>
@@ -5524,11 +5524,11 @@
       <c r="M30" t="s">
         <v>182</v>
       </c>
-      <c r="N30">
-        <v>15049</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="N30" t="s">
         <v>79</v>
+      </c>
+      <c r="O30">
+        <v>4901</v>
       </c>
       <c r="P30" t="s">
         <v>118</v>
@@ -5679,11 +5679,11 @@
       <c r="M31" t="s">
         <v>183</v>
       </c>
-      <c r="N31">
-        <v>14109</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="N31" t="s">
         <v>80</v>
+      </c>
+      <c r="O31">
+        <v>235</v>
       </c>
       <c r="P31" t="s">
         <v>119</v>
@@ -5834,11 +5834,11 @@
       <c r="M32" t="s">
         <v>184</v>
       </c>
-      <c r="N32">
-        <v>13722</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="N32" t="s">
         <v>81</v>
+      </c>
+      <c r="O32">
+        <v>1289</v>
       </c>
       <c r="P32" t="s">
         <v>120</v>
@@ -5989,11 +5989,11 @@
       <c r="M33" t="s">
         <v>185</v>
       </c>
-      <c r="N33">
-        <v>13240</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="N33" t="s">
         <v>82</v>
+      </c>
+      <c r="O33">
+        <v>978</v>
       </c>
       <c r="P33" t="s">
         <v>121</v>
@@ -6144,11 +6144,11 @@
       <c r="M34" t="s">
         <v>186</v>
       </c>
-      <c r="N34">
-        <v>12817</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="N34" t="s">
         <v>83</v>
+      </c>
+      <c r="O34">
+        <v>1355</v>
       </c>
       <c r="P34" t="s">
         <v>122</v>
@@ -6299,11 +6299,11 @@
       <c r="M35" t="s">
         <v>187</v>
       </c>
-      <c r="N35">
-        <v>12374</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="N35" t="s">
         <v>84</v>
+      </c>
+      <c r="O35">
+        <v>1355</v>
       </c>
       <c r="P35" t="s">
         <v>122</v>
@@ -6454,11 +6454,11 @@
       <c r="M36" t="s">
         <v>188</v>
       </c>
-      <c r="N36">
-        <v>12152</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="N36" t="s">
         <v>85</v>
+      </c>
+      <c r="O36">
+        <v>4288</v>
       </c>
       <c r="P36" t="s">
         <v>123</v>
@@ -6609,11 +6609,11 @@
       <c r="M37" t="s">
         <v>189</v>
       </c>
-      <c r="N37">
-        <v>11500</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="N37" t="s">
         <v>86</v>
+      </c>
+      <c r="O37">
+        <v>1621</v>
       </c>
       <c r="P37" t="s">
         <v>124</v>
@@ -6764,11 +6764,11 @@
       <c r="M38" t="s">
         <v>190</v>
       </c>
-      <c r="N38">
-        <v>11294</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="N38" t="s">
         <v>87</v>
+      </c>
+      <c r="O38">
+        <v>4425</v>
       </c>
       <c r="P38" t="s">
         <v>125</v>
@@ -6919,11 +6919,11 @@
       <c r="M39" t="s">
         <v>191</v>
       </c>
-      <c r="N39">
-        <v>10868</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="N39" t="s">
         <v>88</v>
+      </c>
+      <c r="O39">
+        <v>4288</v>
       </c>
       <c r="P39" t="s">
         <v>123</v>
@@ -7074,11 +7074,11 @@
       <c r="M40" t="s">
         <v>192</v>
       </c>
-      <c r="N40">
-        <v>10203</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="N40" t="s">
         <v>89</v>
+      </c>
+      <c r="O40">
+        <v>422</v>
       </c>
       <c r="P40" t="s">
         <v>126</v>
@@ -7229,11 +7229,11 @@
       <c r="M41" t="s">
         <v>193</v>
       </c>
-      <c r="N41">
-        <v>10006</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="N41" t="s">
         <v>90</v>
+      </c>
+      <c r="O41">
+        <v>3107</v>
       </c>
       <c r="P41" t="s">
         <v>127</v>
@@ -7384,11 +7384,11 @@
       <c r="M42" t="s">
         <v>194</v>
       </c>
-      <c r="N42">
-        <v>9655</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="N42" t="s">
         <v>91</v>
+      </c>
+      <c r="O42">
+        <v>3107</v>
       </c>
       <c r="P42" t="s">
         <v>127</v>
@@ -7527,11 +7527,11 @@
       <c r="M43" t="s">
         <v>195</v>
       </c>
-      <c r="N43">
-        <v>9119</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="N43" t="s">
         <v>92</v>
+      </c>
+      <c r="O43">
+        <v>559</v>
       </c>
       <c r="P43" t="s">
         <v>128</v>

--- a/smoy_winners.xlsx
+++ b/smoy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="205">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>1982-83</t>
+  </si>
+  <si>
+    <t>Toni Kukoc</t>
   </si>
   <si>
     <t>C</t>
@@ -1197,7 +1200,7 @@
         <v>1999</v>
       </c>
       <c r="R2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S2">
         <v>25</v>
@@ -1206,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V2" t="s">
         <v>129</v>
@@ -1290,10 +1293,10 @@
         <v>154</v>
       </c>
       <c r="AW2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1352,7 +1355,7 @@
         <v>1992</v>
       </c>
       <c r="R3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S3">
         <v>31</v>
@@ -1361,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="U3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V3" t="s">
         <v>130</v>
@@ -1445,10 +1448,10 @@
         <v>155</v>
       </c>
       <c r="AW3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1507,7 +1510,7 @@
         <v>1999</v>
       </c>
       <c r="R4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S4">
         <v>23</v>
@@ -1516,7 +1519,7 @@
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V4" t="s">
         <v>131</v>
@@ -1600,10 +1603,10 @@
         <v>156</v>
       </c>
       <c r="AW4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1662,7 +1665,7 @@
         <v>1992</v>
       </c>
       <c r="R5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S5">
         <v>29</v>
@@ -1671,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V5" t="s">
         <v>132</v>
@@ -1755,10 +1758,10 @@
         <v>157</v>
       </c>
       <c r="AW5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -1817,7 +1820,7 @@
         <v>1993</v>
       </c>
       <c r="R6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S6">
         <v>27</v>
@@ -1826,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V6" t="s">
         <v>133</v>
@@ -1910,10 +1913,10 @@
         <v>158</v>
       </c>
       <c r="AW6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY6">
         <v>2020</v>
@@ -1972,7 +1975,7 @@
         <v>1986</v>
       </c>
       <c r="R7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S7">
         <v>33</v>
@@ -1981,7 +1984,7 @@
         <v>14</v>
       </c>
       <c r="U7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V7" t="s">
         <v>133</v>
@@ -2065,10 +2068,10 @@
         <v>159</v>
       </c>
       <c r="AW7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY7">
         <v>2019</v>
@@ -2127,7 +2130,7 @@
         <v>1986</v>
       </c>
       <c r="R8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S8">
         <v>32</v>
@@ -2136,7 +2139,7 @@
         <v>13</v>
       </c>
       <c r="U8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V8" t="s">
         <v>133</v>
@@ -2220,10 +2223,10 @@
         <v>160</v>
       </c>
       <c r="AW8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY8">
         <v>2018</v>
@@ -2282,7 +2285,7 @@
         <v>1988</v>
       </c>
       <c r="R9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S9">
         <v>29</v>
@@ -2291,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V9" t="s">
         <v>134</v>
@@ -2375,10 +2378,10 @@
         <v>161</v>
       </c>
       <c r="AW9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY9">
         <v>2017</v>
@@ -2437,7 +2440,7 @@
         <v>1980</v>
       </c>
       <c r="R10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S10">
         <v>36</v>
@@ -2446,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="U10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V10" t="s">
         <v>133</v>
@@ -2530,10 +2533,10 @@
         <v>162</v>
       </c>
       <c r="AW10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY10">
         <v>2016</v>
@@ -2592,7 +2595,7 @@
         <v>1986</v>
       </c>
       <c r="R11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S11">
         <v>29</v>
@@ -2601,7 +2604,7 @@
         <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V11" t="s">
         <v>135</v>
@@ -2685,10 +2688,10 @@
         <v>163</v>
       </c>
       <c r="AW11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY11">
         <v>2015</v>
@@ -2747,7 +2750,7 @@
         <v>1980</v>
       </c>
       <c r="R12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S12">
         <v>34</v>
@@ -2756,7 +2759,7 @@
         <v>14</v>
       </c>
       <c r="U12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V12" t="s">
         <v>133</v>
@@ -2840,10 +2843,10 @@
         <v>164</v>
       </c>
       <c r="AW12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY12">
         <v>2014</v>
@@ -2902,7 +2905,7 @@
         <v>1985</v>
       </c>
       <c r="R13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S13">
         <v>28</v>
@@ -2911,7 +2914,7 @@
         <v>9</v>
       </c>
       <c r="U13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V13" t="s">
         <v>136</v>
@@ -2995,10 +2998,10 @@
         <v>165</v>
       </c>
       <c r="AW13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY13">
         <v>2013</v>
@@ -3057,7 +3060,7 @@
         <v>1989</v>
       </c>
       <c r="R14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S14">
         <v>23</v>
@@ -3066,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="U14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V14" t="s">
         <v>137</v>
@@ -3150,10 +3153,10 @@
         <v>166</v>
       </c>
       <c r="AW14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY14">
         <v>2012</v>
@@ -3212,7 +3215,7 @@
         <v>1979</v>
       </c>
       <c r="R15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S15">
         <v>32</v>
@@ -3221,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="U15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V15" t="s">
         <v>138</v>
@@ -3305,10 +3308,10 @@
         <v>167</v>
       </c>
       <c r="AW15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY15">
         <v>2011</v>
@@ -3367,7 +3370,7 @@
         <v>1980</v>
       </c>
       <c r="R16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S16">
         <v>30</v>
@@ -3376,7 +3379,7 @@
         <v>10</v>
       </c>
       <c r="U16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V16" t="s">
         <v>139</v>
@@ -3460,10 +3463,10 @@
         <v>168</v>
       </c>
       <c r="AW16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY16">
         <v>2010</v>
@@ -3522,7 +3525,7 @@
         <v>1977</v>
       </c>
       <c r="R17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S17">
         <v>32</v>
@@ -3531,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="U17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V17" t="s">
         <v>140</v>
@@ -3615,10 +3618,10 @@
         <v>169</v>
       </c>
       <c r="AW17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY17">
         <v>2009</v>
@@ -3677,7 +3680,7 @@
         <v>1977</v>
       </c>
       <c r="R18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S18">
         <v>31</v>
@@ -3686,7 +3689,7 @@
         <v>6</v>
       </c>
       <c r="U18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V18" t="s">
         <v>141</v>
@@ -3770,10 +3773,10 @@
         <v>170</v>
       </c>
       <c r="AW18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY18">
         <v>2008</v>
@@ -3832,7 +3835,7 @@
         <v>1982</v>
       </c>
       <c r="R19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S19">
         <v>25</v>
@@ -3841,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="U19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V19" t="s">
         <v>142</v>
@@ -3925,10 +3928,10 @@
         <v>171</v>
       </c>
       <c r="AW19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY19">
         <v>2007</v>
@@ -3987,7 +3990,7 @@
         <v>1980</v>
       </c>
       <c r="R20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S20">
         <v>26</v>
@@ -3996,7 +3999,7 @@
         <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V20" t="s">
         <v>143</v>
@@ -4080,10 +4083,10 @@
         <v>172</v>
       </c>
       <c r="AW20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY20">
         <v>2006</v>
@@ -4142,7 +4145,7 @@
         <v>1983</v>
       </c>
       <c r="R21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S21">
         <v>22</v>
@@ -4151,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V21" t="s">
         <v>144</v>
@@ -4235,10 +4238,10 @@
         <v>173</v>
       </c>
       <c r="AW21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY21">
         <v>2005</v>
@@ -4297,7 +4300,7 @@
         <v>1976</v>
       </c>
       <c r="R22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S22">
         <v>28</v>
@@ -4306,7 +4309,7 @@
         <v>6</v>
       </c>
       <c r="U22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V22" t="s">
         <v>140</v>
@@ -4390,10 +4393,10 @@
         <v>174</v>
       </c>
       <c r="AW22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY22">
         <v>2004</v>
@@ -4452,7 +4455,7 @@
         <v>1973</v>
       </c>
       <c r="R23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S23">
         <v>30</v>
@@ -4461,7 +4464,7 @@
         <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V23" t="s">
         <v>145</v>
@@ -4545,10 +4548,10 @@
         <v>175</v>
       </c>
       <c r="AW23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY23">
         <v>2003</v>
@@ -4607,7 +4610,7 @@
         <v>1973</v>
       </c>
       <c r="R24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S24">
         <v>29</v>
@@ -4616,7 +4619,7 @@
         <v>7</v>
       </c>
       <c r="U24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V24" t="s">
         <v>146</v>
@@ -4700,10 +4703,10 @@
         <v>176</v>
       </c>
       <c r="AW24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY24">
         <v>2002</v>
@@ -4762,7 +4765,7 @@
         <v>1972</v>
       </c>
       <c r="R25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S25">
         <v>29</v>
@@ -4771,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="U25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V25" t="s">
         <v>147</v>
@@ -4855,10 +4858,10 @@
         <v>177</v>
       </c>
       <c r="AW25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -4917,7 +4920,7 @@
         <v>1971</v>
       </c>
       <c r="R26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S26">
         <v>29</v>
@@ -4926,7 +4929,7 @@
         <v>7</v>
       </c>
       <c r="U26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V26" t="s">
         <v>142</v>
@@ -5010,10 +5013,10 @@
         <v>178</v>
       </c>
       <c r="AW26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY26">
         <v>2000</v>
@@ -5072,7 +5075,7 @@
         <v>1968</v>
       </c>
       <c r="R27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S27">
         <v>31</v>
@@ -5081,7 +5084,7 @@
         <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V27" t="s">
         <v>148</v>
@@ -5165,10 +5168,10 @@
         <v>179</v>
       </c>
       <c r="AW27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY27">
         <v>1999</v>
@@ -5227,7 +5230,7 @@
         <v>1966</v>
       </c>
       <c r="R28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S28">
         <v>32</v>
@@ -5236,7 +5239,7 @@
         <v>10</v>
       </c>
       <c r="U28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V28" t="s">
         <v>142</v>
@@ -5320,10 +5323,10 @@
         <v>180</v>
       </c>
       <c r="AW28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY28">
         <v>1998</v>
@@ -5382,7 +5385,7 @@
         <v>1965</v>
       </c>
       <c r="R29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S29">
         <v>32</v>
@@ -5391,7 +5394,7 @@
         <v>8</v>
       </c>
       <c r="U29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V29" t="s">
         <v>136</v>
@@ -5475,10 +5478,10 @@
         <v>181</v>
       </c>
       <c r="AW29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY29">
         <v>1997</v>
@@ -5531,13 +5534,13 @@
         <v>4901</v>
       </c>
       <c r="P30" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>1968</v>
       </c>
       <c r="R30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S30">
         <v>28</v>
@@ -5546,7 +5549,7 @@
         <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V30" t="s">
         <v>144</v>
@@ -5630,10 +5633,10 @@
         <v>182</v>
       </c>
       <c r="AW30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY30">
         <v>1996</v>
@@ -5692,7 +5695,7 @@
         <v>1966</v>
       </c>
       <c r="R31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S31">
         <v>29</v>
@@ -5701,7 +5704,7 @@
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V31" t="s">
         <v>136</v>
@@ -5785,10 +5788,10 @@
         <v>183</v>
       </c>
       <c r="AW31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY31">
         <v>1995</v>
@@ -5847,7 +5850,7 @@
         <v>1964</v>
       </c>
       <c r="R32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S32">
         <v>30</v>
@@ -5856,7 +5859,7 @@
         <v>8</v>
       </c>
       <c r="U32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V32" t="s">
         <v>149</v>
@@ -5940,10 +5943,10 @@
         <v>184</v>
       </c>
       <c r="AW32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY32">
         <v>1994</v>
@@ -6002,7 +6005,7 @@
         <v>1966</v>
       </c>
       <c r="R33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S33">
         <v>27</v>
@@ -6011,7 +6014,7 @@
         <v>4</v>
       </c>
       <c r="U33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V33" t="s">
         <v>150</v>
@@ -6095,10 +6098,10 @@
         <v>185</v>
       </c>
       <c r="AW33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY33">
         <v>1993</v>
@@ -6157,7 +6160,7 @@
         <v>1962</v>
       </c>
       <c r="R34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S34">
         <v>30</v>
@@ -6166,7 +6169,7 @@
         <v>7</v>
       </c>
       <c r="U34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V34" t="s">
         <v>151</v>
@@ -6250,10 +6253,10 @@
         <v>186</v>
       </c>
       <c r="AW34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY34">
         <v>1992</v>
@@ -6312,7 +6315,7 @@
         <v>1962</v>
       </c>
       <c r="R35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S35">
         <v>29</v>
@@ -6321,7 +6324,7 @@
         <v>6</v>
       </c>
       <c r="U35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V35" t="s">
         <v>151</v>
@@ -6405,10 +6408,10 @@
         <v>187</v>
       </c>
       <c r="AW35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY35">
         <v>1991</v>
@@ -6467,7 +6470,7 @@
         <v>1959</v>
       </c>
       <c r="R36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S36">
         <v>31</v>
@@ -6476,7 +6479,7 @@
         <v>8</v>
       </c>
       <c r="U36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V36" t="s">
         <v>152</v>
@@ -6560,10 +6563,10 @@
         <v>188</v>
       </c>
       <c r="AW36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY36">
         <v>1990</v>
@@ -6622,7 +6625,7 @@
         <v>1959</v>
       </c>
       <c r="R37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S37">
         <v>30</v>
@@ -6631,7 +6634,7 @@
         <v>8</v>
       </c>
       <c r="U37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V37" t="s">
         <v>142</v>
@@ -6715,10 +6718,10 @@
         <v>189</v>
       </c>
       <c r="AW37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY37">
         <v>1989</v>
@@ -6777,7 +6780,7 @@
         <v>1964</v>
       </c>
       <c r="R38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S38">
         <v>24</v>
@@ -6786,7 +6789,7 @@
         <v>2</v>
       </c>
       <c r="U38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V38" t="s">
         <v>140</v>
@@ -6870,10 +6873,10 @@
         <v>190</v>
       </c>
       <c r="AW38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AX38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY38">
         <v>1988</v>
@@ -6932,7 +6935,7 @@
         <v>1959</v>
       </c>
       <c r="R39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S39">
         <v>28</v>
@@ -6941,7 +6944,7 @@
         <v>5</v>
       </c>
       <c r="U39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V39" t="s">
         <v>152</v>
@@ -7025,10 +7028,10 @@
         <v>191</v>
       </c>
       <c r="AW39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY39">
         <v>1987</v>
@@ -7087,7 +7090,7 @@
         <v>1952</v>
       </c>
       <c r="R40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S40">
         <v>34</v>
@@ -7096,7 +7099,7 @@
         <v>9</v>
       </c>
       <c r="U40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V40" t="s">
         <v>130</v>
@@ -7180,10 +7183,10 @@
         <v>192</v>
       </c>
       <c r="AW40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY40">
         <v>1986</v>
@@ -7242,7 +7245,7 @@
         <v>1957</v>
       </c>
       <c r="R41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S41">
         <v>28</v>
@@ -7251,7 +7254,7 @@
         <v>5</v>
       </c>
       <c r="U41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V41" t="s">
         <v>130</v>
@@ -7335,10 +7338,10 @@
         <v>193</v>
       </c>
       <c r="AW41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY41">
         <v>1985</v>
@@ -7397,7 +7400,7 @@
         <v>1957</v>
       </c>
       <c r="R42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S42">
         <v>27</v>
@@ -7406,7 +7409,7 @@
         <v>4</v>
       </c>
       <c r="U42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V42" t="s">
         <v>130</v>
@@ -7490,10 +7493,10 @@
         <v>194</v>
       </c>
       <c r="AW42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY42">
         <v>1984</v>
@@ -7540,7 +7543,7 @@
         <v>1951</v>
       </c>
       <c r="R43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S43">
         <v>32</v>
@@ -7549,7 +7552,7 @@
         <v>9</v>
       </c>
       <c r="U43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V43" t="s">
         <v>147</v>
@@ -7633,10 +7636,10 @@
         <v>195</v>
       </c>
       <c r="AW43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AY43">
         <v>1983</v>

--- a/smoy_winners.xlsx
+++ b/smoy_winners.xlsx
@@ -1191,7 +1191,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>3832</v>
+        <v>3838</v>
       </c>
       <c r="P2" t="s">
         <v>94</v>
@@ -1346,7 +1346,7 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>3412</v>
+        <v>3418</v>
       </c>
       <c r="P3" t="s">
         <v>95</v>
@@ -1501,7 +1501,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>5013</v>
+        <v>5020</v>
       </c>
       <c r="P4" t="s">
         <v>96</v>
@@ -1656,7 +1656,7 @@
         <v>54</v>
       </c>
       <c r="O5">
-        <v>2865</v>
+        <v>2870</v>
       </c>
       <c r="P5" t="s">
         <v>97</v>
@@ -1811,7 +1811,7 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>3776</v>
+        <v>3782</v>
       </c>
       <c r="P6" t="s">
         <v>98</v>
@@ -1966,7 +1966,7 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>3354</v>
+        <v>3360</v>
       </c>
       <c r="P7" t="s">
         <v>99</v>
@@ -2121,7 +2121,7 @@
         <v>57</v>
       </c>
       <c r="O8">
-        <v>3354</v>
+        <v>3360</v>
       </c>
       <c r="P8" t="s">
         <v>99</v>
@@ -2276,7 +2276,7 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="P9" t="s">
         <v>100</v>
@@ -2431,7 +2431,7 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="P10" t="s">
         <v>101</v>
@@ -2586,7 +2586,7 @@
         <v>60</v>
       </c>
       <c r="O11">
-        <v>3354</v>
+        <v>3360</v>
       </c>
       <c r="P11" t="s">
         <v>99</v>
@@ -2741,7 +2741,7 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="P12" t="s">
         <v>101</v>
@@ -2896,7 +2896,7 @@
         <v>62</v>
       </c>
       <c r="O13">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="P13" t="s">
         <v>102</v>
@@ -3051,7 +3051,7 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="P14" t="s">
         <v>103</v>
@@ -3206,7 +3206,7 @@
         <v>64</v>
       </c>
       <c r="O15">
-        <v>3192</v>
+        <v>3198</v>
       </c>
       <c r="P15" t="s">
         <v>104</v>
@@ -3361,7 +3361,7 @@
         <v>65</v>
       </c>
       <c r="O16">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="P16" t="s">
         <v>101</v>
@@ -3516,7 +3516,7 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>2427</v>
+        <v>2431</v>
       </c>
       <c r="P17" t="s">
         <v>105</v>
@@ -3671,7 +3671,7 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>3435</v>
+        <v>3441</v>
       </c>
       <c r="P18" t="s">
         <v>106</v>
@@ -3826,7 +3826,7 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>3263</v>
+        <v>3269</v>
       </c>
       <c r="P19" t="s">
         <v>107</v>
@@ -3981,7 +3981,7 @@
         <v>69</v>
       </c>
       <c r="O20">
-        <v>3709</v>
+        <v>3715</v>
       </c>
       <c r="P20" t="s">
         <v>108</v>
@@ -4601,7 +4601,7 @@
         <v>73</v>
       </c>
       <c r="O24">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="P24" t="s">
         <v>112</v>
@@ -4911,7 +4911,7 @@
         <v>75</v>
       </c>
       <c r="O26">
-        <v>4339</v>
+        <v>4346</v>
       </c>
       <c r="P26" t="s">
         <v>114</v>
@@ -5066,7 +5066,7 @@
         <v>76</v>
       </c>
       <c r="O27">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="P27" t="s">
         <v>115</v>
@@ -5221,7 +5221,7 @@
         <v>77</v>
       </c>
       <c r="O28">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="P28" t="s">
         <v>116</v>
@@ -5376,7 +5376,7 @@
         <v>78</v>
       </c>
       <c r="O29">
-        <v>2794</v>
+        <v>2799</v>
       </c>
       <c r="P29" t="s">
         <v>117</v>
@@ -5531,7 +5531,7 @@
         <v>79</v>
       </c>
       <c r="O30">
-        <v>4901</v>
+        <v>4908</v>
       </c>
       <c r="P30" t="s">
         <v>196</v>
@@ -5841,7 +5841,7 @@
         <v>81</v>
       </c>
       <c r="O32">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="P32" t="s">
         <v>120</v>
@@ -5996,7 +5996,7 @@
         <v>82</v>
       </c>
       <c r="O33">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P33" t="s">
         <v>121</v>
@@ -6151,7 +6151,7 @@
         <v>83</v>
       </c>
       <c r="O34">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="P34" t="s">
         <v>122</v>
@@ -6306,7 +6306,7 @@
         <v>84</v>
       </c>
       <c r="O35">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="P35" t="s">
         <v>122</v>
@@ -6461,7 +6461,7 @@
         <v>85</v>
       </c>
       <c r="O36">
-        <v>4288</v>
+        <v>4295</v>
       </c>
       <c r="P36" t="s">
         <v>123</v>
@@ -6616,7 +6616,7 @@
         <v>86</v>
       </c>
       <c r="O37">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="P37" t="s">
         <v>124</v>
@@ -6771,7 +6771,7 @@
         <v>87</v>
       </c>
       <c r="O38">
-        <v>4425</v>
+        <v>4432</v>
       </c>
       <c r="P38" t="s">
         <v>125</v>
@@ -6926,7 +6926,7 @@
         <v>88</v>
       </c>
       <c r="O39">
-        <v>4288</v>
+        <v>4295</v>
       </c>
       <c r="P39" t="s">
         <v>123</v>
@@ -7236,7 +7236,7 @@
         <v>90</v>
       </c>
       <c r="O41">
-        <v>3107</v>
+        <v>3112</v>
       </c>
       <c r="P41" t="s">
         <v>127</v>
@@ -7391,7 +7391,7 @@
         <v>91</v>
       </c>
       <c r="O42">
-        <v>3107</v>
+        <v>3112</v>
       </c>
       <c r="P42" t="s">
         <v>127</v>

--- a/smoy_winners.xlsx
+++ b/smoy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="217">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -604,25 +604,61 @@
     <t>1982-83</t>
   </si>
   <si>
-    <t>Toni Kukoc</t>
+    <t>Luka Dončić</t>
+  </si>
+  <si>
+    <t>Luc Mbah a Moute</t>
+  </si>
+  <si>
+    <t>Ersan İlyasova</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Jamaal Tinsley</t>
+  </si>
+  <si>
+    <t>Jamario Moon</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Jason Richardson</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Tony Dumas</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
     <t>NBA</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>CLE</t>
   </si>
   <si>
     <t>No</t>
@@ -1191,7 +1227,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="P2" t="s">
         <v>94</v>
@@ -1200,7 +1236,7 @@
         <v>1999</v>
       </c>
       <c r="R2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="S2">
         <v>25</v>
@@ -1209,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V2" t="s">
         <v>129</v>
@@ -1293,10 +1329,10 @@
         <v>154</v>
       </c>
       <c r="AW2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1346,7 +1382,7 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="P3" t="s">
         <v>95</v>
@@ -1355,7 +1391,7 @@
         <v>1992</v>
       </c>
       <c r="R3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="S3">
         <v>31</v>
@@ -1364,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="U3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V3" t="s">
         <v>130</v>
@@ -1448,10 +1484,10 @@
         <v>155</v>
       </c>
       <c r="AW3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1501,7 +1537,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>5020</v>
+        <v>5018</v>
       </c>
       <c r="P4" t="s">
         <v>96</v>
@@ -1510,7 +1546,7 @@
         <v>1999</v>
       </c>
       <c r="R4" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S4">
         <v>23</v>
@@ -1519,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V4" t="s">
         <v>131</v>
@@ -1603,10 +1639,10 @@
         <v>156</v>
       </c>
       <c r="AW4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1665,7 +1701,7 @@
         <v>1992</v>
       </c>
       <c r="R5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S5">
         <v>29</v>
@@ -1674,7 +1710,7 @@
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V5" t="s">
         <v>132</v>
@@ -1758,10 +1794,10 @@
         <v>157</v>
       </c>
       <c r="AW5" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX5" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -1811,7 +1847,7 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="P6" t="s">
         <v>98</v>
@@ -1820,7 +1856,7 @@
         <v>1993</v>
       </c>
       <c r="R6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="S6">
         <v>27</v>
@@ -1829,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V6" t="s">
         <v>133</v>
@@ -1913,10 +1949,10 @@
         <v>158</v>
       </c>
       <c r="AW6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY6">
         <v>2020</v>
@@ -1966,112 +2002,112 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>3360</v>
+        <v>3379</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="Q7">
-        <v>1986</v>
+        <v>1999</v>
       </c>
       <c r="R7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="W7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="Y7">
-        <v>26.6</v>
+        <v>32.2</v>
       </c>
       <c r="Z7">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA7">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="AB7">
-        <v>0.425</v>
+        <v>0.427</v>
       </c>
       <c r="AC7">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD7">
-        <v>3.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE7">
-        <v>0.361</v>
+        <v>0.327</v>
       </c>
       <c r="AF7">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="AG7">
-        <v>11.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.447</v>
+        <v>0.503</v>
       </c>
       <c r="AI7">
-        <v>0.471</v>
+        <v>0.497</v>
       </c>
       <c r="AJ7">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="AK7">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AL7">
-        <v>0.876</v>
+        <v>0.713</v>
       </c>
       <c r="AM7">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AN7">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO7">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="AP7">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AS7">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="AT7">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="AU7">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="AV7" t="s">
         <v>159</v>
       </c>
       <c r="AW7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY7">
         <v>2019</v>
@@ -2121,112 +2157,112 @@
         <v>57</v>
       </c>
       <c r="O8">
-        <v>3360</v>
+        <v>3371</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>1986</v>
       </c>
       <c r="R8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="S8">
         <v>32</v>
       </c>
       <c r="T8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W8">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="X8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y8">
-        <v>32.8</v>
+        <v>25.6</v>
       </c>
       <c r="Z8">
-        <v>7.4</v>
+        <v>2.7</v>
       </c>
       <c r="AA8">
-        <v>16.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB8">
-        <v>0.435</v>
+        <v>0.481</v>
       </c>
       <c r="AC8">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="AE8">
-        <v>0.359</v>
+        <v>0.364</v>
       </c>
       <c r="AF8">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="AG8">
-        <v>10.4</v>
+        <v>2.8</v>
       </c>
       <c r="AH8">
-        <v>0.484</v>
+        <v>0.599</v>
       </c>
       <c r="AI8">
-        <v>0.505</v>
+        <v>0.572</v>
       </c>
       <c r="AJ8">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="AK8">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="AL8">
-        <v>0.88</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="AM8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN8">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AO8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP8">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="AQ8">
+        <v>1.2</v>
+      </c>
+      <c r="AR8">
+        <v>0.4</v>
+      </c>
+      <c r="AS8">
         <v>1.1</v>
       </c>
-      <c r="AR8">
-        <v>0.2</v>
-      </c>
-      <c r="AS8">
-        <v>3</v>
-      </c>
       <c r="AT8">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AU8">
-        <v>22.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="s">
         <v>160</v>
       </c>
       <c r="AW8" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX8" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY8">
         <v>2018</v>
@@ -2276,112 +2312,112 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>1681</v>
+        <v>1713</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="Q9">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="R9" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="S9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T9">
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V9" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="W9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="X9">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Y9">
-        <v>31</v>
+        <v>26.1</v>
       </c>
       <c r="Z9">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="AA9">
-        <v>13.5</v>
+        <v>10.9</v>
       </c>
       <c r="AB9">
-        <v>0.406</v>
+        <v>0.431</v>
       </c>
       <c r="AC9">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="AD9">
-        <v>8.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="AE9">
-        <v>0.372</v>
+        <v>0.353</v>
       </c>
       <c r="AF9">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AG9">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="AH9">
-        <v>0.468</v>
+        <v>0.496</v>
       </c>
       <c r="AI9">
-        <v>0.527</v>
+        <v>0.511</v>
       </c>
       <c r="AJ9">
         <v>2</v>
       </c>
       <c r="AK9">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AL9">
-        <v>0.84</v>
+        <v>0.778</v>
       </c>
       <c r="AM9">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="AN9">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="AO9">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="AP9">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AR9">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AS9">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AU9">
-        <v>16.2</v>
+        <v>13.1</v>
       </c>
       <c r="AV9" t="s">
         <v>161</v>
       </c>
       <c r="AW9" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX9" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY9">
         <v>2017</v>
@@ -2431,100 +2467,100 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>2336</v>
+        <v>2294</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="Q10">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="R10" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="S10">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="T10">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="U10" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W10">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="X10">
+        <v>73</v>
+      </c>
+      <c r="Y10">
+        <v>31.6</v>
+      </c>
+      <c r="Z10">
+        <v>4.9</v>
+      </c>
+      <c r="AA10">
+        <v>11.1</v>
+      </c>
+      <c r="AB10">
+        <v>0.443</v>
+      </c>
+      <c r="AC10">
+        <v>1.7</v>
+      </c>
+      <c r="AD10">
         <v>5</v>
       </c>
-      <c r="Y10">
-        <v>26.9</v>
-      </c>
-      <c r="Z10">
-        <v>4.8</v>
-      </c>
-      <c r="AA10">
-        <v>11.9</v>
-      </c>
-      <c r="AB10">
-        <v>0.404</v>
-      </c>
-      <c r="AC10">
-        <v>1.5</v>
-      </c>
-      <c r="AD10">
-        <v>4.4</v>
-      </c>
       <c r="AE10">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="AF10">
         <v>3.3</v>
       </c>
       <c r="AG10">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="AH10">
-        <v>0.44</v>
+        <v>0.529</v>
       </c>
       <c r="AI10">
-        <v>0.466</v>
+        <v>0.518</v>
       </c>
       <c r="AJ10">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AK10">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AL10">
-        <v>0.904</v>
+        <v>0.82</v>
       </c>
       <c r="AM10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="AO10">
+        <v>5.1</v>
+      </c>
+      <c r="AP10">
         <v>1.8</v>
       </c>
-      <c r="AP10">
-        <v>2.3</v>
-      </c>
       <c r="AQ10">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="AR10">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AS10">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="AU10">
         <v>14.2</v>
@@ -2533,10 +2569,10 @@
         <v>162</v>
       </c>
       <c r="AW10" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX10" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY10">
         <v>2016</v>
@@ -2586,7 +2622,7 @@
         <v>60</v>
       </c>
       <c r="O11">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="P11" t="s">
         <v>99</v>
@@ -2595,7 +2631,7 @@
         <v>1986</v>
       </c>
       <c r="R11" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S11">
         <v>29</v>
@@ -2604,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V11" t="s">
         <v>135</v>
@@ -2688,10 +2724,10 @@
         <v>163</v>
       </c>
       <c r="AW11" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX11" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY11">
         <v>2015</v>
@@ -2741,112 +2777,109 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="Q12">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="R12" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="S12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U12" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W12">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="X12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="Y12">
-        <v>30.3</v>
+        <v>13.8</v>
       </c>
       <c r="Z12">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="AA12">
-        <v>14.7</v>
+        <v>2.5</v>
       </c>
       <c r="AB12">
-        <v>0.416</v>
+        <v>0.2</v>
       </c>
       <c r="AC12">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD12">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="AE12">
-        <v>0.361</v>
+        <v>0.067</v>
       </c>
       <c r="AF12">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="AG12">
-        <v>8.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="AH12">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="AI12">
-        <v>0.496</v>
+        <v>0.225</v>
       </c>
       <c r="AJ12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>4.7</v>
-      </c>
-      <c r="AL12">
-        <v>0.866</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN12">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AO12">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP12">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AQ12">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AR12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AT12">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AU12">
-        <v>18.6</v>
+        <v>1.1</v>
       </c>
       <c r="AV12" t="s">
         <v>164</v>
       </c>
       <c r="AW12" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX12" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY12">
         <v>2014</v>
@@ -2896,7 +2929,7 @@
         <v>62</v>
       </c>
       <c r="O13">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="P13" t="s">
         <v>102</v>
@@ -2905,7 +2938,7 @@
         <v>1985</v>
       </c>
       <c r="R13" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S13">
         <v>28</v>
@@ -2914,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="U13" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V13" t="s">
         <v>136</v>
@@ -2998,10 +3031,10 @@
         <v>165</v>
       </c>
       <c r="AW13" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX13" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY13">
         <v>2013</v>
@@ -3051,112 +3084,112 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>2358</v>
+        <v>2343</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="Q14">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="R14" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="S14">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V14" t="s">
+        <v>213</v>
+      </c>
+      <c r="W14">
+        <v>8</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>15.4</v>
+      </c>
+      <c r="Z14">
+        <v>0.9</v>
+      </c>
+      <c r="AA14">
         <v>3</v>
       </c>
-      <c r="U14" t="s">
-        <v>202</v>
-      </c>
-      <c r="V14" t="s">
-        <v>137</v>
-      </c>
-      <c r="W14">
-        <v>62</v>
-      </c>
-      <c r="X14">
-        <v>2</v>
-      </c>
-      <c r="Y14">
-        <v>31.4</v>
-      </c>
-      <c r="Z14">
-        <v>5</v>
-      </c>
-      <c r="AA14">
-        <v>10.1</v>
-      </c>
       <c r="AB14">
-        <v>0.491</v>
+        <v>0.292</v>
       </c>
       <c r="AC14">
+        <v>0.3</v>
+      </c>
+      <c r="AD14">
+        <v>1.3</v>
+      </c>
+      <c r="AE14">
+        <v>0.2</v>
+      </c>
+      <c r="AF14">
+        <v>0.6</v>
+      </c>
+      <c r="AG14">
         <v>1.8</v>
       </c>
-      <c r="AD14">
-        <v>4.7</v>
-      </c>
-      <c r="AE14">
-        <v>0.39</v>
-      </c>
-      <c r="AF14">
-        <v>3.1</v>
-      </c>
-      <c r="AG14">
-        <v>5.4</v>
-      </c>
       <c r="AH14">
-        <v>0.579</v>
+        <v>0.357</v>
       </c>
       <c r="AI14">
-        <v>0.582</v>
+        <v>0.333</v>
       </c>
       <c r="AJ14">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="AK14">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="AL14">
-        <v>0.846</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN14">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AO14">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="AP14">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="AQ14">
+        <v>0.1</v>
+      </c>
+      <c r="AR14">
+        <v>0.6</v>
+      </c>
+      <c r="AS14">
         <v>1</v>
       </c>
-      <c r="AR14">
-        <v>0.2</v>
-      </c>
-      <c r="AS14">
-        <v>2.2</v>
-      </c>
       <c r="AT14">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="AU14">
-        <v>16.8</v>
+        <v>2.3</v>
       </c>
       <c r="AV14" t="s">
         <v>166</v>
       </c>
       <c r="AW14" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX14" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY14">
         <v>2012</v>
@@ -3206,112 +3239,112 @@
         <v>64</v>
       </c>
       <c r="O15">
-        <v>3198</v>
+        <v>3193</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="Q15">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="R15" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S15">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="T15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U15" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V15" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="W15">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X15">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="Y15">
-        <v>32.2</v>
+        <v>39.6</v>
       </c>
       <c r="Z15">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA15">
-        <v>10.9</v>
+        <v>17.5</v>
       </c>
       <c r="AB15">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="AE15">
-        <v>0.382</v>
+        <v>0.174</v>
       </c>
       <c r="AF15">
-        <v>4.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG15">
-        <v>8.699999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="AH15">
-        <v>0.5659999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="AI15">
-        <v>0.5679999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="AJ15">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="AK15">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="AL15">
-        <v>0.675</v>
+        <v>0.791</v>
       </c>
       <c r="AM15">
+        <v>3.4</v>
+      </c>
+      <c r="AN15">
+        <v>5.3</v>
+      </c>
+      <c r="AO15">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AP15">
         <v>2.1</v>
       </c>
-      <c r="AN15">
-        <v>6.5</v>
-      </c>
-      <c r="AO15">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AP15">
-        <v>3</v>
-      </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AS15">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AT15">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AU15">
-        <v>14.4</v>
+        <v>21.8</v>
       </c>
       <c r="AV15" t="s">
         <v>167</v>
       </c>
       <c r="AW15" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX15" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY15">
         <v>2011</v>
@@ -3361,112 +3394,112 @@
         <v>65</v>
       </c>
       <c r="O16">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="Q16">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="R16" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="S16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U16" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="W16">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>31.1</v>
+        <v>15.5</v>
       </c>
       <c r="Z16">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="AA16">
-        <v>14</v>
+        <v>3.7</v>
       </c>
       <c r="AB16">
-        <v>0.449</v>
+        <v>0.371</v>
       </c>
       <c r="AC16">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD16">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>0.382</v>
+        <v>0.179</v>
       </c>
       <c r="AF16">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="AG16">
-        <v>8.6</v>
+        <v>2.7</v>
       </c>
       <c r="AH16">
-        <v>0.491</v>
+        <v>0.446</v>
       </c>
       <c r="AI16">
-        <v>0.523</v>
+        <v>0.396</v>
       </c>
       <c r="AJ16">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="AK16">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="AL16">
-        <v>0.857</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="AM16">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AN16">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="AO16">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AR16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AS16">
         <v>1.7</v>
       </c>
       <c r="AT16">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AU16">
-        <v>18</v>
+        <v>3.5</v>
       </c>
       <c r="AV16" t="s">
         <v>168</v>
       </c>
       <c r="AW16" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX16" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY16">
         <v>2010</v>
@@ -3516,112 +3549,112 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="P17" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="Q17">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="R17" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S17">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U17" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W17">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="X17">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="Y17">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="Z17">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="AA17">
-        <v>15.8</v>
+        <v>13</v>
       </c>
       <c r="AB17">
-        <v>0.463</v>
+        <v>0.488</v>
       </c>
       <c r="AC17">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AD17">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="AE17">
-        <v>0.366</v>
+        <v>0.383</v>
       </c>
       <c r="AF17">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="AG17">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AH17">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="AI17">
-        <v>0.535</v>
+        <v>0.556</v>
       </c>
       <c r="AJ17">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="AK17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AL17">
-        <v>0.88</v>
+        <v>0.778</v>
       </c>
       <c r="AM17">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AN17">
+        <v>3.4</v>
+      </c>
+      <c r="AO17">
+        <v>4.5</v>
+      </c>
+      <c r="AP17">
         <v>1.9</v>
       </c>
-      <c r="AO17">
-        <v>2.4</v>
-      </c>
-      <c r="AP17">
-        <v>3.4</v>
-      </c>
       <c r="AQ17">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AR17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS17">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AT17">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AU17">
-        <v>19.6</v>
+        <v>16.4</v>
       </c>
       <c r="AV17" t="s">
         <v>169</v>
       </c>
       <c r="AW17" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX17" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY17">
         <v>2009</v>
@@ -3671,7 +3704,7 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="P18" t="s">
         <v>106</v>
@@ -3680,7 +3713,7 @@
         <v>1977</v>
       </c>
       <c r="R18" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S18">
         <v>31</v>
@@ -3689,7 +3722,7 @@
         <v>6</v>
       </c>
       <c r="U18" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V18" t="s">
         <v>141</v>
@@ -3773,10 +3806,10 @@
         <v>170</v>
       </c>
       <c r="AW18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY18">
         <v>2008</v>
@@ -3826,112 +3859,112 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="Q19">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="R19" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="S19">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T19">
         <v>4</v>
       </c>
       <c r="U19" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V19" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="W19">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X19">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="Y19">
-        <v>32.7</v>
+        <v>40.9</v>
       </c>
       <c r="Z19">
-        <v>6.6</v>
+        <v>9.9</v>
       </c>
       <c r="AA19">
-        <v>13.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB19">
         <v>0.476</v>
       </c>
       <c r="AC19">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD19">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AE19">
-        <v>0.434</v>
+        <v>0.319</v>
       </c>
       <c r="AF19">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="AG19">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="AH19">
-        <v>0.504</v>
+        <v>0.513</v>
       </c>
       <c r="AI19">
-        <v>0.5620000000000001</v>
+        <v>0.507</v>
       </c>
       <c r="AJ19">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="AK19">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="AL19">
-        <v>0.845</v>
+        <v>0.698</v>
       </c>
       <c r="AM19">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="AN19">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO19">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="AP19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AR19">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AS19">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="AT19">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AU19">
-        <v>18.1</v>
+        <v>27.3</v>
       </c>
       <c r="AV19" t="s">
         <v>171</v>
       </c>
       <c r="AW19" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX19" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY19">
         <v>2007</v>
@@ -3981,7 +4014,7 @@
         <v>69</v>
       </c>
       <c r="O20">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="P20" t="s">
         <v>108</v>
@@ -3990,7 +4023,7 @@
         <v>1980</v>
       </c>
       <c r="R20" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S20">
         <v>26</v>
@@ -3999,7 +4032,7 @@
         <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V20" t="s">
         <v>143</v>
@@ -4083,10 +4116,10 @@
         <v>172</v>
       </c>
       <c r="AW20" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX20" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY20">
         <v>2006</v>
@@ -4136,7 +4169,7 @@
         <v>70</v>
       </c>
       <c r="O21">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P21" t="s">
         <v>109</v>
@@ -4145,7 +4178,7 @@
         <v>1983</v>
       </c>
       <c r="R21" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S21">
         <v>22</v>
@@ -4154,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V21" t="s">
         <v>144</v>
@@ -4238,10 +4271,10 @@
         <v>173</v>
       </c>
       <c r="AW21" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX21" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY21">
         <v>2005</v>
@@ -4291,7 +4324,7 @@
         <v>71</v>
       </c>
       <c r="O22">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s">
         <v>110</v>
@@ -4300,7 +4333,7 @@
         <v>1976</v>
       </c>
       <c r="R22" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="S22">
         <v>28</v>
@@ -4309,7 +4342,7 @@
         <v>6</v>
       </c>
       <c r="U22" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V22" t="s">
         <v>140</v>
@@ -4393,10 +4426,10 @@
         <v>174</v>
       </c>
       <c r="AW22" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX22" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY22">
         <v>2004</v>
@@ -4446,7 +4479,7 @@
         <v>72</v>
       </c>
       <c r="O23">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P23" t="s">
         <v>111</v>
@@ -4455,7 +4488,7 @@
         <v>1973</v>
       </c>
       <c r="R23" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="S23">
         <v>30</v>
@@ -4464,7 +4497,7 @@
         <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V23" t="s">
         <v>145</v>
@@ -4548,10 +4581,10 @@
         <v>175</v>
       </c>
       <c r="AW23" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX23" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY23">
         <v>2003</v>
@@ -4601,7 +4634,7 @@
         <v>73</v>
       </c>
       <c r="O24">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="P24" t="s">
         <v>112</v>
@@ -4610,7 +4643,7 @@
         <v>1973</v>
       </c>
       <c r="R24" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="S24">
         <v>29</v>
@@ -4619,7 +4652,7 @@
         <v>7</v>
       </c>
       <c r="U24" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V24" t="s">
         <v>146</v>
@@ -4703,10 +4736,10 @@
         <v>176</v>
       </c>
       <c r="AW24" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX24" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY24">
         <v>2002</v>
@@ -4765,7 +4798,7 @@
         <v>1972</v>
       </c>
       <c r="R25" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S25">
         <v>29</v>
@@ -4774,7 +4807,7 @@
         <v>7</v>
       </c>
       <c r="U25" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V25" t="s">
         <v>147</v>
@@ -4858,10 +4891,10 @@
         <v>177</v>
       </c>
       <c r="AW25" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX25" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -4920,7 +4953,7 @@
         <v>1971</v>
       </c>
       <c r="R26" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S26">
         <v>29</v>
@@ -4929,7 +4962,7 @@
         <v>7</v>
       </c>
       <c r="U26" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V26" t="s">
         <v>142</v>
@@ -5013,10 +5046,10 @@
         <v>178</v>
       </c>
       <c r="AW26" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX26" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY26">
         <v>2000</v>
@@ -5075,7 +5108,7 @@
         <v>1968</v>
       </c>
       <c r="R27" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="S27">
         <v>31</v>
@@ -5084,7 +5117,7 @@
         <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V27" t="s">
         <v>148</v>
@@ -5168,10 +5201,10 @@
         <v>179</v>
       </c>
       <c r="AW27" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX27" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY27">
         <v>1999</v>
@@ -5221,7 +5254,7 @@
         <v>77</v>
       </c>
       <c r="O28">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P28" t="s">
         <v>116</v>
@@ -5230,7 +5263,7 @@
         <v>1966</v>
       </c>
       <c r="R28" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S28">
         <v>32</v>
@@ -5239,7 +5272,7 @@
         <v>10</v>
       </c>
       <c r="U28" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V28" t="s">
         <v>142</v>
@@ -5323,10 +5356,10 @@
         <v>180</v>
       </c>
       <c r="AW28" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX28" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY28">
         <v>1998</v>
@@ -5385,7 +5418,7 @@
         <v>1965</v>
       </c>
       <c r="R29" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S29">
         <v>32</v>
@@ -5394,7 +5427,7 @@
         <v>8</v>
       </c>
       <c r="U29" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V29" t="s">
         <v>136</v>
@@ -5478,10 +5511,10 @@
         <v>181</v>
       </c>
       <c r="AW29" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX29" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY29">
         <v>1997</v>
@@ -5531,112 +5564,112 @@
         <v>79</v>
       </c>
       <c r="O30">
-        <v>4908</v>
+        <v>4917</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q30">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="R30" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="S30">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U30" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="W30">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X30">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Y30">
-        <v>26</v>
+        <v>19.2</v>
       </c>
       <c r="Z30">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="AA30">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.49</v>
+        <v>0.418</v>
       </c>
       <c r="AC30">
         <v>1.1</v>
       </c>
       <c r="AD30">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AE30">
-        <v>0.403</v>
+        <v>0.357</v>
       </c>
       <c r="AF30">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="AG30">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AH30">
-        <v>0.524</v>
+        <v>0.446</v>
       </c>
       <c r="AI30">
-        <v>0.546</v>
+        <v>0.475</v>
       </c>
       <c r="AJ30">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AK30">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AL30">
-        <v>0.772</v>
+        <v>0.599</v>
       </c>
       <c r="AM30">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AN30">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="AO30">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="AP30">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AS30">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AT30">
         <v>1.9</v>
       </c>
       <c r="AU30">
-        <v>13.1</v>
+        <v>11.6</v>
       </c>
       <c r="AV30" t="s">
         <v>182</v>
       </c>
       <c r="AW30" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX30" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY30">
         <v>1996</v>
@@ -5686,7 +5719,7 @@
         <v>80</v>
       </c>
       <c r="O31">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P31" t="s">
         <v>119</v>
@@ -5695,7 +5728,7 @@
         <v>1966</v>
       </c>
       <c r="R31" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S31">
         <v>29</v>
@@ -5704,7 +5737,7 @@
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V31" t="s">
         <v>136</v>
@@ -5788,10 +5821,10 @@
         <v>183</v>
       </c>
       <c r="AW31" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX31" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY31">
         <v>1995</v>
@@ -5841,7 +5874,7 @@
         <v>81</v>
       </c>
       <c r="O32">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="P32" t="s">
         <v>120</v>
@@ -5850,7 +5883,7 @@
         <v>1964</v>
       </c>
       <c r="R32" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S32">
         <v>30</v>
@@ -5859,7 +5892,7 @@
         <v>8</v>
       </c>
       <c r="U32" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V32" t="s">
         <v>149</v>
@@ -5943,10 +5976,10 @@
         <v>184</v>
       </c>
       <c r="AW32" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX32" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY32">
         <v>1994</v>
@@ -5996,7 +6029,7 @@
         <v>82</v>
       </c>
       <c r="O33">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="P33" t="s">
         <v>121</v>
@@ -6005,7 +6038,7 @@
         <v>1966</v>
       </c>
       <c r="R33" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S33">
         <v>27</v>
@@ -6014,7 +6047,7 @@
         <v>4</v>
       </c>
       <c r="U33" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V33" t="s">
         <v>150</v>
@@ -6098,10 +6131,10 @@
         <v>185</v>
       </c>
       <c r="AW33" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX33" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY33">
         <v>1993</v>
@@ -6151,7 +6184,7 @@
         <v>83</v>
       </c>
       <c r="O34">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="P34" t="s">
         <v>122</v>
@@ -6160,7 +6193,7 @@
         <v>1962</v>
       </c>
       <c r="R34" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S34">
         <v>30</v>
@@ -6169,7 +6202,7 @@
         <v>7</v>
       </c>
       <c r="U34" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V34" t="s">
         <v>151</v>
@@ -6253,10 +6286,10 @@
         <v>186</v>
       </c>
       <c r="AW34" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX34" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY34">
         <v>1992</v>
@@ -6306,7 +6339,7 @@
         <v>84</v>
       </c>
       <c r="O35">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="P35" t="s">
         <v>122</v>
@@ -6315,7 +6348,7 @@
         <v>1962</v>
       </c>
       <c r="R35" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S35">
         <v>29</v>
@@ -6324,7 +6357,7 @@
         <v>6</v>
       </c>
       <c r="U35" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V35" t="s">
         <v>151</v>
@@ -6408,10 +6441,10 @@
         <v>187</v>
       </c>
       <c r="AW35" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX35" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY35">
         <v>1991</v>
@@ -6470,7 +6503,7 @@
         <v>1959</v>
       </c>
       <c r="R36" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S36">
         <v>31</v>
@@ -6479,7 +6512,7 @@
         <v>8</v>
       </c>
       <c r="U36" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V36" t="s">
         <v>152</v>
@@ -6563,10 +6596,10 @@
         <v>188</v>
       </c>
       <c r="AW36" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX36" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY36">
         <v>1990</v>
@@ -6616,7 +6649,7 @@
         <v>86</v>
       </c>
       <c r="O37">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="P37" t="s">
         <v>124</v>
@@ -6625,7 +6658,7 @@
         <v>1959</v>
       </c>
       <c r="R37" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="S37">
         <v>30</v>
@@ -6634,7 +6667,7 @@
         <v>8</v>
       </c>
       <c r="U37" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V37" t="s">
         <v>142</v>
@@ -6718,10 +6751,10 @@
         <v>189</v>
       </c>
       <c r="AW37" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX37" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY37">
         <v>1989</v>
@@ -6780,7 +6813,7 @@
         <v>1964</v>
       </c>
       <c r="R38" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S38">
         <v>24</v>
@@ -6789,7 +6822,7 @@
         <v>2</v>
       </c>
       <c r="U38" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V38" t="s">
         <v>140</v>
@@ -6873,10 +6906,10 @@
         <v>190</v>
       </c>
       <c r="AW38" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AX38" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY38">
         <v>1988</v>
@@ -6935,7 +6968,7 @@
         <v>1959</v>
       </c>
       <c r="R39" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S39">
         <v>28</v>
@@ -6944,7 +6977,7 @@
         <v>5</v>
       </c>
       <c r="U39" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V39" t="s">
         <v>152</v>
@@ -7028,10 +7061,10 @@
         <v>191</v>
       </c>
       <c r="AW39" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX39" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY39">
         <v>1987</v>
@@ -7081,7 +7114,7 @@
         <v>89</v>
       </c>
       <c r="O40">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P40" t="s">
         <v>126</v>
@@ -7090,7 +7123,7 @@
         <v>1952</v>
       </c>
       <c r="R40" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="S40">
         <v>34</v>
@@ -7099,7 +7132,7 @@
         <v>9</v>
       </c>
       <c r="U40" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V40" t="s">
         <v>130</v>
@@ -7183,10 +7216,10 @@
         <v>192</v>
       </c>
       <c r="AW40" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX40" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY40">
         <v>1986</v>
@@ -7236,7 +7269,7 @@
         <v>90</v>
       </c>
       <c r="O41">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="P41" t="s">
         <v>127</v>
@@ -7245,7 +7278,7 @@
         <v>1957</v>
       </c>
       <c r="R41" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S41">
         <v>28</v>
@@ -7254,7 +7287,7 @@
         <v>5</v>
       </c>
       <c r="U41" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V41" t="s">
         <v>130</v>
@@ -7338,10 +7371,10 @@
         <v>193</v>
       </c>
       <c r="AW41" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX41" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY41">
         <v>1985</v>
@@ -7391,7 +7424,7 @@
         <v>91</v>
       </c>
       <c r="O42">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="P42" t="s">
         <v>127</v>
@@ -7400,7 +7433,7 @@
         <v>1957</v>
       </c>
       <c r="R42" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S42">
         <v>27</v>
@@ -7409,7 +7442,7 @@
         <v>4</v>
       </c>
       <c r="U42" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V42" t="s">
         <v>130</v>
@@ -7493,10 +7526,10 @@
         <v>194</v>
       </c>
       <c r="AW42" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX42" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY42">
         <v>1984</v>
@@ -7534,7 +7567,7 @@
         <v>92</v>
       </c>
       <c r="O43">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="P43" t="s">
         <v>128</v>
@@ -7543,7 +7576,7 @@
         <v>1951</v>
       </c>
       <c r="R43" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S43">
         <v>32</v>
@@ -7552,7 +7585,7 @@
         <v>9</v>
       </c>
       <c r="U43" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V43" t="s">
         <v>147</v>
@@ -7636,10 +7669,10 @@
         <v>195</v>
       </c>
       <c r="AW43" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AX43" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AY43">
         <v>1983</v>
